--- a/name/vnindex/20230113/VNINDEX_HOSE_5p_20230113.xlsx
+++ b/name/vnindex/20230113/VNINDEX_HOSE_5p_20230113.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1673601300000</v>
+        <v>1673601240000</v>
       </c>
       <c r="B2">
-        <v>4744800</v>
+        <v>1902500</v>
       </c>
       <c r="C2">
-        <v>8803200</v>
+        <v>2801300</v>
       </c>
       <c r="D2">
-        <v>1300800</v>
+        <v>1249200</v>
       </c>
       <c r="E2">
-        <v>73076838000</v>
+        <v>30335170000</v>
       </c>
       <c r="F2">
-        <v>150209657000</v>
+        <v>48472904000</v>
       </c>
       <c r="G2">
-        <v>19111249000</v>
+        <v>18256624000</v>
       </c>
       <c r="H2">
-        <v>14848800</v>
+        <v>5953000</v>
       </c>
       <c r="I2">
-        <v>242397744000</v>
+        <v>97064698000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-13T09:15:00.000Z</v>
+        <v>2023-01-13T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>242397744000</v>
+        <v>97064698000</v>
       </c>
       <c r="L2">
-        <v>14848800</v>
+        <v>5953000</v>
       </c>
       <c r="M2">
-        <v>4058400</v>
+        <v>898800</v>
       </c>
       <c r="N2">
-        <v>77132819000</v>
+        <v>18137734000</v>
       </c>
       <c r="O2">
-        <v>4058400</v>
+        <v>898800</v>
       </c>
       <c r="P2">
-        <v>77132819000</v>
+        <v>18137734000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1673601600000</v>
+        <v>1673601360000</v>
       </c>
       <c r="B3">
-        <v>6093500</v>
+        <v>1148100</v>
       </c>
       <c r="C3">
-        <v>4591200</v>
+        <v>3464500</v>
       </c>
       <c r="D3">
-        <v>55000</v>
+        <v>43500</v>
       </c>
       <c r="E3">
-        <v>99580223000</v>
+        <v>18159625000</v>
       </c>
       <c r="F3">
-        <v>83602209000</v>
+        <v>60439324000</v>
       </c>
       <c r="G3">
-        <v>1032719000</v>
+        <v>679626000</v>
       </c>
       <c r="H3">
-        <v>10739700</v>
+        <v>4656100</v>
       </c>
       <c r="I3">
-        <v>184215151000</v>
+        <v>79278575000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-13T09:20:00.000Z</v>
+        <v>2023-01-13T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>426612895000</v>
+        <v>176343273000</v>
       </c>
       <c r="L3">
-        <v>25588500</v>
+        <v>10609100</v>
       </c>
       <c r="M3">
-        <v>-1502300</v>
+        <v>2316400</v>
       </c>
       <c r="N3">
-        <v>-15978014000</v>
+        <v>42279699000</v>
       </c>
       <c r="O3">
-        <v>2556100</v>
+        <v>3215200</v>
       </c>
       <c r="P3">
-        <v>61154805000</v>
+        <v>60417433000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1673601900000</v>
+        <v>1673601480000</v>
       </c>
       <c r="B4">
-        <v>3230200</v>
+        <v>1694200</v>
       </c>
       <c r="C4">
-        <v>3573200</v>
+        <v>2537400</v>
       </c>
       <c r="D4">
-        <v>31300</v>
+        <v>8100</v>
       </c>
       <c r="E4">
-        <v>53000138000</v>
+        <v>24582043000</v>
       </c>
       <c r="F4">
-        <v>68297305000</v>
+        <v>41297429000</v>
       </c>
       <c r="G4">
-        <v>579494000</v>
+        <v>174999000</v>
       </c>
       <c r="H4">
-        <v>6834700</v>
+        <v>4239700</v>
       </c>
       <c r="I4">
-        <v>121876937000</v>
+        <v>66054471000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-13T09:25:00.000Z</v>
+        <v>2023-01-13T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>548489832000</v>
+        <v>242397744000</v>
       </c>
       <c r="L4">
-        <v>32423200</v>
+        <v>14848800</v>
       </c>
       <c r="M4">
-        <v>343000</v>
+        <v>843200</v>
       </c>
       <c r="N4">
-        <v>15297167000</v>
+        <v>16715386000</v>
       </c>
       <c r="O4">
-        <v>2899100</v>
+        <v>4058400</v>
       </c>
       <c r="P4">
-        <v>76451972000</v>
+        <v>77132819000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1673602200000</v>
+        <v>1673601600000</v>
       </c>
       <c r="B5">
-        <v>2900500</v>
+        <v>1929400</v>
       </c>
       <c r="C5">
-        <v>5451100</v>
+        <v>1816000</v>
       </c>
       <c r="D5">
-        <v>27900</v>
+        <v>12400</v>
       </c>
       <c r="E5">
-        <v>47818853000</v>
+        <v>32293452000</v>
       </c>
       <c r="F5">
-        <v>96895456000</v>
+        <v>34109048000</v>
       </c>
       <c r="G5">
-        <v>557419000</v>
+        <v>206176000</v>
       </c>
       <c r="H5">
-        <v>8379500</v>
+        <v>3757800</v>
       </c>
       <c r="I5">
-        <v>145271728000</v>
+        <v>66608676000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-13T09:30:00.000Z</v>
+        <v>2023-01-13T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>693761560000</v>
+        <v>309006420000</v>
       </c>
       <c r="L5">
-        <v>40802700</v>
+        <v>18606600</v>
       </c>
       <c r="M5">
-        <v>2550600</v>
+        <v>-113400</v>
       </c>
       <c r="N5">
-        <v>49076603000</v>
+        <v>1815596000</v>
       </c>
       <c r="O5">
-        <v>5449700</v>
+        <v>3945000</v>
       </c>
       <c r="P5">
-        <v>125528575000</v>
+        <v>78948415000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1673602500000</v>
+        <v>1673601720000</v>
       </c>
       <c r="B6">
-        <v>3821200</v>
+        <v>2510500</v>
       </c>
       <c r="C6">
-        <v>11681100</v>
+        <v>1989700</v>
       </c>
       <c r="D6">
-        <v>46400</v>
+        <v>18600</v>
       </c>
       <c r="E6">
-        <v>61150240000</v>
+        <v>41692856000</v>
       </c>
       <c r="F6">
-        <v>190059662000</v>
+        <v>35193697000</v>
       </c>
       <c r="G6">
-        <v>964286000</v>
+        <v>303268000</v>
       </c>
       <c r="H6">
-        <v>15548700</v>
+        <v>4518800</v>
       </c>
       <c r="I6">
-        <v>252174188000</v>
+        <v>77189821000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-13T09:35:00.000Z</v>
+        <v>2023-01-13T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>945935748000</v>
+        <v>386196241000</v>
       </c>
       <c r="L6">
-        <v>56351400</v>
+        <v>23125400</v>
       </c>
       <c r="M6">
-        <v>7859900</v>
+        <v>-520800</v>
       </c>
       <c r="N6">
-        <v>128909422000</v>
+        <v>-6499159000</v>
       </c>
       <c r="O6">
-        <v>13309600</v>
+        <v>3424200</v>
       </c>
       <c r="P6">
-        <v>254437997000</v>
+        <v>72449256000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1673602800000</v>
+        <v>1673601840000</v>
       </c>
       <c r="B7">
-        <v>4789900</v>
+        <v>2616300</v>
       </c>
       <c r="C7">
-        <v>8447200</v>
+        <v>1443500</v>
       </c>
       <c r="D7">
-        <v>40300</v>
+        <v>28200</v>
       </c>
       <c r="E7">
-        <v>75582154000</v>
+        <v>41077645000</v>
       </c>
       <c r="F7">
-        <v>141450451000</v>
+        <v>26802058000</v>
       </c>
       <c r="G7">
-        <v>519203000</v>
+        <v>558369000</v>
       </c>
       <c r="H7">
-        <v>13277400</v>
+        <v>4088000</v>
       </c>
       <c r="I7">
-        <v>217551808000</v>
+        <v>68438072000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-13T09:40:00.000Z</v>
+        <v>2023-01-13T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1163487556000</v>
+        <v>454634313000</v>
       </c>
       <c r="L7">
-        <v>69628800</v>
+        <v>27213400</v>
       </c>
       <c r="M7">
-        <v>3657300</v>
+        <v>-1172800</v>
       </c>
       <c r="N7">
-        <v>65868297000</v>
+        <v>-14275587000</v>
       </c>
       <c r="O7">
-        <v>16966900</v>
+        <v>2251400</v>
       </c>
       <c r="P7">
-        <v>320306294000</v>
+        <v>58173669000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1673603100000</v>
+        <v>1673601960000</v>
       </c>
       <c r="B8">
-        <v>4366800</v>
+        <v>1252700</v>
       </c>
       <c r="C8">
-        <v>5046700</v>
+        <v>1464100</v>
       </c>
       <c r="D8">
-        <v>40700</v>
+        <v>16100</v>
       </c>
       <c r="E8">
-        <v>75123454000</v>
+        <v>20842746000</v>
       </c>
       <c r="F8">
-        <v>86581590000</v>
+        <v>28597389000</v>
       </c>
       <c r="G8">
-        <v>702708000</v>
+        <v>373522000</v>
       </c>
       <c r="H8">
-        <v>9454200</v>
+        <v>2732900</v>
       </c>
       <c r="I8">
-        <v>162407752000</v>
+        <v>49813657000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-13T09:45:00.000Z</v>
+        <v>2023-01-13T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1325895308000</v>
+        <v>504447970000</v>
       </c>
       <c r="L8">
-        <v>79083000</v>
+        <v>29946300</v>
       </c>
       <c r="M8">
-        <v>679900</v>
+        <v>211400</v>
       </c>
       <c r="N8">
-        <v>11458136000</v>
+        <v>7754643000</v>
       </c>
       <c r="O8">
-        <v>17646800</v>
+        <v>2462800</v>
       </c>
       <c r="P8">
-        <v>331764430000</v>
+        <v>65928312000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1673603400000</v>
+        <v>1673602080000</v>
       </c>
       <c r="B9">
-        <v>3559400</v>
+        <v>1014800</v>
       </c>
       <c r="C9">
-        <v>3984800</v>
+        <v>1451100</v>
       </c>
       <c r="D9">
-        <v>29400</v>
+        <v>11000</v>
       </c>
       <c r="E9">
-        <v>51871167000</v>
+        <v>16673662000</v>
       </c>
       <c r="F9">
-        <v>69132092000</v>
+        <v>27197322000</v>
       </c>
       <c r="G9">
-        <v>398236000</v>
+        <v>170878000</v>
       </c>
       <c r="H9">
-        <v>7573600</v>
+        <v>2476900</v>
       </c>
       <c r="I9">
-        <v>121401495000</v>
+        <v>44041862000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-13T09:50:00.000Z</v>
+        <v>2023-01-13T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1447296803000</v>
+        <v>548489832000</v>
       </c>
       <c r="L9">
-        <v>86656600</v>
+        <v>32423200</v>
       </c>
       <c r="M9">
-        <v>425400</v>
+        <v>436300</v>
       </c>
       <c r="N9">
-        <v>17260925000</v>
+        <v>10523660000</v>
       </c>
       <c r="O9">
-        <v>18072200</v>
+        <v>2899100</v>
       </c>
       <c r="P9">
-        <v>349025355000</v>
+        <v>76451972000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1673603700000</v>
+        <v>1673602200000</v>
       </c>
       <c r="B10">
-        <v>4204600</v>
+        <v>1371400</v>
       </c>
       <c r="C10">
-        <v>2743900</v>
+        <v>2373700</v>
       </c>
       <c r="D10">
-        <v>66000</v>
+        <v>14400</v>
       </c>
       <c r="E10">
-        <v>67800011000</v>
+        <v>23715069000</v>
       </c>
       <c r="F10">
-        <v>46735049000</v>
+        <v>46112845000</v>
       </c>
       <c r="G10">
-        <v>770909000</v>
+        <v>292814000</v>
       </c>
       <c r="H10">
-        <v>7014500</v>
+        <v>3759500</v>
       </c>
       <c r="I10">
-        <v>115305969000</v>
+        <v>70120728000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-13T09:55:00.000Z</v>
+        <v>2023-01-13T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1562602772000</v>
+        <v>618610560000</v>
       </c>
       <c r="L10">
-        <v>93671100</v>
+        <v>36182700</v>
       </c>
       <c r="M10">
-        <v>-1460700</v>
+        <v>1002300</v>
       </c>
       <c r="N10">
-        <v>-21064962000</v>
+        <v>22397776000</v>
       </c>
       <c r="O10">
-        <v>16611500</v>
+        <v>3901400</v>
       </c>
       <c r="P10">
-        <v>327960393000</v>
+        <v>98849748000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1673604000000</v>
+        <v>1673602320000</v>
       </c>
       <c r="B11">
-        <v>3751900</v>
+        <v>1002200</v>
       </c>
       <c r="C11">
-        <v>2982200</v>
+        <v>1474800</v>
       </c>
       <c r="D11">
-        <v>24000</v>
+        <v>6400</v>
       </c>
       <c r="E11">
-        <v>60282217000</v>
+        <v>15599782000</v>
       </c>
       <c r="F11">
-        <v>50912585000</v>
+        <v>27241471000</v>
       </c>
       <c r="G11">
-        <v>299027000</v>
+        <v>200923000</v>
       </c>
       <c r="H11">
-        <v>6758100</v>
+        <v>2483400</v>
       </c>
       <c r="I11">
-        <v>111493829000</v>
+        <v>43042176000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-13T10:00:00.000Z</v>
+        <v>2023-01-13T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1674096601000</v>
+        <v>661652736000</v>
       </c>
       <c r="L11">
-        <v>100429200</v>
+        <v>38666100</v>
       </c>
       <c r="M11">
-        <v>-769700</v>
+        <v>472600</v>
       </c>
       <c r="N11">
-        <v>-9369632000</v>
+        <v>11641689000</v>
       </c>
       <c r="O11">
-        <v>15841800</v>
+        <v>4374000</v>
       </c>
       <c r="P11">
-        <v>318590761000</v>
+        <v>110491437000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1673604300000</v>
+        <v>1673602440000</v>
       </c>
       <c r="B12">
-        <v>4557900</v>
+        <v>1174400</v>
       </c>
       <c r="C12">
-        <v>2314800</v>
+        <v>3452400</v>
       </c>
       <c r="D12">
-        <v>52400</v>
+        <v>15500</v>
       </c>
       <c r="E12">
-        <v>77789668000</v>
+        <v>19708154000</v>
       </c>
       <c r="F12">
-        <v>42235970000</v>
+        <v>50285552000</v>
       </c>
       <c r="G12">
-        <v>352566000</v>
+        <v>194858000</v>
       </c>
       <c r="H12">
-        <v>6925100</v>
+        <v>4642300</v>
       </c>
       <c r="I12">
-        <v>120378204000</v>
+        <v>70188564000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-13T10:05:00.000Z</v>
+        <v>2023-01-13T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1794474805000</v>
+        <v>731841300000</v>
       </c>
       <c r="L12">
-        <v>107354300</v>
+        <v>43308400</v>
       </c>
       <c r="M12">
-        <v>-2243100</v>
+        <v>2278000</v>
       </c>
       <c r="N12">
-        <v>-35553698000</v>
+        <v>30577398000</v>
       </c>
       <c r="O12">
-        <v>13598700</v>
+        <v>6652000</v>
       </c>
       <c r="P12">
-        <v>283037063000</v>
+        <v>141068835000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1673604600000</v>
+        <v>1673602560000</v>
       </c>
       <c r="B13">
-        <v>5419000</v>
+        <v>1400700</v>
       </c>
       <c r="C13">
-        <v>2516000</v>
+        <v>4264400</v>
       </c>
       <c r="D13">
-        <v>48100</v>
+        <v>18900</v>
       </c>
       <c r="E13">
-        <v>90773728000</v>
+        <v>22648035000</v>
       </c>
       <c r="F13">
-        <v>45683962000</v>
+        <v>71357285000</v>
       </c>
       <c r="G13">
-        <v>749320000</v>
+        <v>573678000</v>
       </c>
       <c r="H13">
-        <v>7983100</v>
+        <v>5684000</v>
       </c>
       <c r="I13">
-        <v>137207010000</v>
+        <v>94578998000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-13T10:10:00.000Z</v>
+        <v>2023-01-13T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1931681815000</v>
+        <v>826420298000</v>
       </c>
       <c r="L13">
-        <v>115337400</v>
+        <v>48992400</v>
       </c>
       <c r="M13">
-        <v>-2903000</v>
+        <v>2863700</v>
       </c>
       <c r="N13">
-        <v>-45089766000</v>
+        <v>48709250000</v>
       </c>
       <c r="O13">
-        <v>10695700</v>
+        <v>9515700</v>
       </c>
       <c r="P13">
-        <v>237947297000</v>
+        <v>189778085000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1673604900000</v>
+        <v>1673602680000</v>
       </c>
       <c r="B14">
-        <v>2942500</v>
+        <v>1773000</v>
       </c>
       <c r="C14">
-        <v>2186300</v>
+        <v>5566900</v>
       </c>
       <c r="D14">
-        <v>30500</v>
+        <v>19100</v>
       </c>
       <c r="E14">
-        <v>48442752000</v>
+        <v>27298053000</v>
       </c>
       <c r="F14">
-        <v>40546312000</v>
+        <v>91957965000</v>
       </c>
       <c r="G14">
-        <v>472086000</v>
+        <v>259432000</v>
       </c>
       <c r="H14">
-        <v>5159300</v>
+        <v>7359000</v>
       </c>
       <c r="I14">
-        <v>89461150000</v>
+        <v>119515450000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-13T10:15:00.000Z</v>
+        <v>2023-01-13T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2021142965000</v>
+        <v>945935748000</v>
       </c>
       <c r="L14">
-        <v>120496700</v>
+        <v>56351400</v>
       </c>
       <c r="M14">
-        <v>-756200</v>
+        <v>3793900</v>
       </c>
       <c r="N14">
-        <v>-7896440000</v>
+        <v>64659912000</v>
       </c>
       <c r="O14">
-        <v>9939500</v>
+        <v>13309600</v>
       </c>
       <c r="P14">
-        <v>230050857000</v>
+        <v>254437997000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1673605200000</v>
+        <v>1673602800000</v>
       </c>
       <c r="B15">
-        <v>2236000</v>
+        <v>1762900</v>
       </c>
       <c r="C15">
-        <v>9449400</v>
+        <v>4738100</v>
       </c>
       <c r="D15">
-        <v>23400</v>
+        <v>26300</v>
       </c>
       <c r="E15">
-        <v>37124664000</v>
+        <v>25091593000</v>
       </c>
       <c r="F15">
-        <v>151690887000</v>
+        <v>78801294000</v>
       </c>
       <c r="G15">
-        <v>318722000</v>
+        <v>209982000</v>
       </c>
       <c r="H15">
-        <v>11708800</v>
+        <v>6527300</v>
       </c>
       <c r="I15">
-        <v>189134273000</v>
+        <v>104102869000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-13T10:20:00.000Z</v>
+        <v>2023-01-13T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2210277238000</v>
+        <v>1050038617000</v>
       </c>
       <c r="L15">
-        <v>132205500</v>
+        <v>62878700</v>
       </c>
       <c r="M15">
-        <v>7213400</v>
+        <v>2975200</v>
       </c>
       <c r="N15">
-        <v>114566223000</v>
+        <v>53709701000</v>
       </c>
       <c r="O15">
-        <v>17152900</v>
+        <v>16284800</v>
       </c>
       <c r="P15">
-        <v>344617080000</v>
+        <v>308147698000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1673605500000</v>
+        <v>1673602920000</v>
       </c>
       <c r="B16">
-        <v>2250200</v>
+        <v>1872800</v>
       </c>
       <c r="C16">
-        <v>7861700</v>
+        <v>2313700</v>
       </c>
       <c r="D16">
-        <v>53500</v>
+        <v>2500</v>
       </c>
       <c r="E16">
-        <v>35910275000</v>
+        <v>31790479000</v>
       </c>
       <c r="F16">
-        <v>127794381000</v>
+        <v>37650767000</v>
       </c>
       <c r="G16">
-        <v>808836000</v>
+        <v>153996000</v>
       </c>
       <c r="H16">
-        <v>10165400</v>
+        <v>4189000</v>
       </c>
       <c r="I16">
-        <v>164513492000</v>
+        <v>69595242000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-13T10:25:00.000Z</v>
+        <v>2023-01-13T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2374790730000</v>
+        <v>1119633859000</v>
       </c>
       <c r="L16">
-        <v>142370900</v>
+        <v>67067700</v>
       </c>
       <c r="M16">
-        <v>5611500</v>
+        <v>440900</v>
       </c>
       <c r="N16">
-        <v>91884106000</v>
+        <v>5860288000</v>
       </c>
       <c r="O16">
-        <v>22764400</v>
+        <v>16725700</v>
       </c>
       <c r="P16">
-        <v>436501186000</v>
+        <v>314007986000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1673605800000</v>
+        <v>1673603040000</v>
       </c>
       <c r="B17">
-        <v>2413400</v>
+        <v>1692200</v>
       </c>
       <c r="C17">
-        <v>5018800</v>
+        <v>2506000</v>
       </c>
       <c r="D17">
-        <v>23100</v>
+        <v>16400</v>
       </c>
       <c r="E17">
-        <v>42254773000</v>
+        <v>28167465000</v>
       </c>
       <c r="F17">
-        <v>74564418000</v>
+        <v>43130078000</v>
       </c>
       <c r="G17">
-        <v>336781000</v>
+        <v>192802000</v>
       </c>
       <c r="H17">
-        <v>7455300</v>
+        <v>4214600</v>
       </c>
       <c r="I17">
-        <v>117155972000</v>
+        <v>71490345000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-13T10:30:00.000Z</v>
+        <v>2023-01-13T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2491946702000</v>
+        <v>1191124204000</v>
       </c>
       <c r="L17">
-        <v>149826200</v>
+        <v>71282300</v>
       </c>
       <c r="M17">
-        <v>2605400</v>
+        <v>813800</v>
       </c>
       <c r="N17">
-        <v>32309645000</v>
+        <v>14962613000</v>
       </c>
       <c r="O17">
-        <v>25369800</v>
+        <v>17539500</v>
       </c>
       <c r="P17">
-        <v>468810831000</v>
+        <v>328970599000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1673606100000</v>
+        <v>1673603160000</v>
       </c>
       <c r="B18">
-        <v>3315800</v>
+        <v>1776000</v>
       </c>
       <c r="C18">
-        <v>3211400</v>
+        <v>2159000</v>
       </c>
       <c r="D18">
-        <v>36100</v>
+        <v>25300</v>
       </c>
       <c r="E18">
-        <v>55844704000</v>
+        <v>29824164000</v>
       </c>
       <c r="F18">
-        <v>61838759000</v>
+        <v>37111521000</v>
       </c>
       <c r="G18">
-        <v>610213000</v>
+        <v>389063000</v>
       </c>
       <c r="H18">
-        <v>6563300</v>
+        <v>3960300</v>
       </c>
       <c r="I18">
-        <v>118293676000</v>
+        <v>67324748000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-13T10:35:00.000Z</v>
+        <v>2023-01-13T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2610240378000</v>
+        <v>1258448952000</v>
       </c>
       <c r="L18">
-        <v>156389500</v>
+        <v>75242600</v>
       </c>
       <c r="M18">
-        <v>-104400</v>
+        <v>383000</v>
       </c>
       <c r="N18">
-        <v>5994055000</v>
+        <v>7287357000</v>
       </c>
       <c r="O18">
-        <v>25265400</v>
+        <v>17922500</v>
       </c>
       <c r="P18">
-        <v>474804886000</v>
+        <v>336257956000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1673606400000</v>
+        <v>1673603280000</v>
       </c>
       <c r="B19">
-        <v>3777500</v>
+        <v>2052800</v>
       </c>
       <c r="C19">
-        <v>2075800</v>
+        <v>1777100</v>
       </c>
       <c r="D19">
-        <v>20800</v>
+        <v>10500</v>
       </c>
       <c r="E19">
-        <v>61827881000</v>
+        <v>35831907000</v>
       </c>
       <c r="F19">
-        <v>36810740000</v>
+        <v>31338381000</v>
       </c>
       <c r="G19">
-        <v>271392000</v>
+        <v>276068000</v>
       </c>
       <c r="H19">
-        <v>5874100</v>
+        <v>3840400</v>
       </c>
       <c r="I19">
-        <v>98910013000</v>
+        <v>67446356000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-13T10:40:00.000Z</v>
+        <v>2023-01-13T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2709150391000</v>
+        <v>1325895308000</v>
       </c>
       <c r="L19">
-        <v>162263600</v>
+        <v>79083000</v>
       </c>
       <c r="M19">
-        <v>-1701700</v>
+        <v>-275700</v>
       </c>
       <c r="N19">
-        <v>-25017141000</v>
+        <v>-4493526000</v>
       </c>
       <c r="O19">
-        <v>23563700</v>
+        <v>17646800</v>
       </c>
       <c r="P19">
-        <v>449787745000</v>
+        <v>331764430000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1673606700000</v>
+        <v>1673603400000</v>
       </c>
       <c r="B20">
-        <v>4062200</v>
+        <v>1577500</v>
       </c>
       <c r="C20">
-        <v>1835300</v>
+        <v>1760000</v>
       </c>
       <c r="D20">
-        <v>16500</v>
+        <v>9200</v>
       </c>
       <c r="E20">
-        <v>71045242000</v>
+        <v>23009742000</v>
       </c>
       <c r="F20">
-        <v>33433594000</v>
+        <v>31103826000</v>
       </c>
       <c r="G20">
-        <v>168422000</v>
+        <v>134815000</v>
       </c>
       <c r="H20">
-        <v>5914000</v>
+        <v>3346700</v>
       </c>
       <c r="I20">
-        <v>104647258000</v>
+        <v>54248383000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-13T10:45:00.000Z</v>
+        <v>2023-01-13T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2813797649000</v>
+        <v>1380143691000</v>
       </c>
       <c r="L20">
-        <v>168177600</v>
+        <v>82429700</v>
       </c>
       <c r="M20">
-        <v>-2226900</v>
+        <v>182500</v>
       </c>
       <c r="N20">
-        <v>-37611648000</v>
+        <v>8094084000</v>
       </c>
       <c r="O20">
-        <v>21336800</v>
+        <v>17829300</v>
       </c>
       <c r="P20">
-        <v>412176097000</v>
+        <v>339858514000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1673607000000</v>
+        <v>1673603520000</v>
       </c>
       <c r="B21">
-        <v>3365500</v>
+        <v>1256500</v>
       </c>
       <c r="C21">
-        <v>2447300</v>
+        <v>1545500</v>
       </c>
       <c r="D21">
-        <v>119400</v>
+        <v>10100</v>
       </c>
       <c r="E21">
-        <v>63372019000</v>
+        <v>19020440000</v>
       </c>
       <c r="F21">
-        <v>46485070000</v>
+        <v>26322539000</v>
       </c>
       <c r="G21">
-        <v>1365555000</v>
+        <v>108986000</v>
       </c>
       <c r="H21">
-        <v>5932200</v>
+        <v>2812100</v>
       </c>
       <c r="I21">
-        <v>111222644000</v>
+        <v>45451965000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-13T10:50:00.000Z</v>
+        <v>2023-01-13T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2925020293000</v>
+        <v>1425595656000</v>
       </c>
       <c r="L21">
-        <v>174109800</v>
+        <v>85241800</v>
       </c>
       <c r="M21">
-        <v>-918200</v>
+        <v>289000</v>
       </c>
       <c r="N21">
-        <v>-16886949000</v>
+        <v>7302099000</v>
       </c>
       <c r="O21">
-        <v>20418600</v>
+        <v>18118300</v>
       </c>
       <c r="P21">
-        <v>395289148000</v>
+        <v>347160613000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1673607300000</v>
+        <v>1673603640000</v>
       </c>
       <c r="B22">
-        <v>2313700</v>
+        <v>1604300</v>
       </c>
       <c r="C22">
-        <v>1642900</v>
+        <v>1091800</v>
       </c>
       <c r="D22">
-        <v>3500</v>
+        <v>10100</v>
       </c>
       <c r="E22">
-        <v>40028845000</v>
+        <v>24225975000</v>
       </c>
       <c r="F22">
-        <v>32928220000</v>
+        <v>17961794000</v>
       </c>
       <c r="G22">
-        <v>64416000</v>
+        <v>154435000</v>
       </c>
       <c r="H22">
-        <v>3960100</v>
+        <v>2706200</v>
       </c>
       <c r="I22">
-        <v>73021481000</v>
+        <v>42342204000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-13T10:55:00.000Z</v>
+        <v>2023-01-13T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2998041774000</v>
+        <v>1467937860000</v>
       </c>
       <c r="L22">
-        <v>178069900</v>
+        <v>87948000</v>
       </c>
       <c r="M22">
-        <v>-670800</v>
+        <v>-512500</v>
       </c>
       <c r="N22">
-        <v>-7100625000</v>
+        <v>-6264181000</v>
       </c>
       <c r="O22">
-        <v>19747800</v>
+        <v>17605800</v>
       </c>
       <c r="P22">
-        <v>388188523000</v>
+        <v>340896432000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1673607600000</v>
+        <v>1673603760000</v>
       </c>
       <c r="B23">
-        <v>2919300</v>
+        <v>1838600</v>
       </c>
       <c r="C23">
-        <v>1564400</v>
+        <v>1139800</v>
       </c>
       <c r="D23">
-        <v>68100</v>
+        <v>56000</v>
       </c>
       <c r="E23">
-        <v>54447722000</v>
+        <v>31710372000</v>
       </c>
       <c r="F23">
-        <v>30152868000</v>
+        <v>18910588000</v>
       </c>
       <c r="G23">
-        <v>750854000</v>
+        <v>556475000</v>
       </c>
       <c r="H23">
-        <v>4551800</v>
+        <v>3034400</v>
       </c>
       <c r="I23">
-        <v>85351444000</v>
+        <v>51177435000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-13T11:00:00.000Z</v>
+        <v>2023-01-13T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>3083393218000</v>
+        <v>1519115295000</v>
       </c>
       <c r="L23">
-        <v>182621700</v>
+        <v>90982400</v>
       </c>
       <c r="M23">
-        <v>-1354900</v>
+        <v>-698800</v>
       </c>
       <c r="N23">
-        <v>-24294854000</v>
+        <v>-12799784000</v>
       </c>
       <c r="O23">
-        <v>18392900</v>
+        <v>16907000</v>
       </c>
       <c r="P23">
-        <v>363893669000</v>
+        <v>328096648000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1673607900000</v>
+        <v>1673603880000</v>
       </c>
       <c r="B24">
-        <v>2512800</v>
+        <v>1487100</v>
       </c>
       <c r="C24">
-        <v>1629200</v>
+        <v>1191600</v>
       </c>
       <c r="D24">
-        <v>3600</v>
+        <v>10000</v>
       </c>
       <c r="E24">
-        <v>38969979000</v>
+        <v>21704649000</v>
       </c>
       <c r="F24">
-        <v>30976651000</v>
+        <v>21568394000</v>
       </c>
       <c r="G24">
-        <v>32158000</v>
+        <v>214434000</v>
       </c>
       <c r="H24">
-        <v>4145600</v>
+        <v>2688700</v>
       </c>
       <c r="I24">
-        <v>69978788000</v>
+        <v>43487477000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-13T11:05:00.000Z</v>
+        <v>2023-01-13T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>3153372006000</v>
+        <v>1562602772000</v>
       </c>
       <c r="L24">
-        <v>186767300</v>
+        <v>93671100</v>
       </c>
       <c r="M24">
-        <v>-883600</v>
+        <v>-295500</v>
       </c>
       <c r="N24">
-        <v>-7993328000</v>
+        <v>-136255000</v>
       </c>
       <c r="O24">
-        <v>17509300</v>
+        <v>16611500</v>
       </c>
       <c r="P24">
-        <v>355900341000</v>
+        <v>327960393000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1673608200000</v>
+        <v>1673604000000</v>
       </c>
       <c r="B25">
-        <v>2066200</v>
+        <v>1429500</v>
       </c>
       <c r="C25">
-        <v>1906800</v>
+        <v>1448900</v>
       </c>
       <c r="D25">
-        <v>13000</v>
+        <v>23100</v>
       </c>
       <c r="E25">
-        <v>34940507000</v>
+        <v>25467213000</v>
       </c>
       <c r="F25">
-        <v>33649997000</v>
+        <v>23236578000</v>
       </c>
       <c r="G25">
-        <v>432145000</v>
+        <v>269043000</v>
       </c>
       <c r="H25">
-        <v>3986000</v>
+        <v>2901500</v>
       </c>
       <c r="I25">
-        <v>69022649000</v>
+        <v>48972834000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-13T11:10:00.000Z</v>
+        <v>2023-01-13T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3222394655000</v>
+        <v>1611575606000</v>
       </c>
       <c r="L25">
-        <v>190753300</v>
+        <v>96572600</v>
       </c>
       <c r="M25">
-        <v>-159400</v>
+        <v>19400</v>
       </c>
       <c r="N25">
-        <v>-1290510000</v>
+        <v>-2230635000</v>
       </c>
       <c r="O25">
-        <v>17349900</v>
+        <v>16630900</v>
       </c>
       <c r="P25">
-        <v>354609831000</v>
+        <v>325729758000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1673608500000</v>
+        <v>1673604120000</v>
       </c>
       <c r="B26">
-        <v>2209400</v>
+        <v>1699500</v>
       </c>
       <c r="C26">
-        <v>1745200</v>
+        <v>1142600</v>
       </c>
       <c r="D26">
-        <v>66900</v>
+        <v>200</v>
       </c>
       <c r="E26">
-        <v>35717616000</v>
+        <v>24903574000</v>
       </c>
       <c r="F26">
-        <v>34932252000</v>
+        <v>21300938000</v>
       </c>
       <c r="G26">
-        <v>808896000</v>
+        <v>1354000</v>
       </c>
       <c r="H26">
-        <v>4021500</v>
+        <v>2842300</v>
       </c>
       <c r="I26">
-        <v>71458764000</v>
+        <v>46205866000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-13T11:15:00.000Z</v>
+        <v>2023-01-13T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3293853419000</v>
+        <v>1657781472000</v>
       </c>
       <c r="L26">
-        <v>194774800</v>
+        <v>99414900</v>
       </c>
       <c r="M26">
-        <v>-464200</v>
+        <v>-556900</v>
       </c>
       <c r="N26">
-        <v>-785364000</v>
+        <v>-3602636000</v>
       </c>
       <c r="O26">
-        <v>16885700</v>
+        <v>16074000</v>
       </c>
       <c r="P26">
-        <v>353824467000</v>
+        <v>322127122000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1673608800000</v>
+        <v>1673604240000</v>
       </c>
       <c r="B27">
-        <v>2038300</v>
+        <v>1290300</v>
       </c>
       <c r="C27">
-        <v>2132000</v>
+        <v>715500</v>
       </c>
       <c r="D27">
-        <v>83200</v>
+        <v>21100</v>
       </c>
       <c r="E27">
-        <v>30684754000</v>
+        <v>21859191000</v>
       </c>
       <c r="F27">
-        <v>42177379000</v>
+        <v>12328174000</v>
       </c>
       <c r="G27">
-        <v>1355094000</v>
+        <v>166608000</v>
       </c>
       <c r="H27">
-        <v>4253500</v>
+        <v>2026900</v>
       </c>
       <c r="I27">
-        <v>74217227000</v>
+        <v>34353973000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-13T11:20:00.000Z</v>
+        <v>2023-01-13T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3368070646000</v>
+        <v>1692135445000</v>
       </c>
       <c r="L27">
-        <v>199028300</v>
+        <v>101441800</v>
       </c>
       <c r="M27">
-        <v>93700</v>
+        <v>-574800</v>
       </c>
       <c r="N27">
-        <v>11492625000</v>
+        <v>-9531017000</v>
       </c>
       <c r="O27">
-        <v>16979400</v>
+        <v>15499200</v>
       </c>
       <c r="P27">
-        <v>365317092000</v>
+        <v>312596105000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1673609100000</v>
+        <v>1673604360000</v>
       </c>
       <c r="B28">
-        <v>2097800</v>
+        <v>1826400</v>
       </c>
       <c r="C28">
-        <v>2299500</v>
+        <v>955200</v>
       </c>
       <c r="D28">
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="E28">
-        <v>38595916000</v>
+        <v>29870319000</v>
       </c>
       <c r="F28">
-        <v>40342328000</v>
+        <v>18022631000</v>
       </c>
       <c r="G28">
-        <v>52818000</v>
+        <v>27959000</v>
       </c>
       <c r="H28">
-        <v>4401900</v>
+        <v>2783900</v>
       </c>
       <c r="I28">
-        <v>78991062000</v>
+        <v>47920909000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-13T11:25:00.000Z</v>
+        <v>2023-01-13T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3447061708000</v>
+        <v>1740056354000</v>
       </c>
       <c r="L28">
-        <v>203430200</v>
+        <v>104225700</v>
       </c>
       <c r="M28">
-        <v>201700</v>
+        <v>-871200</v>
       </c>
       <c r="N28">
-        <v>1746412000</v>
+        <v>-11847688000</v>
       </c>
       <c r="O28">
-        <v>17181100</v>
+        <v>14628000</v>
       </c>
       <c r="P28">
-        <v>367063504000</v>
+        <v>300748417000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1673609400000</v>
+        <v>1673604480000</v>
       </c>
       <c r="B29">
-        <v>6800</v>
+        <v>2064100</v>
       </c>
       <c r="C29">
-        <v>1800</v>
+        <v>1034800</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>29700</v>
       </c>
       <c r="E29">
-        <v>50829000</v>
+        <v>35971588000</v>
       </c>
       <c r="F29">
-        <v>24310000</v>
+        <v>18260234000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>186629000</v>
       </c>
       <c r="H29">
-        <v>8600</v>
+        <v>3128600</v>
       </c>
       <c r="I29">
-        <v>75139000</v>
+        <v>54418451000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-13T11:30:00.000Z</v>
+        <v>2023-01-13T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3447136847000</v>
+        <v>1794474805000</v>
       </c>
       <c r="L29">
-        <v>203438800</v>
+        <v>107354300</v>
       </c>
       <c r="M29">
-        <v>-5000</v>
+        <v>-1029300</v>
       </c>
       <c r="N29">
-        <v>-26519000</v>
+        <v>-17711354000</v>
       </c>
       <c r="O29">
-        <v>17176100</v>
+        <v>13598700</v>
       </c>
       <c r="P29">
-        <v>367036985000</v>
+        <v>283037063000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1673614800000</v>
+        <v>1673604600000</v>
       </c>
       <c r="B30">
-        <v>6427000</v>
+        <v>2365300</v>
       </c>
       <c r="C30">
-        <v>4244800</v>
+        <v>998100</v>
       </c>
       <c r="D30">
-        <v>93000</v>
+        <v>2400</v>
       </c>
       <c r="E30">
-        <v>105019427000</v>
+        <v>40955554000</v>
       </c>
       <c r="F30">
-        <v>69372942000</v>
+        <v>18439408000</v>
       </c>
       <c r="G30">
-        <v>1954809000</v>
+        <v>27115000</v>
       </c>
       <c r="H30">
-        <v>10764800</v>
+        <v>3365800</v>
       </c>
       <c r="I30">
-        <v>176347178000</v>
+        <v>59422077000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-13T13:00:00.000Z</v>
+        <v>2023-01-13T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3623484025000</v>
+        <v>1853896882000</v>
       </c>
       <c r="L30">
-        <v>214203600</v>
+        <v>110720100</v>
       </c>
       <c r="M30">
-        <v>-2182200</v>
+        <v>-1367200</v>
       </c>
       <c r="N30">
-        <v>-35646485000</v>
+        <v>-22516146000</v>
       </c>
       <c r="O30">
-        <v>14993900</v>
+        <v>12231500</v>
       </c>
       <c r="P30">
-        <v>331390500000</v>
+        <v>260520917000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1673615100000</v>
+        <v>1673604720000</v>
       </c>
       <c r="B31">
-        <v>6526600</v>
+        <v>2159000</v>
       </c>
       <c r="C31">
-        <v>2431300</v>
+        <v>1065900</v>
       </c>
       <c r="D31">
-        <v>37900</v>
+        <v>41600</v>
       </c>
       <c r="E31">
-        <v>107284720000</v>
+        <v>36285603000</v>
       </c>
       <c r="F31">
-        <v>43767586000</v>
+        <v>18657760000</v>
       </c>
       <c r="G31">
-        <v>818863000</v>
+        <v>559230000</v>
       </c>
       <c r="H31">
-        <v>8995800</v>
+        <v>3266500</v>
       </c>
       <c r="I31">
-        <v>151871169000</v>
+        <v>55502593000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-13T13:05:00.000Z</v>
+        <v>2023-01-13T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3775355194000</v>
+        <v>1909399475000</v>
       </c>
       <c r="L31">
-        <v>223199400</v>
+        <v>113986600</v>
       </c>
       <c r="M31">
-        <v>-4095300</v>
+        <v>-1093100</v>
       </c>
       <c r="N31">
-        <v>-63517134000</v>
+        <v>-17627843000</v>
       </c>
       <c r="O31">
-        <v>10898600</v>
+        <v>11138400</v>
       </c>
       <c r="P31">
-        <v>267873366000</v>
+        <v>242893074000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1673615400000</v>
+        <v>1673604840000</v>
       </c>
       <c r="B32">
-        <v>5124900</v>
+        <v>1706300</v>
       </c>
       <c r="C32">
-        <v>2735500</v>
+        <v>891700</v>
       </c>
       <c r="D32">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="E32">
-        <v>81952286000</v>
+        <v>26955938000</v>
       </c>
       <c r="F32">
-        <v>47071513000</v>
+        <v>16274969000</v>
       </c>
       <c r="G32">
-        <v>202758000</v>
+        <v>163747000</v>
       </c>
       <c r="H32">
-        <v>7870400</v>
+        <v>2602200</v>
       </c>
       <c r="I32">
-        <v>129226557000</v>
+        <v>43394654000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-13T13:10:00.000Z</v>
+        <v>2023-01-13T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3904581751000</v>
+        <v>1952794129000</v>
       </c>
       <c r="L32">
-        <v>231069800</v>
+        <v>116588800</v>
       </c>
       <c r="M32">
-        <v>-2389400</v>
+        <v>-814600</v>
       </c>
       <c r="N32">
-        <v>-34880773000</v>
+        <v>-10680969000</v>
       </c>
       <c r="O32">
-        <v>8509200</v>
+        <v>10323800</v>
       </c>
       <c r="P32">
-        <v>232992593000</v>
+        <v>232212105000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1673615700000</v>
+        <v>1673604960000</v>
       </c>
       <c r="B33">
-        <v>4777800</v>
+        <v>1132100</v>
       </c>
       <c r="C33">
-        <v>4058700</v>
+        <v>689600</v>
       </c>
       <c r="D33">
-        <v>27300</v>
+        <v>1800</v>
       </c>
       <c r="E33">
-        <v>78550480000</v>
+        <v>18998874000</v>
       </c>
       <c r="F33">
-        <v>68598154000</v>
+        <v>12668810000</v>
       </c>
       <c r="G33">
-        <v>529774000</v>
+        <v>24584000</v>
       </c>
       <c r="H33">
-        <v>8863800</v>
+        <v>1823500</v>
       </c>
       <c r="I33">
-        <v>147678408000</v>
+        <v>31692268000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-13T13:15:00.000Z</v>
+        <v>2023-01-13T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>4052260159000</v>
+        <v>1984486397000</v>
       </c>
       <c r="L33">
-        <v>239933600</v>
+        <v>118412300</v>
       </c>
       <c r="M33">
-        <v>-719100</v>
+        <v>-442500</v>
       </c>
       <c r="N33">
-        <v>-9952326000</v>
+        <v>-6330064000</v>
       </c>
       <c r="O33">
-        <v>7790100</v>
+        <v>9881300</v>
       </c>
       <c r="P33">
-        <v>223040267000</v>
+        <v>225882041000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1673616000000</v>
+        <v>1673605080000</v>
       </c>
       <c r="B34">
-        <v>3444500</v>
+        <v>998800</v>
       </c>
       <c r="C34">
-        <v>4257800</v>
+        <v>1057000</v>
       </c>
       <c r="D34">
-        <v>31100</v>
+        <v>28600</v>
       </c>
       <c r="E34">
-        <v>61973098000</v>
+        <v>16020511000</v>
       </c>
       <c r="F34">
-        <v>75536845000</v>
+        <v>20189327000</v>
       </c>
       <c r="G34">
-        <v>786734000</v>
+        <v>446730000</v>
       </c>
       <c r="H34">
-        <v>7733400</v>
+        <v>2084400</v>
       </c>
       <c r="I34">
-        <v>138296677000</v>
+        <v>36656568000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-13T13:20:00.000Z</v>
+        <v>2023-01-13T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>4190556836000</v>
+        <v>2021142965000</v>
       </c>
       <c r="L34">
-        <v>247667000</v>
+        <v>120496700</v>
       </c>
       <c r="M34">
-        <v>813300</v>
+        <v>58200</v>
       </c>
       <c r="N34">
-        <v>13563747000</v>
+        <v>4168816000</v>
       </c>
       <c r="O34">
-        <v>8603400</v>
+        <v>9939500</v>
       </c>
       <c r="P34">
-        <v>236604014000</v>
+        <v>230050857000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1673616300000</v>
+        <v>1673605200000</v>
       </c>
       <c r="B35">
-        <v>3993600</v>
+        <v>781700</v>
       </c>
       <c r="C35">
-        <v>2611100</v>
+        <v>2547300</v>
       </c>
       <c r="D35">
-        <v>27300</v>
+        <v>900</v>
       </c>
       <c r="E35">
-        <v>64816242000</v>
+        <v>12962046000</v>
       </c>
       <c r="F35">
-        <v>50845771000</v>
+        <v>47412628000</v>
       </c>
       <c r="G35">
-        <v>393216000</v>
+        <v>20687000</v>
       </c>
       <c r="H35">
-        <v>6632000</v>
+        <v>3329900</v>
       </c>
       <c r="I35">
-        <v>116055229000</v>
+        <v>60395361000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-13T13:25:00.000Z</v>
+        <v>2023-01-13T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4306612065000</v>
+        <v>2081538326000</v>
       </c>
       <c r="L35">
-        <v>254299000</v>
+        <v>123826600</v>
       </c>
       <c r="M35">
-        <v>-1382500</v>
+        <v>1765600</v>
       </c>
       <c r="N35">
-        <v>-13970471000</v>
+        <v>34450582000</v>
       </c>
       <c r="O35">
-        <v>7220900</v>
+        <v>11705100</v>
       </c>
       <c r="P35">
-        <v>222633543000</v>
+        <v>264501439000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1673616600000</v>
+        <v>1673605320000</v>
       </c>
       <c r="B36">
-        <v>3539000</v>
+        <v>826600</v>
       </c>
       <c r="C36">
-        <v>3093500</v>
+        <v>4996200</v>
       </c>
       <c r="D36">
-        <v>9700</v>
+        <v>22400</v>
       </c>
       <c r="E36">
-        <v>57566059000</v>
+        <v>13555061000</v>
       </c>
       <c r="F36">
-        <v>58697089000</v>
+        <v>76290281000</v>
       </c>
       <c r="G36">
-        <v>398473000</v>
+        <v>297155000</v>
       </c>
       <c r="H36">
-        <v>6642200</v>
+        <v>5845200</v>
       </c>
       <c r="I36">
-        <v>116661621000</v>
+        <v>90142497000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-13T13:30:00.000Z</v>
+        <v>2023-01-13T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4423273686000</v>
+        <v>2171680823000</v>
       </c>
       <c r="L36">
-        <v>260941200</v>
+        <v>129671800</v>
       </c>
       <c r="M36">
-        <v>-445500</v>
+        <v>4169600</v>
       </c>
       <c r="N36">
-        <v>1131030000</v>
+        <v>62735220000</v>
       </c>
       <c r="O36">
-        <v>6775400</v>
+        <v>15874700</v>
       </c>
       <c r="P36">
-        <v>223764573000</v>
+        <v>327236659000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1673616900000</v>
+        <v>1673605440000</v>
       </c>
       <c r="B37">
-        <v>3599900</v>
+        <v>1030900</v>
       </c>
       <c r="C37">
-        <v>7548500</v>
+        <v>3231000</v>
       </c>
       <c r="D37">
-        <v>50500</v>
+        <v>21400</v>
       </c>
       <c r="E37">
-        <v>63164528000</v>
+        <v>17191206000</v>
       </c>
       <c r="F37">
-        <v>151590691000</v>
+        <v>49853372000</v>
       </c>
       <c r="G37">
-        <v>605153000</v>
+        <v>292690000</v>
       </c>
       <c r="H37">
-        <v>11198900</v>
+        <v>4283300</v>
       </c>
       <c r="I37">
-        <v>215360372000</v>
+        <v>67337268000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-13T13:35:00.000Z</v>
+        <v>2023-01-13T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4638634058000</v>
+        <v>2239018091000</v>
       </c>
       <c r="L37">
-        <v>272140100</v>
+        <v>133955100</v>
       </c>
       <c r="M37">
-        <v>3948600</v>
+        <v>2200100</v>
       </c>
       <c r="N37">
-        <v>88426163000</v>
+        <v>32662166000</v>
       </c>
       <c r="O37">
-        <v>10724000</v>
+        <v>18074800</v>
       </c>
       <c r="P37">
-        <v>312190736000</v>
+        <v>359898825000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1673617200000</v>
+        <v>1673605560000</v>
       </c>
       <c r="B38">
-        <v>4453400</v>
+        <v>871600</v>
       </c>
       <c r="C38">
-        <v>6927500</v>
+        <v>3236300</v>
       </c>
       <c r="D38">
-        <v>42300</v>
+        <v>29800</v>
       </c>
       <c r="E38">
-        <v>69912191000</v>
+        <v>14198055000</v>
       </c>
       <c r="F38">
-        <v>109240724000</v>
+        <v>54166722000</v>
       </c>
       <c r="G38">
-        <v>390930000</v>
+        <v>466246000</v>
       </c>
       <c r="H38">
-        <v>11423200</v>
+        <v>4137700</v>
       </c>
       <c r="I38">
-        <v>179543845000</v>
+        <v>68831023000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-13T13:40:00.000Z</v>
+        <v>2023-01-13T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4818177903000</v>
+        <v>2307849114000</v>
       </c>
       <c r="L38">
-        <v>283563300</v>
+        <v>138092800</v>
       </c>
       <c r="M38">
-        <v>2474100</v>
+        <v>2364700</v>
       </c>
       <c r="N38">
-        <v>39328533000</v>
+        <v>39968667000</v>
       </c>
       <c r="O38">
-        <v>13198100</v>
+        <v>20439500</v>
       </c>
       <c r="P38">
-        <v>351519269000</v>
+        <v>399867492000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1673617500000</v>
+        <v>1673605680000</v>
       </c>
       <c r="B39">
-        <v>6093500</v>
+        <v>975400</v>
       </c>
       <c r="C39">
-        <v>3982400</v>
+        <v>3300300</v>
       </c>
       <c r="D39">
-        <v>98100</v>
+        <v>2400</v>
       </c>
       <c r="E39">
-        <v>100744093000</v>
+        <v>15128571000</v>
       </c>
       <c r="F39">
-        <v>68177983000</v>
+        <v>51762265000</v>
       </c>
       <c r="G39">
-        <v>2591586000</v>
+        <v>50780000</v>
       </c>
       <c r="H39">
-        <v>10174000</v>
+        <v>4278100</v>
       </c>
       <c r="I39">
-        <v>171513662000</v>
+        <v>66941616000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-13T13:45:00.000Z</v>
+        <v>2023-01-13T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4989691565000</v>
+        <v>2374790730000</v>
       </c>
       <c r="L39">
-        <v>293737300</v>
+        <v>142370900</v>
       </c>
       <c r="M39">
-        <v>-2111100</v>
+        <v>2324900</v>
       </c>
       <c r="N39">
-        <v>-32566110000</v>
+        <v>36633694000</v>
       </c>
       <c r="O39">
-        <v>11087000</v>
+        <v>22764400</v>
       </c>
       <c r="P39">
-        <v>318953159000</v>
+        <v>436501186000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1673617800000</v>
+        <v>1673605800000</v>
       </c>
       <c r="B40">
-        <v>18661200</v>
+        <v>777400</v>
       </c>
       <c r="C40">
-        <v>3116200</v>
+        <v>2300000</v>
       </c>
       <c r="D40">
-        <v>130800</v>
+        <v>10200</v>
       </c>
       <c r="E40">
-        <v>312520785000</v>
+        <v>13931306000</v>
       </c>
       <c r="F40">
-        <v>57650387000</v>
+        <v>30426436000</v>
       </c>
       <c r="G40">
-        <v>2491745000</v>
+        <v>67995000</v>
       </c>
       <c r="H40">
-        <v>21908200</v>
+        <v>3087600</v>
       </c>
       <c r="I40">
-        <v>372662917000</v>
+        <v>44425737000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-13T13:50:00.000Z</v>
+        <v>2023-01-13T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>5362354482000</v>
+        <v>2419216467000</v>
       </c>
       <c r="L40">
-        <v>315645500</v>
+        <v>145458500</v>
       </c>
       <c r="M40">
-        <v>-15545000</v>
+        <v>1522600</v>
       </c>
       <c r="N40">
-        <v>-254870398000</v>
+        <v>16495130000</v>
       </c>
       <c r="O40">
-        <v>-4458000</v>
+        <v>24287000</v>
       </c>
       <c r="P40">
-        <v>64082761000</v>
+        <v>452996316000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1673618100000</v>
+        <v>1673605920000</v>
       </c>
       <c r="B41">
-        <v>7553100</v>
+        <v>971900</v>
       </c>
       <c r="C41">
-        <v>5706100</v>
+        <v>2109500</v>
       </c>
       <c r="D41">
-        <v>88300</v>
+        <v>7900</v>
       </c>
       <c r="E41">
-        <v>124702537000</v>
+        <v>16681971000</v>
       </c>
       <c r="F41">
-        <v>104883471000</v>
+        <v>33126986000</v>
       </c>
       <c r="G41">
-        <v>762477000</v>
+        <v>160776000</v>
       </c>
       <c r="H41">
-        <v>13347500</v>
+        <v>3089300</v>
       </c>
       <c r="I41">
-        <v>230348485000</v>
+        <v>49969733000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-13T13:55:00.000Z</v>
+        <v>2023-01-13T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>5592702967000</v>
+        <v>2469186200000</v>
       </c>
       <c r="L41">
-        <v>328993000</v>
+        <v>148547800</v>
       </c>
       <c r="M41">
-        <v>-1847000</v>
+        <v>1137600</v>
       </c>
       <c r="N41">
-        <v>-19819066000</v>
+        <v>16445015000</v>
       </c>
       <c r="O41">
-        <v>-6305000</v>
+        <v>25424600</v>
       </c>
       <c r="P41">
-        <v>44263695000</v>
+        <v>469441331000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1673618400000</v>
+        <v>1673606040000</v>
       </c>
       <c r="B42">
-        <v>3111100</v>
+        <v>1477500</v>
       </c>
       <c r="C42">
-        <v>4395700</v>
+        <v>1048000</v>
       </c>
       <c r="D42">
-        <v>45100</v>
+        <v>6200</v>
       </c>
       <c r="E42">
-        <v>52853244000</v>
+        <v>23233109000</v>
       </c>
       <c r="F42">
-        <v>74955253000</v>
+        <v>18869945000</v>
       </c>
       <c r="G42">
-        <v>851280000</v>
+        <v>183795000</v>
       </c>
       <c r="H42">
-        <v>7551900</v>
+        <v>2531700</v>
       </c>
       <c r="I42">
-        <v>128659777000</v>
+        <v>42286849000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-13T14:00:00.000Z</v>
+        <v>2023-01-13T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5721362744000</v>
+        <v>2511473049000</v>
       </c>
       <c r="L42">
-        <v>336544900</v>
+        <v>151079500</v>
       </c>
       <c r="M42">
-        <v>1284600</v>
+        <v>-429500</v>
       </c>
       <c r="N42">
-        <v>22102009000</v>
+        <v>-4363164000</v>
       </c>
       <c r="O42">
-        <v>-5020400</v>
+        <v>24995100</v>
       </c>
       <c r="P42">
-        <v>66365704000</v>
+        <v>465078167000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1673618700000</v>
+        <v>1673606160000</v>
       </c>
       <c r="B43">
-        <v>7948300</v>
+        <v>1194200</v>
       </c>
       <c r="C43">
-        <v>2660000</v>
+        <v>1350800</v>
       </c>
       <c r="D43">
-        <v>25800</v>
+        <v>24400</v>
       </c>
       <c r="E43">
-        <v>133861581000</v>
+        <v>20872186000</v>
       </c>
       <c r="F43">
-        <v>56598030000</v>
+        <v>30706475000</v>
       </c>
       <c r="G43">
-        <v>734035000</v>
+        <v>269890000</v>
       </c>
       <c r="H43">
-        <v>10634100</v>
+        <v>2569400</v>
       </c>
       <c r="I43">
-        <v>191193646000</v>
+        <v>51848551000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-13T14:05:00.000Z</v>
+        <v>2023-01-13T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5912556390000</v>
+        <v>2563321600000</v>
       </c>
       <c r="L43">
-        <v>347179000</v>
+        <v>153648900</v>
       </c>
       <c r="M43">
-        <v>-5288300</v>
+        <v>156600</v>
       </c>
       <c r="N43">
-        <v>-77263551000</v>
+        <v>9834289000</v>
       </c>
       <c r="O43">
-        <v>-10308700</v>
+        <v>25151700</v>
       </c>
       <c r="P43">
-        <v>-10897847000</v>
+        <v>474912456000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1673619000000</v>
+        <v>1673606280000</v>
       </c>
       <c r="B44">
-        <v>8490900</v>
+        <v>1308200</v>
       </c>
       <c r="C44">
-        <v>3538800</v>
+        <v>1421900</v>
       </c>
       <c r="D44">
-        <v>89000</v>
+        <v>10500</v>
       </c>
       <c r="E44">
-        <v>135808169000</v>
+        <v>23380905000</v>
       </c>
       <c r="F44">
-        <v>65099984000</v>
+        <v>23273335000</v>
       </c>
       <c r="G44">
-        <v>1186824000</v>
+        <v>264538000</v>
       </c>
       <c r="H44">
-        <v>12118700</v>
+        <v>2740600</v>
       </c>
       <c r="I44">
-        <v>202094977000</v>
+        <v>46918778000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-13T14:10:00.000Z</v>
+        <v>2023-01-13T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>6114651367000</v>
+        <v>2610240378000</v>
       </c>
       <c r="L44">
-        <v>359297700</v>
+        <v>156389500</v>
       </c>
       <c r="M44">
-        <v>-4952100</v>
+        <v>113700</v>
       </c>
       <c r="N44">
-        <v>-70708185000</v>
+        <v>-107570000</v>
       </c>
       <c r="O44">
-        <v>-15260800</v>
+        <v>25265400</v>
       </c>
       <c r="P44">
-        <v>-81606032000</v>
+        <v>474804886000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1673619300000</v>
+        <v>1673606400000</v>
       </c>
       <c r="B45">
-        <v>16155600</v>
+        <v>1417400</v>
       </c>
       <c r="C45">
-        <v>3980700</v>
+        <v>749400</v>
       </c>
       <c r="D45">
-        <v>107600</v>
+        <v>18800</v>
       </c>
       <c r="E45">
-        <v>272803109000</v>
+        <v>23381306000</v>
       </c>
       <c r="F45">
-        <v>66572753000</v>
+        <v>13279269000</v>
       </c>
       <c r="G45">
-        <v>2377015000</v>
+        <v>203859000</v>
       </c>
       <c r="H45">
-        <v>20243900</v>
+        <v>2185600</v>
       </c>
       <c r="I45">
-        <v>341752877000</v>
+        <v>36864434000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-13T14:15:00.000Z</v>
+        <v>2023-01-13T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>6456404244000</v>
+        <v>2647104812000</v>
       </c>
       <c r="L45">
-        <v>379541600</v>
+        <v>158575100</v>
       </c>
       <c r="M45">
-        <v>-12174900</v>
+        <v>-668000</v>
       </c>
       <c r="N45">
-        <v>-206230356000</v>
+        <v>-10102037000</v>
       </c>
       <c r="O45">
-        <v>-27435700</v>
+        <v>24597400</v>
       </c>
       <c r="P45">
-        <v>-287836388000</v>
+        <v>464702849000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1673619600000</v>
+        <v>1673606520000</v>
       </c>
       <c r="B46">
-        <v>11257600</v>
+        <v>1800500</v>
       </c>
       <c r="C46">
-        <v>10496200</v>
+        <v>850900</v>
       </c>
       <c r="D46">
-        <v>234100</v>
+        <v>2000</v>
       </c>
       <c r="E46">
-        <v>187753883000</v>
+        <v>28287769000</v>
       </c>
       <c r="F46">
-        <v>181793635000</v>
+        <v>15886114000</v>
       </c>
       <c r="G46">
-        <v>3722354000</v>
+        <v>67533000</v>
       </c>
       <c r="H46">
-        <v>21987900</v>
+        <v>2653400</v>
       </c>
       <c r="I46">
-        <v>373269872000</v>
+        <v>44241416000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-13T14:20:00.000Z</v>
+        <v>2023-01-13T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>6829674116000</v>
+        <v>2691346228000</v>
       </c>
       <c r="L46">
-        <v>401529500</v>
+        <v>161228500</v>
       </c>
       <c r="M46">
-        <v>-761400</v>
+        <v>-949600</v>
       </c>
       <c r="N46">
-        <v>-5960248000</v>
+        <v>-12401655000</v>
       </c>
       <c r="O46">
-        <v>-28197100</v>
+        <v>23647800</v>
       </c>
       <c r="P46">
-        <v>-293796636000</v>
+        <v>452301194000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1673619900000</v>
+        <v>1673606640000</v>
       </c>
       <c r="B47">
-        <v>8095500</v>
+        <v>1120500</v>
       </c>
       <c r="C47">
-        <v>14302200</v>
+        <v>754000</v>
       </c>
       <c r="D47">
-        <v>174500</v>
+        <v>1900</v>
       </c>
       <c r="E47">
-        <v>131754079000</v>
+        <v>20824030000</v>
       </c>
       <c r="F47">
-        <v>249279196000</v>
+        <v>12790220000</v>
       </c>
       <c r="G47">
-        <v>2914457000</v>
+        <v>6441000</v>
       </c>
       <c r="H47">
-        <v>22572200</v>
+        <v>1876400</v>
       </c>
       <c r="I47">
-        <v>383947732000</v>
+        <v>33620691000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-13T14:25:00.000Z</v>
+        <v>2023-01-13T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>7213621848000</v>
+        <v>2724966919000</v>
       </c>
       <c r="L47">
-        <v>424101700</v>
+        <v>163104900</v>
       </c>
       <c r="M47">
-        <v>6206700</v>
+        <v>-366500</v>
       </c>
       <c r="N47">
-        <v>117525117000</v>
+        <v>-8033810000</v>
       </c>
       <c r="O47">
-        <v>-21990400</v>
+        <v>23281300</v>
       </c>
       <c r="P47">
-        <v>-176271519000</v>
+        <v>444267384000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1673620200000</v>
+        <v>1673606760000</v>
       </c>
       <c r="B48">
-        <v>9300</v>
+        <v>1754600</v>
       </c>
       <c r="C48">
-        <v>4600</v>
+        <v>698200</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>185190000</v>
+        <v>27760298000</v>
       </c>
       <c r="F48">
-        <v>62125000</v>
+        <v>11807064000</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>13900</v>
+        <v>2452800</v>
       </c>
       <c r="I48">
-        <v>247315000</v>
+        <v>39567362000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-13T14:30:00.000Z</v>
+        <v>2023-01-13T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>7213869163000</v>
+        <v>2764534281000</v>
       </c>
       <c r="L48">
-        <v>424115600</v>
+        <v>165557700</v>
       </c>
       <c r="M48">
-        <v>-4700</v>
+        <v>-1056400</v>
       </c>
       <c r="N48">
-        <v>-123065000</v>
+        <v>-15953234000</v>
       </c>
       <c r="O48">
-        <v>-21995100</v>
+        <v>22224900</v>
       </c>
       <c r="P48">
-        <v>-176394584000</v>
+        <v>428314150000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1673621100000</v>
+        <v>1673606880000</v>
       </c>
       <c r="B49">
+        <v>1746700</v>
+      </c>
+      <c r="C49">
+        <v>858600</v>
+      </c>
+      <c r="D49">
+        <v>14600</v>
+      </c>
+      <c r="E49">
+        <v>32619720000</v>
+      </c>
+      <c r="F49">
+        <v>16481667000</v>
+      </c>
+      <c r="G49">
+        <v>161981000</v>
+      </c>
+      <c r="H49">
+        <v>2619900</v>
+      </c>
+      <c r="I49">
+        <v>49263368000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-13T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>2813797649000</v>
+      </c>
+      <c r="L49">
+        <v>168177600</v>
+      </c>
+      <c r="M49">
+        <v>-888100</v>
+      </c>
+      <c r="N49">
+        <v>-16138053000</v>
+      </c>
+      <c r="O49">
+        <v>21336800</v>
+      </c>
+      <c r="P49">
+        <v>412176097000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1673607000000</v>
+      </c>
+      <c r="B50">
+        <v>1417000</v>
+      </c>
+      <c r="C50">
+        <v>1236600</v>
+      </c>
+      <c r="D50">
+        <v>11100</v>
+      </c>
+      <c r="E50">
+        <v>26793679000</v>
+      </c>
+      <c r="F50">
+        <v>22940212000</v>
+      </c>
+      <c r="G50">
+        <v>317565000</v>
+      </c>
+      <c r="H50">
+        <v>2664700</v>
+      </c>
+      <c r="I50">
+        <v>50051456000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-13T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>2863849105000</v>
+      </c>
+      <c r="L50">
+        <v>170842300</v>
+      </c>
+      <c r="M50">
+        <v>-180400</v>
+      </c>
+      <c r="N50">
+        <v>-3853467000</v>
+      </c>
+      <c r="O50">
+        <v>21156400</v>
+      </c>
+      <c r="P50">
+        <v>408322630000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1673607120000</v>
+      </c>
+      <c r="B51">
+        <v>1274500</v>
+      </c>
+      <c r="C51">
+        <v>762100</v>
+      </c>
+      <c r="D51">
+        <v>107300</v>
+      </c>
+      <c r="E51">
+        <v>24082240000</v>
+      </c>
+      <c r="F51">
+        <v>14577751000</v>
+      </c>
+      <c r="G51">
+        <v>1021040000</v>
+      </c>
+      <c r="H51">
+        <v>2143900</v>
+      </c>
+      <c r="I51">
+        <v>39681031000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-13T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>2903530136000</v>
+      </c>
+      <c r="L51">
+        <v>172986200</v>
+      </c>
+      <c r="M51">
+        <v>-512400</v>
+      </c>
+      <c r="N51">
+        <v>-9504489000</v>
+      </c>
+      <c r="O51">
+        <v>20644000</v>
+      </c>
+      <c r="P51">
+        <v>398818141000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1673607240000</v>
+      </c>
+      <c r="B52">
+        <v>1026600</v>
+      </c>
+      <c r="C52">
+        <v>729600</v>
+      </c>
+      <c r="D52">
+        <v>1400</v>
+      </c>
+      <c r="E52">
+        <v>19928048000</v>
+      </c>
+      <c r="F52">
+        <v>14691072000</v>
+      </c>
+      <c r="G52">
+        <v>39275000</v>
+      </c>
+      <c r="H52">
+        <v>1757600</v>
+      </c>
+      <c r="I52">
+        <v>34658395000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-13T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2938188531000</v>
+      </c>
+      <c r="L52">
+        <v>174743800</v>
+      </c>
+      <c r="M52">
+        <v>-297000</v>
+      </c>
+      <c r="N52">
+        <v>-5236976000</v>
+      </c>
+      <c r="O52">
+        <v>20347000</v>
+      </c>
+      <c r="P52">
+        <v>393581165000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1673607360000</v>
+      </c>
+      <c r="B53">
+        <v>975300</v>
+      </c>
+      <c r="C53">
+        <v>741700</v>
+      </c>
+      <c r="D53">
+        <v>1500</v>
+      </c>
+      <c r="E53">
+        <v>15903059000</v>
+      </c>
+      <c r="F53">
+        <v>13461277000</v>
+      </c>
+      <c r="G53">
+        <v>7775000</v>
+      </c>
+      <c r="H53">
+        <v>1718500</v>
+      </c>
+      <c r="I53">
+        <v>29372111000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-13T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2967560642000</v>
+      </c>
+      <c r="L53">
+        <v>176462300</v>
+      </c>
+      <c r="M53">
+        <v>-233600</v>
+      </c>
+      <c r="N53">
+        <v>-2441782000</v>
+      </c>
+      <c r="O53">
+        <v>20113400</v>
+      </c>
+      <c r="P53">
+        <v>391139383000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1673607480000</v>
+      </c>
+      <c r="B54">
+        <v>985800</v>
+      </c>
+      <c r="C54">
+        <v>620200</v>
+      </c>
+      <c r="D54">
+        <v>1600</v>
+      </c>
+      <c r="E54">
+        <v>16693838000</v>
+      </c>
+      <c r="F54">
+        <v>13742978000</v>
+      </c>
+      <c r="G54">
+        <v>44316000</v>
+      </c>
+      <c r="H54">
+        <v>1607600</v>
+      </c>
+      <c r="I54">
+        <v>30481132000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-13T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2998041774000</v>
+      </c>
+      <c r="L54">
+        <v>178069900</v>
+      </c>
+      <c r="M54">
+        <v>-365600</v>
+      </c>
+      <c r="N54">
+        <v>-2950860000</v>
+      </c>
+      <c r="O54">
+        <v>19747800</v>
+      </c>
+      <c r="P54">
+        <v>388188523000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1673607600000</v>
+      </c>
+      <c r="B55">
+        <v>1240000</v>
+      </c>
+      <c r="C55">
+        <v>519300</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>22203013000</v>
+      </c>
+      <c r="F55">
+        <v>11138502000</v>
+      </c>
+      <c r="G55">
+        <v>741000</v>
+      </c>
+      <c r="H55">
+        <v>1759400</v>
+      </c>
+      <c r="I55">
+        <v>33342256000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-13T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>3031384030000</v>
+      </c>
+      <c r="L55">
+        <v>179829300</v>
+      </c>
+      <c r="M55">
+        <v>-720700</v>
+      </c>
+      <c r="N55">
+        <v>-11064511000</v>
+      </c>
+      <c r="O55">
+        <v>19027100</v>
+      </c>
+      <c r="P55">
+        <v>377124012000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1673607720000</v>
+      </c>
+      <c r="B56">
+        <v>1338500</v>
+      </c>
+      <c r="C56">
+        <v>702400</v>
+      </c>
+      <c r="D56">
+        <v>67500</v>
+      </c>
+      <c r="E56">
+        <v>25721720000</v>
+      </c>
+      <c r="F56">
+        <v>13488311000</v>
+      </c>
+      <c r="G56">
+        <v>746503000</v>
+      </c>
+      <c r="H56">
+        <v>2108400</v>
+      </c>
+      <c r="I56">
+        <v>39956534000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-13T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>3071340564000</v>
+      </c>
+      <c r="L56">
+        <v>181937700</v>
+      </c>
+      <c r="M56">
+        <v>-636100</v>
+      </c>
+      <c r="N56">
+        <v>-12233409000</v>
+      </c>
+      <c r="O56">
+        <v>18391000</v>
+      </c>
+      <c r="P56">
+        <v>364890603000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1673607840000</v>
+      </c>
+      <c r="B57">
+        <v>840600</v>
+      </c>
+      <c r="C57">
+        <v>622600</v>
+      </c>
+      <c r="D57">
+        <v>3300</v>
+      </c>
+      <c r="E57">
+        <v>14928857000</v>
+      </c>
+      <c r="F57">
+        <v>11640850000</v>
+      </c>
+      <c r="G57">
+        <v>23518000</v>
+      </c>
+      <c r="H57">
+        <v>1466500</v>
+      </c>
+      <c r="I57">
+        <v>26593225000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-13T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>3097933789000</v>
+      </c>
+      <c r="L57">
+        <v>183404200</v>
+      </c>
+      <c r="M57">
+        <v>-218000</v>
+      </c>
+      <c r="N57">
+        <v>-3288007000</v>
+      </c>
+      <c r="O57">
+        <v>18173000</v>
+      </c>
+      <c r="P57">
+        <v>361602596000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1673607960000</v>
+      </c>
+      <c r="B58">
+        <v>829000</v>
+      </c>
+      <c r="C58">
+        <v>576000</v>
+      </c>
+      <c r="D58">
+        <v>800</v>
+      </c>
+      <c r="E58">
+        <v>13865133000</v>
+      </c>
+      <c r="F58">
+        <v>9863046000</v>
+      </c>
+      <c r="G58">
+        <v>12250000</v>
+      </c>
+      <c r="H58">
+        <v>1405800</v>
+      </c>
+      <c r="I58">
+        <v>23740429000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-13T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>3121674218000</v>
+      </c>
+      <c r="L58">
+        <v>184810000</v>
+      </c>
+      <c r="M58">
+        <v>-253000</v>
+      </c>
+      <c r="N58">
+        <v>-4002087000</v>
+      </c>
+      <c r="O58">
+        <v>17920000</v>
+      </c>
+      <c r="P58">
+        <v>357600509000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1673608080000</v>
+      </c>
+      <c r="B59">
+        <v>1184000</v>
+      </c>
+      <c r="C59">
+        <v>773300</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>16698978000</v>
+      </c>
+      <c r="F59">
+        <v>14998810000</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1957300</v>
+      </c>
+      <c r="I59">
+        <v>31697788000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-13T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>3153372006000</v>
+      </c>
+      <c r="L59">
+        <v>186767300</v>
+      </c>
+      <c r="M59">
+        <v>-410700</v>
+      </c>
+      <c r="N59">
+        <v>-1700168000</v>
+      </c>
+      <c r="O59">
+        <v>17509300</v>
+      </c>
+      <c r="P59">
+        <v>355900341000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1673608200000</v>
+      </c>
+      <c r="B60">
+        <v>780100</v>
+      </c>
+      <c r="C60">
+        <v>843600</v>
+      </c>
+      <c r="D60">
+        <v>6600</v>
+      </c>
+      <c r="E60">
+        <v>13640797000</v>
+      </c>
+      <c r="F60">
+        <v>14014693000</v>
+      </c>
+      <c r="G60">
+        <v>221935000</v>
+      </c>
+      <c r="H60">
+        <v>1630300</v>
+      </c>
+      <c r="I60">
+        <v>27877425000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-13T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>3181249431000</v>
+      </c>
+      <c r="L60">
+        <v>188397600</v>
+      </c>
+      <c r="M60">
+        <v>63500</v>
+      </c>
+      <c r="N60">
+        <v>373896000</v>
+      </c>
+      <c r="O60">
+        <v>17572800</v>
+      </c>
+      <c r="P60">
+        <v>356274237000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1673608320000</v>
+      </c>
+      <c r="B61">
+        <v>869500</v>
+      </c>
+      <c r="C61">
+        <v>626500</v>
+      </c>
+      <c r="D61">
+        <v>1600</v>
+      </c>
+      <c r="E61">
+        <v>14064202000</v>
+      </c>
+      <c r="F61">
+        <v>12935812000</v>
+      </c>
+      <c r="G61">
+        <v>56370000</v>
+      </c>
+      <c r="H61">
+        <v>1497600</v>
+      </c>
+      <c r="I61">
+        <v>27056384000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-13T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>3208305815000</v>
+      </c>
+      <c r="L61">
+        <v>189895200</v>
+      </c>
+      <c r="M61">
+        <v>-243000</v>
+      </c>
+      <c r="N61">
+        <v>-1128390000</v>
+      </c>
+      <c r="O61">
+        <v>17329800</v>
+      </c>
+      <c r="P61">
+        <v>355145847000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1673608440000</v>
+      </c>
+      <c r="B62">
+        <v>988400</v>
+      </c>
+      <c r="C62">
+        <v>860300</v>
+      </c>
+      <c r="D62">
+        <v>4800</v>
+      </c>
+      <c r="E62">
+        <v>14905559000</v>
+      </c>
+      <c r="F62">
+        <v>13867277000</v>
+      </c>
+      <c r="G62">
+        <v>153840000.00000003</v>
+      </c>
+      <c r="H62">
+        <v>1853500</v>
+      </c>
+      <c r="I62">
+        <v>28926676000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-13T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>3237232491000</v>
+      </c>
+      <c r="L62">
+        <v>191748700</v>
+      </c>
+      <c r="M62">
+        <v>-128100</v>
+      </c>
+      <c r="N62">
+        <v>-1038282000</v>
+      </c>
+      <c r="O62">
+        <v>17201700</v>
+      </c>
+      <c r="P62">
+        <v>354107565000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1673608560000</v>
+      </c>
+      <c r="B63">
+        <v>906800</v>
+      </c>
+      <c r="C63">
+        <v>751300</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>15993400000</v>
+      </c>
+      <c r="F63">
+        <v>15221038000</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1658100</v>
+      </c>
+      <c r="I63">
+        <v>31214438000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-13T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>3268446929000</v>
+      </c>
+      <c r="L63">
+        <v>193406800</v>
+      </c>
+      <c r="M63">
+        <v>-155500</v>
+      </c>
+      <c r="N63">
+        <v>-772362000</v>
+      </c>
+      <c r="O63">
+        <v>17046200</v>
+      </c>
+      <c r="P63">
+        <v>353335203000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1673608680000</v>
+      </c>
+      <c r="B64">
+        <v>730800</v>
+      </c>
+      <c r="C64">
+        <v>570300</v>
+      </c>
+      <c r="D64">
+        <v>66900</v>
+      </c>
+      <c r="E64">
+        <v>12054165000</v>
+      </c>
+      <c r="F64">
+        <v>12543429000</v>
+      </c>
+      <c r="G64">
+        <v>808896000</v>
+      </c>
+      <c r="H64">
+        <v>1368000</v>
+      </c>
+      <c r="I64">
+        <v>25406490000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-13T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>3293853419000</v>
+      </c>
+      <c r="L64">
+        <v>194774800</v>
+      </c>
+      <c r="M64">
+        <v>-160500</v>
+      </c>
+      <c r="N64">
+        <v>489264000</v>
+      </c>
+      <c r="O64">
+        <v>16885700</v>
+      </c>
+      <c r="P64">
+        <v>353824467000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1673608800000</v>
+      </c>
+      <c r="B65">
+        <v>960500</v>
+      </c>
+      <c r="C65">
+        <v>941000</v>
+      </c>
+      <c r="D65">
+        <v>6600</v>
+      </c>
+      <c r="E65">
+        <v>13623935000</v>
+      </c>
+      <c r="F65">
+        <v>19485833000</v>
+      </c>
+      <c r="G65">
+        <v>137145000</v>
+      </c>
+      <c r="H65">
+        <v>1908100</v>
+      </c>
+      <c r="I65">
+        <v>33246913000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-13T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>3327100332000</v>
+      </c>
+      <c r="L65">
+        <v>196682900</v>
+      </c>
+      <c r="M65">
+        <v>-19500</v>
+      </c>
+      <c r="N65">
+        <v>5861898000</v>
+      </c>
+      <c r="O65">
+        <v>16866200</v>
+      </c>
+      <c r="P65">
+        <v>359686365000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1673608920000</v>
+      </c>
+      <c r="B66">
+        <v>714900</v>
+      </c>
+      <c r="C66">
+        <v>888000</v>
+      </c>
+      <c r="D66">
+        <v>68200</v>
+      </c>
+      <c r="E66">
+        <v>11528365000</v>
+      </c>
+      <c r="F66">
+        <v>16663252000</v>
+      </c>
+      <c r="G66">
+        <v>1028384000</v>
+      </c>
+      <c r="H66">
+        <v>1671100</v>
+      </c>
+      <c r="I66">
+        <v>29220001000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-13T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>3356320333000</v>
+      </c>
+      <c r="L66">
+        <v>198354000</v>
+      </c>
+      <c r="M66">
+        <v>173100</v>
+      </c>
+      <c r="N66">
+        <v>5134887000</v>
+      </c>
+      <c r="O66">
+        <v>17039300</v>
+      </c>
+      <c r="P66">
+        <v>364821252000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1673609040000</v>
+      </c>
+      <c r="B67">
+        <v>720200</v>
+      </c>
+      <c r="C67">
+        <v>954300</v>
+      </c>
+      <c r="D67">
+        <v>8400</v>
+      </c>
+      <c r="E67">
+        <v>10931745000</v>
+      </c>
+      <c r="F67">
+        <v>18537708000</v>
+      </c>
+      <c r="G67">
+        <v>189565000</v>
+      </c>
+      <c r="H67">
+        <v>1682900</v>
+      </c>
+      <c r="I67">
+        <v>29659018000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-13T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>3385979351000</v>
+      </c>
+      <c r="L67">
+        <v>200036900</v>
+      </c>
+      <c r="M67">
+        <v>234100</v>
+      </c>
+      <c r="N67">
+        <v>7605963000</v>
+      </c>
+      <c r="O67">
+        <v>17273400</v>
+      </c>
+      <c r="P67">
+        <v>372427215000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1673609160000</v>
+      </c>
+      <c r="B68">
+        <v>846500</v>
+      </c>
+      <c r="C68">
+        <v>1044900</v>
+      </c>
+      <c r="D68">
+        <v>4500</v>
+      </c>
+      <c r="E68">
+        <v>17794080000</v>
+      </c>
+      <c r="F68">
+        <v>17457586000</v>
+      </c>
+      <c r="G68">
+        <v>48783000</v>
+      </c>
+      <c r="H68">
+        <v>1895900</v>
+      </c>
+      <c r="I68">
+        <v>35300449000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-13T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>3421279800000</v>
+      </c>
+      <c r="L68">
+        <v>201932800</v>
+      </c>
+      <c r="M68">
+        <v>198400</v>
+      </c>
+      <c r="N68">
+        <v>-336494000</v>
+      </c>
+      <c r="O68">
+        <v>17471800</v>
+      </c>
+      <c r="P68">
+        <v>372090721000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1673609280000</v>
+      </c>
+      <c r="B69">
+        <v>894000</v>
+      </c>
+      <c r="C69">
+        <v>603300</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <v>15402545000</v>
+      </c>
+      <c r="F69">
+        <v>10375328000</v>
+      </c>
+      <c r="G69">
+        <v>4035000</v>
+      </c>
+      <c r="H69">
+        <v>1497400</v>
+      </c>
+      <c r="I69">
+        <v>25781908000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-13T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>3447061708000</v>
+      </c>
+      <c r="L69">
+        <v>203430200</v>
+      </c>
+      <c r="M69">
+        <v>-290700</v>
+      </c>
+      <c r="N69">
+        <v>-5027217000</v>
+      </c>
+      <c r="O69">
+        <v>17181100</v>
+      </c>
+      <c r="P69">
+        <v>367063504000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1673609400000</v>
+      </c>
+      <c r="B70">
+        <v>6800</v>
+      </c>
+      <c r="C70">
+        <v>1800</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>50829000</v>
+      </c>
+      <c r="F70">
+        <v>24310000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>8600</v>
+      </c>
+      <c r="I70">
+        <v>75139000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-13T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>3447136847000</v>
+      </c>
+      <c r="L70">
+        <v>203438800</v>
+      </c>
+      <c r="M70">
+        <v>-5000</v>
+      </c>
+      <c r="N70">
+        <v>-26519000</v>
+      </c>
+      <c r="O70">
+        <v>17176100</v>
+      </c>
+      <c r="P70">
+        <v>367036985000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1673614800000</v>
+      </c>
+      <c r="B71">
+        <v>3945500</v>
+      </c>
+      <c r="C71">
+        <v>2645000</v>
+      </c>
+      <c r="D71">
+        <v>77700</v>
+      </c>
+      <c r="E71">
+        <v>64639563000</v>
+      </c>
+      <c r="F71">
+        <v>42983597000</v>
+      </c>
+      <c r="G71">
+        <v>1403378000</v>
+      </c>
+      <c r="H71">
+        <v>6668200</v>
+      </c>
+      <c r="I71">
+        <v>109026538000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-13T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3556163385000</v>
+      </c>
+      <c r="L71">
+        <v>210107000</v>
+      </c>
+      <c r="M71">
+        <v>-1300500</v>
+      </c>
+      <c r="N71">
+        <v>-21655966000</v>
+      </c>
+      <c r="O71">
+        <v>15875600</v>
+      </c>
+      <c r="P71">
+        <v>345381019000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1673614920000</v>
+      </c>
+      <c r="B72">
+        <v>1566300</v>
+      </c>
+      <c r="C72">
+        <v>881400</v>
+      </c>
+      <c r="D72">
+        <v>4300</v>
+      </c>
+      <c r="E72">
+        <v>25479039000</v>
+      </c>
+      <c r="F72">
+        <v>16587044000</v>
+      </c>
+      <c r="G72">
+        <v>108109000</v>
+      </c>
+      <c r="H72">
+        <v>2452000</v>
+      </c>
+      <c r="I72">
+        <v>42174192000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-13T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3598337577000</v>
+      </c>
+      <c r="L72">
+        <v>212559000</v>
+      </c>
+      <c r="M72">
+        <v>-684900</v>
+      </c>
+      <c r="N72">
+        <v>-8891995000</v>
+      </c>
+      <c r="O72">
+        <v>15190700</v>
+      </c>
+      <c r="P72">
+        <v>336489024000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1673615040000</v>
+      </c>
+      <c r="B73">
+        <v>1728000</v>
+      </c>
+      <c r="C73">
+        <v>1129200</v>
+      </c>
+      <c r="D73">
+        <v>18700</v>
+      </c>
+      <c r="E73">
+        <v>28795110000</v>
+      </c>
+      <c r="F73">
+        <v>17327123000</v>
+      </c>
+      <c r="G73">
+        <v>760257000</v>
+      </c>
+      <c r="H73">
+        <v>2875900</v>
+      </c>
+      <c r="I73">
+        <v>46882490000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-13T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3645220067000</v>
+      </c>
+      <c r="L73">
+        <v>215434900</v>
+      </c>
+      <c r="M73">
+        <v>-598800</v>
+      </c>
+      <c r="N73">
+        <v>-11467987000</v>
+      </c>
+      <c r="O73">
+        <v>14591900</v>
+      </c>
+      <c r="P73">
+        <v>325021037000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1673615160000</v>
+      </c>
+      <c r="B74">
+        <v>2936600</v>
+      </c>
+      <c r="C74">
+        <v>1015500</v>
+      </c>
+      <c r="D74">
+        <v>23300</v>
+      </c>
+      <c r="E74">
+        <v>45281372000</v>
+      </c>
+      <c r="F74">
+        <v>18158850000</v>
+      </c>
+      <c r="G74">
+        <v>377183000</v>
+      </c>
+      <c r="H74">
+        <v>3975400</v>
+      </c>
+      <c r="I74">
+        <v>63817405000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-13T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3709037472000</v>
+      </c>
+      <c r="L74">
+        <v>219410300</v>
+      </c>
+      <c r="M74">
+        <v>-1921100</v>
+      </c>
+      <c r="N74">
+        <v>-27122522000</v>
+      </c>
+      <c r="O74">
+        <v>12670800</v>
+      </c>
+      <c r="P74">
+        <v>297898515000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1673615280000</v>
+      </c>
+      <c r="B75">
+        <v>2777200</v>
+      </c>
+      <c r="C75">
+        <v>1005000</v>
+      </c>
+      <c r="D75">
+        <v>6900</v>
+      </c>
+      <c r="E75">
+        <v>48109063000</v>
+      </c>
+      <c r="F75">
+        <v>18083914000</v>
+      </c>
+      <c r="G75">
+        <v>124745000</v>
+      </c>
+      <c r="H75">
+        <v>3789100</v>
+      </c>
+      <c r="I75">
+        <v>66317722000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-13T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3775355194000</v>
+      </c>
+      <c r="L75">
+        <v>223199400</v>
+      </c>
+      <c r="M75">
+        <v>-1772200</v>
+      </c>
+      <c r="N75">
+        <v>-30025149000</v>
+      </c>
+      <c r="O75">
+        <v>10898600</v>
+      </c>
+      <c r="P75">
+        <v>267873366000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1673615400000</v>
+      </c>
+      <c r="B76">
+        <v>2234300</v>
+      </c>
+      <c r="C76">
+        <v>1236800</v>
+      </c>
+      <c r="D76">
+        <v>2500</v>
+      </c>
+      <c r="E76">
+        <v>36750401000</v>
+      </c>
+      <c r="F76">
+        <v>21500479000</v>
+      </c>
+      <c r="G76">
+        <v>68325000</v>
+      </c>
+      <c r="H76">
+        <v>3473600</v>
+      </c>
+      <c r="I76">
+        <v>58319205000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-13T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3833674399000</v>
+      </c>
+      <c r="L76">
+        <v>226673000</v>
+      </c>
+      <c r="M76">
+        <v>-997500</v>
+      </c>
+      <c r="N76">
+        <v>-15249922000</v>
+      </c>
+      <c r="O76">
+        <v>9901100</v>
+      </c>
+      <c r="P76">
+        <v>252623444000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1673615520000</v>
+      </c>
+      <c r="B77">
+        <v>1991200</v>
+      </c>
+      <c r="C77">
+        <v>1131000</v>
+      </c>
+      <c r="D77">
+        <v>7100</v>
+      </c>
+      <c r="E77">
+        <v>30380452000</v>
+      </c>
+      <c r="F77">
+        <v>19824995000</v>
+      </c>
+      <c r="G77">
+        <v>125308000</v>
+      </c>
+      <c r="H77">
+        <v>3129300</v>
+      </c>
+      <c r="I77">
+        <v>50330755000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-13T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3884005154000</v>
+      </c>
+      <c r="L77">
+        <v>229802300</v>
+      </c>
+      <c r="M77">
+        <v>-860200</v>
+      </c>
+      <c r="N77">
+        <v>-10555457000</v>
+      </c>
+      <c r="O77">
+        <v>9040900</v>
+      </c>
+      <c r="P77">
+        <v>242067987000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1673615640000</v>
+      </c>
+      <c r="B78">
+        <v>1901800</v>
+      </c>
+      <c r="C78">
+        <v>927300</v>
+      </c>
+      <c r="D78">
+        <v>1000</v>
+      </c>
+      <c r="E78">
+        <v>31114483000</v>
+      </c>
+      <c r="F78">
+        <v>15643178000</v>
+      </c>
+      <c r="G78">
+        <v>33410000</v>
+      </c>
+      <c r="H78">
+        <v>2830100</v>
+      </c>
+      <c r="I78">
+        <v>46791071000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-13T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3930796225000</v>
+      </c>
+      <c r="L78">
+        <v>232632400</v>
+      </c>
+      <c r="M78">
+        <v>-974500</v>
+      </c>
+      <c r="N78">
+        <v>-15471305000</v>
+      </c>
+      <c r="O78">
+        <v>8066400</v>
+      </c>
+      <c r="P78">
+        <v>226596682000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1673615760000</v>
+      </c>
+      <c r="B79">
+        <v>2541100</v>
+      </c>
+      <c r="C79">
+        <v>1231700</v>
+      </c>
+      <c r="D79">
+        <v>20400</v>
+      </c>
+      <c r="E79">
+        <v>41232635000</v>
+      </c>
+      <c r="F79">
+        <v>21202121000</v>
+      </c>
+      <c r="G79">
+        <v>321572000</v>
+      </c>
+      <c r="H79">
+        <v>3793200</v>
+      </c>
+      <c r="I79">
+        <v>62756328000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-13T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3993552553000</v>
+      </c>
+      <c r="L79">
+        <v>236425600</v>
+      </c>
+      <c r="M79">
+        <v>-1309400</v>
+      </c>
+      <c r="N79">
+        <v>-20030514000</v>
+      </c>
+      <c r="O79">
+        <v>6757000</v>
+      </c>
+      <c r="P79">
+        <v>206566168000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1673615880000</v>
+      </c>
+      <c r="B80">
+        <v>1234300</v>
+      </c>
+      <c r="C80">
+        <v>2267400</v>
+      </c>
+      <c r="D80">
+        <v>6300</v>
+      </c>
+      <c r="E80">
+        <v>21024795000</v>
+      </c>
+      <c r="F80">
+        <v>37498894000</v>
+      </c>
+      <c r="G80">
+        <v>183917000</v>
+      </c>
+      <c r="H80">
+        <v>3508000</v>
+      </c>
+      <c r="I80">
+        <v>58707606000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-13T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>4052260159000</v>
+      </c>
+      <c r="L80">
+        <v>239933600</v>
+      </c>
+      <c r="M80">
+        <v>1033100</v>
+      </c>
+      <c r="N80">
+        <v>16474099000</v>
+      </c>
+      <c r="O80">
+        <v>7790100</v>
+      </c>
+      <c r="P80">
+        <v>223040267000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1673616000000</v>
+      </c>
+      <c r="B81">
+        <v>1358700</v>
+      </c>
+      <c r="C81">
+        <v>2017400</v>
+      </c>
+      <c r="D81">
+        <v>15400</v>
+      </c>
+      <c r="E81">
+        <v>25683432000</v>
+      </c>
+      <c r="F81">
+        <v>36346518000</v>
+      </c>
+      <c r="G81">
+        <v>223092000</v>
+      </c>
+      <c r="H81">
+        <v>3391500</v>
+      </c>
+      <c r="I81">
+        <v>62253042000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-13T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>4114513201000</v>
+      </c>
+      <c r="L81">
+        <v>243325100</v>
+      </c>
+      <c r="M81">
+        <v>658700</v>
+      </c>
+      <c r="N81">
+        <v>10663086000</v>
+      </c>
+      <c r="O81">
+        <v>8448800</v>
+      </c>
+      <c r="P81">
+        <v>233703353000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1673616120000</v>
+      </c>
+      <c r="B82">
+        <v>1433300</v>
+      </c>
+      <c r="C82">
+        <v>1758400</v>
+      </c>
+      <c r="D82">
+        <v>13500</v>
+      </c>
+      <c r="E82">
+        <v>24896943000</v>
+      </c>
+      <c r="F82">
+        <v>29645267000</v>
+      </c>
+      <c r="G82">
+        <v>547257000</v>
+      </c>
+      <c r="H82">
+        <v>3205200</v>
+      </c>
+      <c r="I82">
+        <v>55089467000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-13T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>4169602668000</v>
+      </c>
+      <c r="L82">
+        <v>246530300</v>
+      </c>
+      <c r="M82">
+        <v>325100</v>
+      </c>
+      <c r="N82">
+        <v>4748324000</v>
+      </c>
+      <c r="O82">
+        <v>8773900</v>
+      </c>
+      <c r="P82">
+        <v>238451677000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1673616240000</v>
+      </c>
+      <c r="B83">
+        <v>1026700</v>
+      </c>
+      <c r="C83">
+        <v>898000</v>
+      </c>
+      <c r="D83">
+        <v>18600</v>
+      </c>
+      <c r="E83">
+        <v>19020694000</v>
+      </c>
+      <c r="F83">
+        <v>17325311000</v>
+      </c>
+      <c r="G83">
+        <v>325332000</v>
+      </c>
+      <c r="H83">
+        <v>1943300</v>
+      </c>
+      <c r="I83">
+        <v>36671337000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-13T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>4206274005000</v>
+      </c>
+      <c r="L83">
+        <v>248473600</v>
+      </c>
+      <c r="M83">
+        <v>-128700</v>
+      </c>
+      <c r="N83">
+        <v>-1695383000</v>
+      </c>
+      <c r="O83">
+        <v>8645200</v>
+      </c>
+      <c r="P83">
+        <v>236756294000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1673616360000</v>
+      </c>
+      <c r="B84">
+        <v>2024700</v>
+      </c>
+      <c r="C84">
+        <v>1154200</v>
+      </c>
+      <c r="D84">
+        <v>9600</v>
+      </c>
+      <c r="E84">
+        <v>31866147000</v>
+      </c>
+      <c r="F84">
+        <v>21724703000</v>
+      </c>
+      <c r="G84">
+        <v>63348000</v>
+      </c>
+      <c r="H84">
+        <v>3188500</v>
+      </c>
+      <c r="I84">
+        <v>53654198000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-13T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>4259928203000</v>
+      </c>
+      <c r="L84">
+        <v>251662100</v>
+      </c>
+      <c r="M84">
+        <v>-870500</v>
+      </c>
+      <c r="N84">
+        <v>-10141444000</v>
+      </c>
+      <c r="O84">
+        <v>7774700</v>
+      </c>
+      <c r="P84">
+        <v>226614850000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1673616480000</v>
+      </c>
+      <c r="B85">
+        <v>1594700</v>
+      </c>
+      <c r="C85">
+        <v>1040900</v>
+      </c>
+      <c r="D85">
+        <v>1300</v>
+      </c>
+      <c r="E85">
+        <v>25322124000</v>
+      </c>
+      <c r="F85">
+        <v>21340817000</v>
+      </c>
+      <c r="G85">
+        <v>20921000</v>
+      </c>
+      <c r="H85">
+        <v>2636900</v>
+      </c>
+      <c r="I85">
+        <v>46683862000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-13T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>4306612065000</v>
+      </c>
+      <c r="L85">
+        <v>254299000</v>
+      </c>
+      <c r="M85">
+        <v>-553800</v>
+      </c>
+      <c r="N85">
+        <v>-3981307000</v>
+      </c>
+      <c r="O85">
+        <v>7220900</v>
+      </c>
+      <c r="P85">
+        <v>222633543000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1673616600000</v>
+      </c>
+      <c r="B86">
+        <v>1588400</v>
+      </c>
+      <c r="C86">
+        <v>1025800</v>
+      </c>
+      <c r="D86">
+        <v>6400</v>
+      </c>
+      <c r="E86">
+        <v>26289333000</v>
+      </c>
+      <c r="F86">
+        <v>19550011000</v>
+      </c>
+      <c r="G86">
+        <v>315100000</v>
+      </c>
+      <c r="H86">
+        <v>2620600</v>
+      </c>
+      <c r="I86">
+        <v>46154444000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-13T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4352766509000</v>
+      </c>
+      <c r="L86">
+        <v>256919600</v>
+      </c>
+      <c r="M86">
+        <v>-562600</v>
+      </c>
+      <c r="N86">
+        <v>-6739322000</v>
+      </c>
+      <c r="O86">
+        <v>6658300</v>
+      </c>
+      <c r="P86">
+        <v>215894221000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1673616720000</v>
+      </c>
+      <c r="B87">
+        <v>1397100</v>
+      </c>
+      <c r="C87">
+        <v>1214600</v>
+      </c>
+      <c r="D87">
+        <v>2000</v>
+      </c>
+      <c r="E87">
+        <v>22281760000</v>
+      </c>
+      <c r="F87">
+        <v>23712843000</v>
+      </c>
+      <c r="G87">
+        <v>64638000</v>
+      </c>
+      <c r="H87">
+        <v>2613700</v>
+      </c>
+      <c r="I87">
+        <v>46059241000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-13T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4398825750000</v>
+      </c>
+      <c r="L87">
+        <v>259533300</v>
+      </c>
+      <c r="M87">
+        <v>-182500</v>
+      </c>
+      <c r="N87">
+        <v>1431083000</v>
+      </c>
+      <c r="O87">
+        <v>6475800</v>
+      </c>
+      <c r="P87">
+        <v>217325304000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1673616840000</v>
+      </c>
+      <c r="B88">
+        <v>1287300</v>
+      </c>
+      <c r="C88">
+        <v>1555900</v>
+      </c>
+      <c r="D88">
+        <v>11700</v>
+      </c>
+      <c r="E88">
+        <v>20344752000</v>
+      </c>
+      <c r="F88">
+        <v>28808960000</v>
+      </c>
+      <c r="G88">
+        <v>209472000</v>
+      </c>
+      <c r="H88">
+        <v>2854900</v>
+      </c>
+      <c r="I88">
+        <v>49363184000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-13T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4448188934000</v>
+      </c>
+      <c r="L88">
+        <v>262388200</v>
+      </c>
+      <c r="M88">
+        <v>268600</v>
+      </c>
+      <c r="N88">
+        <v>8464208000</v>
+      </c>
+      <c r="O88">
+        <v>6744400</v>
+      </c>
+      <c r="P88">
+        <v>225789512000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1673616960000</v>
+      </c>
+      <c r="B89">
+        <v>1734700</v>
+      </c>
+      <c r="C89">
+        <v>3232400</v>
+      </c>
+      <c r="D89">
+        <v>39200</v>
+      </c>
+      <c r="E89">
+        <v>30898934000</v>
+      </c>
+      <c r="F89">
+        <v>63900589000</v>
+      </c>
+      <c r="G89">
+        <v>391964000</v>
+      </c>
+      <c r="H89">
+        <v>5006300</v>
+      </c>
+      <c r="I89">
+        <v>95191487000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-13T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4543380421000</v>
+      </c>
+      <c r="L89">
+        <v>267394500</v>
+      </c>
+      <c r="M89">
+        <v>1497700</v>
+      </c>
+      <c r="N89">
+        <v>33001655000</v>
+      </c>
+      <c r="O89">
+        <v>8242100</v>
+      </c>
+      <c r="P89">
+        <v>258791167000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1673617080000</v>
+      </c>
+      <c r="B90">
+        <v>1131400</v>
+      </c>
+      <c r="C90">
+        <v>3613300</v>
+      </c>
+      <c r="D90">
+        <v>900</v>
+      </c>
+      <c r="E90">
+        <v>20915808000</v>
+      </c>
+      <c r="F90">
+        <v>74315377000</v>
+      </c>
+      <c r="G90">
+        <v>22452000</v>
+      </c>
+      <c r="H90">
+        <v>4745600</v>
+      </c>
+      <c r="I90">
+        <v>95253637000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-13T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4638634058000</v>
+      </c>
+      <c r="L90">
+        <v>272140100</v>
+      </c>
+      <c r="M90">
+        <v>2481900</v>
+      </c>
+      <c r="N90">
+        <v>53399569000</v>
+      </c>
+      <c r="O90">
+        <v>10724000</v>
+      </c>
+      <c r="P90">
+        <v>312190736000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1673617200000</v>
+      </c>
+      <c r="B91">
+        <v>1383400</v>
+      </c>
+      <c r="C91">
+        <v>3025700</v>
+      </c>
+      <c r="D91">
+        <v>4800</v>
+      </c>
+      <c r="E91">
+        <v>22440011000</v>
+      </c>
+      <c r="F91">
+        <v>52855271000</v>
+      </c>
+      <c r="G91">
+        <v>70730000</v>
+      </c>
+      <c r="H91">
+        <v>4413900</v>
+      </c>
+      <c r="I91">
+        <v>75366012000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-13T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4714000070000</v>
+      </c>
+      <c r="L91">
+        <v>276554000</v>
+      </c>
+      <c r="M91">
+        <v>1642300</v>
+      </c>
+      <c r="N91">
+        <v>30415260000</v>
+      </c>
+      <c r="O91">
+        <v>12366300</v>
+      </c>
+      <c r="P91">
+        <v>342605996000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1673617320000</v>
+      </c>
+      <c r="B92">
+        <v>2433000</v>
+      </c>
+      <c r="C92">
+        <v>3284900</v>
+      </c>
+      <c r="D92">
+        <v>14500</v>
+      </c>
+      <c r="E92">
+        <v>36952358000</v>
+      </c>
+      <c r="F92">
+        <v>44921164000</v>
+      </c>
+      <c r="G92">
+        <v>115924000</v>
+      </c>
+      <c r="H92">
+        <v>5732400</v>
+      </c>
+      <c r="I92">
+        <v>81989446000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-13T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4795989516000</v>
+      </c>
+      <c r="L92">
+        <v>282286400</v>
+      </c>
+      <c r="M92">
+        <v>851900</v>
+      </c>
+      <c r="N92">
+        <v>7968806000</v>
+      </c>
+      <c r="O92">
+        <v>13218200</v>
+      </c>
+      <c r="P92">
+        <v>350574802000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1673617440000</v>
+      </c>
+      <c r="B93">
+        <v>1817700</v>
+      </c>
+      <c r="C93">
+        <v>1471300</v>
+      </c>
+      <c r="D93">
+        <v>23800</v>
+      </c>
+      <c r="E93">
+        <v>26936052000</v>
+      </c>
+      <c r="F93">
+        <v>27137218000</v>
+      </c>
+      <c r="G93">
+        <v>257716000</v>
+      </c>
+      <c r="H93">
+        <v>3312800</v>
+      </c>
+      <c r="I93">
+        <v>54330986000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-13T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4850320502000</v>
+      </c>
+      <c r="L93">
+        <v>285599200</v>
+      </c>
+      <c r="M93">
+        <v>-346400</v>
+      </c>
+      <c r="N93">
+        <v>201166000</v>
+      </c>
+      <c r="O93">
+        <v>12871800</v>
+      </c>
+      <c r="P93">
+        <v>350775968000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1673617560000</v>
+      </c>
+      <c r="B94">
+        <v>2026300</v>
+      </c>
+      <c r="C94">
+        <v>1681900</v>
+      </c>
+      <c r="D94">
+        <v>26100</v>
+      </c>
+      <c r="E94">
+        <v>35632800000</v>
+      </c>
+      <c r="F94">
+        <v>25033502000</v>
+      </c>
+      <c r="G94">
+        <v>763590000</v>
+      </c>
+      <c r="H94">
+        <v>3734300</v>
+      </c>
+      <c r="I94">
+        <v>61429892000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-13T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>4911750394000</v>
+      </c>
+      <c r="L94">
+        <v>289333500</v>
+      </c>
+      <c r="M94">
+        <v>-344400</v>
+      </c>
+      <c r="N94">
+        <v>-10599298000</v>
+      </c>
+      <c r="O94">
+        <v>12527400</v>
+      </c>
+      <c r="P94">
+        <v>340176670000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1673617680000</v>
+      </c>
+      <c r="B95">
+        <v>2886500</v>
+      </c>
+      <c r="C95">
+        <v>1446100</v>
+      </c>
+      <c r="D95">
+        <v>71200</v>
+      </c>
+      <c r="E95">
+        <v>48695063000</v>
+      </c>
+      <c r="F95">
+        <v>27471552000</v>
+      </c>
+      <c r="G95">
+        <v>1774556000</v>
+      </c>
+      <c r="H95">
+        <v>4403800</v>
+      </c>
+      <c r="I95">
+        <v>77941171000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-13T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>4989691565000</v>
+      </c>
+      <c r="L95">
+        <v>293737300</v>
+      </c>
+      <c r="M95">
+        <v>-1440400</v>
+      </c>
+      <c r="N95">
+        <v>-21223511000</v>
+      </c>
+      <c r="O95">
+        <v>11087000</v>
+      </c>
+      <c r="P95">
+        <v>318953159000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1673617800000</v>
+      </c>
+      <c r="B96">
+        <v>5157700</v>
+      </c>
+      <c r="C96">
+        <v>819600</v>
+      </c>
+      <c r="D96">
+        <v>41200</v>
+      </c>
+      <c r="E96">
+        <v>91740842000</v>
+      </c>
+      <c r="F96">
+        <v>15932088000</v>
+      </c>
+      <c r="G96">
+        <v>308281000</v>
+      </c>
+      <c r="H96">
+        <v>6018500</v>
+      </c>
+      <c r="I96">
+        <v>107981211000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-13T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>5097672776000</v>
+      </c>
+      <c r="L96">
+        <v>299755800</v>
+      </c>
+      <c r="M96">
+        <v>-4338100</v>
+      </c>
+      <c r="N96">
+        <v>-75808754000</v>
+      </c>
+      <c r="O96">
+        <v>6748900</v>
+      </c>
+      <c r="P96">
+        <v>243144405000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1673617920000</v>
+      </c>
+      <c r="B97">
+        <v>7817300</v>
+      </c>
+      <c r="C97">
+        <v>1185400</v>
+      </c>
+      <c r="D97">
+        <v>81200</v>
+      </c>
+      <c r="E97">
+        <v>129808050000</v>
+      </c>
+      <c r="F97">
+        <v>22433892000</v>
+      </c>
+      <c r="G97">
+        <v>2043296000</v>
+      </c>
+      <c r="H97">
+        <v>9083900</v>
+      </c>
+      <c r="I97">
+        <v>154285238000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-13T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>5251958014000</v>
+      </c>
+      <c r="L97">
+        <v>308839700</v>
+      </c>
+      <c r="M97">
+        <v>-6631900</v>
+      </c>
+      <c r="N97">
+        <v>-107374158000</v>
+      </c>
+      <c r="O97">
+        <v>117000</v>
+      </c>
+      <c r="P97">
+        <v>135770247000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1673618040000</v>
+      </c>
+      <c r="B98">
+        <v>8138200</v>
+      </c>
+      <c r="C98">
+        <v>1881200</v>
+      </c>
+      <c r="D98">
+        <v>11800</v>
+      </c>
+      <c r="E98">
+        <v>133238410000</v>
+      </c>
+      <c r="F98">
+        <v>34219525000</v>
+      </c>
+      <c r="G98">
+        <v>164791000</v>
+      </c>
+      <c r="H98">
+        <v>10031200</v>
+      </c>
+      <c r="I98">
+        <v>167622726000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-13T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>5419580740000</v>
+      </c>
+      <c r="L98">
+        <v>318870900</v>
+      </c>
+      <c r="M98">
+        <v>-6257000</v>
+      </c>
+      <c r="N98">
+        <v>-99018885000</v>
+      </c>
+      <c r="O98">
+        <v>-6140000</v>
+      </c>
+      <c r="P98">
+        <v>36751362000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1673618160000</v>
+      </c>
+      <c r="B99">
+        <v>3267500</v>
+      </c>
+      <c r="C99">
+        <v>2787000</v>
+      </c>
+      <c r="D99">
+        <v>19800</v>
+      </c>
+      <c r="E99">
+        <v>53231004000</v>
+      </c>
+      <c r="F99">
+        <v>49015987000</v>
+      </c>
+      <c r="G99">
+        <v>283058000</v>
+      </c>
+      <c r="H99">
+        <v>6074300</v>
+      </c>
+      <c r="I99">
+        <v>102530049000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-13T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>5522110789000</v>
+      </c>
+      <c r="L99">
+        <v>324945200</v>
+      </c>
+      <c r="M99">
+        <v>-480500</v>
+      </c>
+      <c r="N99">
+        <v>-4215017000</v>
+      </c>
+      <c r="O99">
+        <v>-6620500</v>
+      </c>
+      <c r="P99">
+        <v>32536345000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1673618280000</v>
+      </c>
+      <c r="B100">
+        <v>1833600</v>
+      </c>
+      <c r="C100">
+        <v>2149100</v>
+      </c>
+      <c r="D100">
+        <v>65100</v>
+      </c>
+      <c r="E100">
+        <v>29205016000</v>
+      </c>
+      <c r="F100">
+        <v>40932366000</v>
+      </c>
+      <c r="G100">
+        <v>454796000</v>
+      </c>
+      <c r="H100">
+        <v>4047800</v>
+      </c>
+      <c r="I100">
+        <v>70592178000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-13T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>5592702967000</v>
+      </c>
+      <c r="L100">
+        <v>328993000</v>
+      </c>
+      <c r="M100">
+        <v>315500</v>
+      </c>
+      <c r="N100">
+        <v>11727350000</v>
+      </c>
+      <c r="O100">
+        <v>-6305000</v>
+      </c>
+      <c r="P100">
+        <v>44263695000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1673618400000</v>
+      </c>
+      <c r="B101">
+        <v>1317900</v>
+      </c>
+      <c r="C101">
+        <v>1763600</v>
+      </c>
+      <c r="D101">
+        <v>4900</v>
+      </c>
+      <c r="E101">
+        <v>22900064000</v>
+      </c>
+      <c r="F101">
+        <v>29541061000</v>
+      </c>
+      <c r="G101">
+        <v>70818000</v>
+      </c>
+      <c r="H101">
+        <v>3086400</v>
+      </c>
+      <c r="I101">
+        <v>52511943000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-13T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>5645214910000</v>
+      </c>
+      <c r="L101">
+        <v>332079400</v>
+      </c>
+      <c r="M101">
+        <v>445700</v>
+      </c>
+      <c r="N101">
+        <v>6640997000</v>
+      </c>
+      <c r="O101">
+        <v>-5859300</v>
+      </c>
+      <c r="P101">
+        <v>50904692000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1673618520000</v>
+      </c>
+      <c r="B102">
+        <v>1136900</v>
+      </c>
+      <c r="C102">
+        <v>1889100</v>
+      </c>
+      <c r="D102">
+        <v>32400</v>
+      </c>
+      <c r="E102">
+        <v>19107067000</v>
+      </c>
+      <c r="F102">
+        <v>32698787000</v>
+      </c>
+      <c r="G102">
+        <v>683717000</v>
+      </c>
+      <c r="H102">
+        <v>3058400</v>
+      </c>
+      <c r="I102">
+        <v>52489571000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-13T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>5697704481000</v>
+      </c>
+      <c r="L102">
+        <v>335137800</v>
+      </c>
+      <c r="M102">
+        <v>752200</v>
+      </c>
+      <c r="N102">
+        <v>13591720000</v>
+      </c>
+      <c r="O102">
+        <v>-5107100</v>
+      </c>
+      <c r="P102">
+        <v>64496412000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1673618640000</v>
+      </c>
+      <c r="B103">
+        <v>1317600</v>
+      </c>
+      <c r="C103">
+        <v>1300100</v>
+      </c>
+      <c r="D103">
+        <v>8600</v>
+      </c>
+      <c r="E103">
+        <v>20797983000</v>
+      </c>
+      <c r="F103">
+        <v>24919863000</v>
+      </c>
+      <c r="G103">
+        <v>244825000</v>
+      </c>
+      <c r="H103">
+        <v>2626300</v>
+      </c>
+      <c r="I103">
+        <v>45962671000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-13T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>5743667152000</v>
+      </c>
+      <c r="L103">
+        <v>337764100</v>
+      </c>
+      <c r="M103">
+        <v>-17500</v>
+      </c>
+      <c r="N103">
+        <v>4121880000</v>
+      </c>
+      <c r="O103">
+        <v>-5124600</v>
+      </c>
+      <c r="P103">
+        <v>68618292000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1673618760000</v>
+      </c>
+      <c r="B104">
+        <v>3872400</v>
+      </c>
+      <c r="C104">
+        <v>1083000</v>
+      </c>
+      <c r="D104">
+        <v>10000</v>
+      </c>
+      <c r="E104">
+        <v>69553544000</v>
+      </c>
+      <c r="F104">
+        <v>22572732000</v>
+      </c>
+      <c r="G104">
+        <v>268665000</v>
+      </c>
+      <c r="H104">
+        <v>4965400</v>
+      </c>
+      <c r="I104">
+        <v>92394941000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-13T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>5836062093000</v>
+      </c>
+      <c r="L104">
+        <v>342729500</v>
+      </c>
+      <c r="M104">
+        <v>-2789400</v>
+      </c>
+      <c r="N104">
+        <v>-46980812000</v>
+      </c>
+      <c r="O104">
+        <v>-7914000</v>
+      </c>
+      <c r="P104">
+        <v>21637480000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1673618880000</v>
+      </c>
+      <c r="B105">
+        <v>3414600</v>
+      </c>
+      <c r="C105">
+        <v>1019900</v>
+      </c>
+      <c r="D105">
+        <v>15000</v>
+      </c>
+      <c r="E105">
+        <v>54356167000</v>
+      </c>
+      <c r="F105">
+        <v>21820840000</v>
+      </c>
+      <c r="G105">
+        <v>317290000</v>
+      </c>
+      <c r="H105">
+        <v>4449500</v>
+      </c>
+      <c r="I105">
+        <v>76494297000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-13T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>5912556390000</v>
+      </c>
+      <c r="L105">
+        <v>347179000</v>
+      </c>
+      <c r="M105">
+        <v>-2394700</v>
+      </c>
+      <c r="N105">
+        <v>-32535327000</v>
+      </c>
+      <c r="O105">
+        <v>-10308700</v>
+      </c>
+      <c r="P105">
+        <v>-10897847000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1673619000000</v>
+      </c>
+      <c r="B106">
+        <v>4113800</v>
+      </c>
+      <c r="C106">
+        <v>969800</v>
+      </c>
+      <c r="D106">
+        <v>75200</v>
+      </c>
+      <c r="E106">
+        <v>66072090000</v>
+      </c>
+      <c r="F106">
+        <v>17397456000</v>
+      </c>
+      <c r="G106">
+        <v>837642000</v>
+      </c>
+      <c r="H106">
+        <v>5158800</v>
+      </c>
+      <c r="I106">
+        <v>84307188000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-13T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>5996863578000</v>
+      </c>
+      <c r="L106">
+        <v>352337800</v>
+      </c>
+      <c r="M106">
+        <v>-3144000</v>
+      </c>
+      <c r="N106">
+        <v>-48674634000</v>
+      </c>
+      <c r="O106">
+        <v>-13452700</v>
+      </c>
+      <c r="P106">
+        <v>-59572481000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1673619120000</v>
+      </c>
+      <c r="B107">
+        <v>2657000</v>
+      </c>
+      <c r="C107">
+        <v>1776300</v>
+      </c>
+      <c r="D107">
+        <v>7600</v>
+      </c>
+      <c r="E107">
+        <v>45355513000</v>
+      </c>
+      <c r="F107">
+        <v>31776946000</v>
+      </c>
+      <c r="G107">
+        <v>120888000</v>
+      </c>
+      <c r="H107">
+        <v>4440900</v>
+      </c>
+      <c r="I107">
+        <v>77253347000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-13T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>6074116925000</v>
+      </c>
+      <c r="L107">
+        <v>356778700</v>
+      </c>
+      <c r="M107">
+        <v>-880700</v>
+      </c>
+      <c r="N107">
+        <v>-13578567000</v>
+      </c>
+      <c r="O107">
+        <v>-14333400</v>
+      </c>
+      <c r="P107">
+        <v>-73151048000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1673619240000</v>
+      </c>
+      <c r="B108">
+        <v>3925700</v>
+      </c>
+      <c r="C108">
+        <v>1349700</v>
+      </c>
+      <c r="D108">
+        <v>62300</v>
+      </c>
+      <c r="E108">
+        <v>59579424000</v>
+      </c>
+      <c r="F108">
+        <v>25235512000</v>
+      </c>
+      <c r="G108">
+        <v>1191690000</v>
+      </c>
+      <c r="H108">
+        <v>5337700</v>
+      </c>
+      <c r="I108">
+        <v>86006626000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-13T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>6160123551000</v>
+      </c>
+      <c r="L108">
+        <v>362116400</v>
+      </c>
+      <c r="M108">
+        <v>-2576000</v>
+      </c>
+      <c r="N108">
+        <v>-34343912000</v>
+      </c>
+      <c r="O108">
+        <v>-16909400</v>
+      </c>
+      <c r="P108">
+        <v>-107494960000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1673619360000</v>
+      </c>
+      <c r="B109">
+        <v>6022800</v>
+      </c>
+      <c r="C109">
+        <v>1435300</v>
+      </c>
+      <c r="D109">
+        <v>16200</v>
+      </c>
+      <c r="E109">
+        <v>107196783000</v>
+      </c>
+      <c r="F109">
+        <v>24079631000</v>
+      </c>
+      <c r="G109">
+        <v>261281000</v>
+      </c>
+      <c r="H109">
+        <v>7474300</v>
+      </c>
+      <c r="I109">
+        <v>131537695000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-13T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>6291661246000</v>
+      </c>
+      <c r="L109">
+        <v>369590700</v>
+      </c>
+      <c r="M109">
+        <v>-4587500</v>
+      </c>
+      <c r="N109">
+        <v>-83117152000</v>
+      </c>
+      <c r="O109">
+        <v>-21496900</v>
+      </c>
+      <c r="P109">
+        <v>-190612112000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1673619480000</v>
+      </c>
+      <c r="B110">
+        <v>7927200</v>
+      </c>
+      <c r="C110">
+        <v>1988400</v>
+      </c>
+      <c r="D110">
+        <v>35300</v>
+      </c>
+      <c r="E110">
+        <v>130407468000</v>
+      </c>
+      <c r="F110">
+        <v>33183192000</v>
+      </c>
+      <c r="G110">
+        <v>1152338000</v>
+      </c>
+      <c r="H110">
+        <v>9950900</v>
+      </c>
+      <c r="I110">
+        <v>164742998000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-13T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>6456404244000</v>
+      </c>
+      <c r="L110">
+        <v>379541600</v>
+      </c>
+      <c r="M110">
+        <v>-5938800</v>
+      </c>
+      <c r="N110">
+        <v>-97224276000</v>
+      </c>
+      <c r="O110">
+        <v>-27435700</v>
+      </c>
+      <c r="P110">
+        <v>-287836388000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1673619600000</v>
+      </c>
+      <c r="B111">
+        <v>7187600</v>
+      </c>
+      <c r="C111">
+        <v>2128400</v>
+      </c>
+      <c r="D111">
+        <v>53900</v>
+      </c>
+      <c r="E111">
+        <v>117284491000</v>
+      </c>
+      <c r="F111">
+        <v>37926476000</v>
+      </c>
+      <c r="G111">
+        <v>792029000</v>
+      </c>
+      <c r="H111">
+        <v>9369900</v>
+      </c>
+      <c r="I111">
+        <v>156002996000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-13T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>6612407240000</v>
+      </c>
+      <c r="L111">
+        <v>388911500</v>
+      </c>
+      <c r="M111">
+        <v>-5059200</v>
+      </c>
+      <c r="N111">
+        <v>-79358015000</v>
+      </c>
+      <c r="O111">
+        <v>-32494900</v>
+      </c>
+      <c r="P111">
+        <v>-367194403000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1673619720000</v>
+      </c>
+      <c r="B112">
+        <v>3125700</v>
+      </c>
+      <c r="C112">
+        <v>4612700</v>
+      </c>
+      <c r="D112">
+        <v>52800</v>
+      </c>
+      <c r="E112">
+        <v>53802850000</v>
+      </c>
+      <c r="F112">
+        <v>83051519000</v>
+      </c>
+      <c r="G112">
+        <v>505648000</v>
+      </c>
+      <c r="H112">
+        <v>7791200</v>
+      </c>
+      <c r="I112">
+        <v>137360017000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-13T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>6749767257000</v>
+      </c>
+      <c r="L112">
+        <v>396702700</v>
+      </c>
+      <c r="M112">
+        <v>1487000</v>
+      </c>
+      <c r="N112">
+        <v>29248669000</v>
+      </c>
+      <c r="O112">
+        <v>-31007900</v>
+      </c>
+      <c r="P112">
+        <v>-337945734000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1673619840000</v>
+      </c>
+      <c r="B113">
+        <v>1791300</v>
+      </c>
+      <c r="C113">
+        <v>6276800</v>
+      </c>
+      <c r="D113">
+        <v>172200</v>
+      </c>
+      <c r="E113">
+        <v>30648376000</v>
+      </c>
+      <c r="F113">
+        <v>106524502000</v>
+      </c>
+      <c r="G113">
+        <v>3170007000</v>
+      </c>
+      <c r="H113">
+        <v>8240300</v>
+      </c>
+      <c r="I113">
+        <v>140342885000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-13T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>6890110142000</v>
+      </c>
+      <c r="L113">
+        <v>404943000</v>
+      </c>
+      <c r="M113">
+        <v>4485500</v>
+      </c>
+      <c r="N113">
+        <v>75876126000</v>
+      </c>
+      <c r="O113">
+        <v>-26522400</v>
+      </c>
+      <c r="P113">
+        <v>-262069608000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1673619960000</v>
+      </c>
+      <c r="B114">
+        <v>2797300</v>
+      </c>
+      <c r="C114">
+        <v>5169100</v>
+      </c>
+      <c r="D114">
+        <v>44900</v>
+      </c>
+      <c r="E114">
+        <v>45159676000</v>
+      </c>
+      <c r="F114">
+        <v>90786893000</v>
+      </c>
+      <c r="G114">
+        <v>695452000</v>
+      </c>
+      <c r="H114">
+        <v>8011300</v>
+      </c>
+      <c r="I114">
+        <v>136642021000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-13T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>7026752163000</v>
+      </c>
+      <c r="L114">
+        <v>412954300</v>
+      </c>
+      <c r="M114">
+        <v>2371800</v>
+      </c>
+      <c r="N114">
+        <v>45627217000</v>
+      </c>
+      <c r="O114">
+        <v>-24150600</v>
+      </c>
+      <c r="P114">
+        <v>-216442391000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1673620080000</v>
+      </c>
+      <c r="B115">
+        <v>4451200</v>
+      </c>
+      <c r="C115">
+        <v>6611400</v>
+      </c>
+      <c r="D115">
+        <v>84800</v>
+      </c>
+      <c r="E115">
+        <v>72612569000</v>
+      </c>
+      <c r="F115">
+        <v>112783441000</v>
+      </c>
+      <c r="G115">
+        <v>1473675000</v>
+      </c>
+      <c r="H115">
+        <v>11147400</v>
+      </c>
+      <c r="I115">
+        <v>186869685000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-13T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>7213621848000</v>
+      </c>
+      <c r="L115">
+        <v>424101700</v>
+      </c>
+      <c r="M115">
+        <v>2160200</v>
+      </c>
+      <c r="N115">
+        <v>40170872000</v>
+      </c>
+      <c r="O115">
+        <v>-21990400</v>
+      </c>
+      <c r="P115">
+        <v>-176271519000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1673620200000</v>
+      </c>
+      <c r="B116">
+        <v>9300</v>
+      </c>
+      <c r="C116">
+        <v>4600</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>185190000</v>
+      </c>
+      <c r="F116">
+        <v>62125000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>13900</v>
+      </c>
+      <c r="I116">
+        <v>247315000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-13T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>7213869163000</v>
+      </c>
+      <c r="L116">
+        <v>424115600</v>
+      </c>
+      <c r="M116">
+        <v>-4700</v>
+      </c>
+      <c r="N116">
+        <v>-123065000</v>
+      </c>
+      <c r="O116">
+        <v>-21995100</v>
+      </c>
+      <c r="P116">
+        <v>-176394584000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1673621040000</v>
+      </c>
+      <c r="B117">
         <v>2848700</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>1942300</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>25151100</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>45361631000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>39191238000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>479378932000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>29942100</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>563931801000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-13T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-13T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>7777800964000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>454057700</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>-906400</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>-6170393000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>-22901500</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>-182564977000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230113/VNINDEX_HOSE_5p_20230113.xlsx
+++ b/name/vnindex/20230113/VNINDEX_HOSE_5p_20230113.xlsx
@@ -466,25 +466,25 @@
         <v>1249200</v>
       </c>
       <c r="E2">
-        <v>30335170000</v>
+        <v>28164343000</v>
       </c>
       <c r="F2">
-        <v>48472904000</v>
+        <v>47172905300</v>
       </c>
       <c r="G2">
-        <v>18256624000</v>
+        <v>17487493900</v>
       </c>
       <c r="H2">
         <v>5953000</v>
       </c>
       <c r="I2">
-        <v>97064698000</v>
+        <v>92824742200</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-13T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>97064698000</v>
+        <v>92824742200</v>
       </c>
       <c r="L2">
         <v>5953000</v>
@@ -493,13 +493,13 @@
         <v>898800</v>
       </c>
       <c r="N2">
-        <v>18137734000</v>
+        <v>19008562300</v>
       </c>
       <c r="O2">
         <v>898800</v>
       </c>
       <c r="P2">
-        <v>18137734000</v>
+        <v>19008562300</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>43500</v>
       </c>
       <c r="E3">
-        <v>18159625000</v>
+        <v>17126858800</v>
       </c>
       <c r="F3">
-        <v>60439324000</v>
+        <v>53406563800</v>
       </c>
       <c r="G3">
-        <v>679626000</v>
+        <v>678726900</v>
       </c>
       <c r="H3">
         <v>4656100</v>
       </c>
       <c r="I3">
-        <v>79278575000</v>
+        <v>71212149500</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-13T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>176343273000</v>
+        <v>164036891700</v>
       </c>
       <c r="L3">
         <v>10609100</v>
@@ -543,13 +543,13 @@
         <v>2316400</v>
       </c>
       <c r="N3">
-        <v>42279699000</v>
+        <v>36279705000</v>
       </c>
       <c r="O3">
         <v>3215200</v>
       </c>
       <c r="P3">
-        <v>60417433000</v>
+        <v>55288267300</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>8100</v>
       </c>
       <c r="E4">
-        <v>24582043000</v>
+        <v>23736089800</v>
       </c>
       <c r="F4">
-        <v>41297429000</v>
+        <v>40452374900</v>
       </c>
       <c r="G4">
         <v>174999000</v>
@@ -578,13 +578,13 @@
         <v>4239700</v>
       </c>
       <c r="I4">
-        <v>66054471000</v>
+        <v>64363463700</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-13T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>242397744000</v>
+        <v>228400355400</v>
       </c>
       <c r="L4">
         <v>14848800</v>
@@ -593,13 +593,13 @@
         <v>843200</v>
       </c>
       <c r="N4">
-        <v>16715386000</v>
+        <v>16716285100</v>
       </c>
       <c r="O4">
         <v>4058400</v>
       </c>
       <c r="P4">
-        <v>77132819000</v>
+        <v>72004552400</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>12400</v>
       </c>
       <c r="E5">
-        <v>32293452000</v>
+        <v>31074372300</v>
       </c>
       <c r="F5">
-        <v>34109048000</v>
+        <v>32636222300</v>
       </c>
       <c r="G5">
-        <v>206176000</v>
+        <v>202379800</v>
       </c>
       <c r="H5">
         <v>3757800</v>
       </c>
       <c r="I5">
-        <v>66608676000</v>
+        <v>63912974400</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-13T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>309006420000</v>
+        <v>292313329800</v>
       </c>
       <c r="L5">
         <v>18606600</v>
@@ -643,13 +643,13 @@
         <v>-113400</v>
       </c>
       <c r="N5">
-        <v>1815596000</v>
+        <v>1561850000</v>
       </c>
       <c r="O5">
         <v>3945000</v>
       </c>
       <c r="P5">
-        <v>78948415000</v>
+        <v>73566402400</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>18600</v>
       </c>
       <c r="E6">
-        <v>41692856000</v>
+        <v>35473881200</v>
       </c>
       <c r="F6">
-        <v>35193697000</v>
+        <v>32836356700</v>
       </c>
       <c r="G6">
         <v>303268000</v>
@@ -678,13 +678,13 @@
         <v>4518800</v>
       </c>
       <c r="I6">
-        <v>77189821000</v>
+        <v>68613505900</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-13T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>386196241000</v>
+        <v>360926835700</v>
       </c>
       <c r="L6">
         <v>23125400</v>
@@ -693,13 +693,13 @@
         <v>-520800</v>
       </c>
       <c r="N6">
-        <v>-6499159000</v>
+        <v>-2637524500</v>
       </c>
       <c r="O6">
         <v>3424200</v>
       </c>
       <c r="P6">
-        <v>72449256000</v>
+        <v>70928877900</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>28200</v>
       </c>
       <c r="E7">
-        <v>41077645000</v>
+        <v>39365159200</v>
       </c>
       <c r="F7">
-        <v>26802058000</v>
+        <v>23080083700</v>
       </c>
       <c r="G7">
         <v>558369000</v>
@@ -728,13 +728,13 @@
         <v>4088000</v>
       </c>
       <c r="I7">
-        <v>68438072000</v>
+        <v>63003611900</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-13T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>454634313000</v>
+        <v>423930447600</v>
       </c>
       <c r="L7">
         <v>27213400</v>
@@ -743,13 +743,13 @@
         <v>-1172800</v>
       </c>
       <c r="N7">
-        <v>-14275587000</v>
+        <v>-16285075500</v>
       </c>
       <c r="O7">
         <v>2251400</v>
       </c>
       <c r="P7">
-        <v>58173669000</v>
+        <v>54643802400</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>16100</v>
       </c>
       <c r="E8">
-        <v>20842746000</v>
+        <v>20447241900</v>
       </c>
       <c r="F8">
-        <v>28597389000</v>
+        <v>25461627900</v>
       </c>
       <c r="G8">
         <v>373522000</v>
@@ -778,13 +778,13 @@
         <v>2732900</v>
       </c>
       <c r="I8">
-        <v>49813657000</v>
+        <v>46282391800</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-13T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>504447970000</v>
+        <v>470212839400</v>
       </c>
       <c r="L8">
         <v>29946300</v>
@@ -793,13 +793,13 @@
         <v>211400</v>
       </c>
       <c r="N8">
-        <v>7754643000</v>
+        <v>5014386000</v>
       </c>
       <c r="O8">
         <v>2462800</v>
       </c>
       <c r="P8">
-        <v>65928312000</v>
+        <v>59658188400</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>11000</v>
       </c>
       <c r="E9">
-        <v>16673662000</v>
+        <v>16044092200</v>
       </c>
       <c r="F9">
-        <v>27197322000</v>
+        <v>21850474200</v>
       </c>
       <c r="G9">
-        <v>170878000</v>
+        <v>90558400</v>
       </c>
       <c r="H9">
         <v>2476900</v>
       </c>
       <c r="I9">
-        <v>44041862000</v>
+        <v>37985124800</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-13T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>548489832000</v>
+        <v>508197964200</v>
       </c>
       <c r="L9">
         <v>32423200</v>
@@ -843,13 +843,13 @@
         <v>436300</v>
       </c>
       <c r="N9">
-        <v>10523660000</v>
+        <v>5806382000</v>
       </c>
       <c r="O9">
         <v>2899100</v>
       </c>
       <c r="P9">
-        <v>76451972000</v>
+        <v>65464570400</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>14400</v>
       </c>
       <c r="E10">
-        <v>23715069000</v>
+        <v>22631253900</v>
       </c>
       <c r="F10">
-        <v>46112845000</v>
+        <v>44112747100</v>
       </c>
       <c r="G10">
         <v>292814000</v>
@@ -878,13 +878,13 @@
         <v>3759500</v>
       </c>
       <c r="I10">
-        <v>70120728000</v>
+        <v>67036815000</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-13T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>618610560000</v>
+        <v>575234779200</v>
       </c>
       <c r="L10">
         <v>36182700</v>
@@ -893,13 +893,13 @@
         <v>1002300</v>
       </c>
       <c r="N10">
-        <v>22397776000</v>
+        <v>21481493200</v>
       </c>
       <c r="O10">
         <v>3901400</v>
       </c>
       <c r="P10">
-        <v>98849748000</v>
+        <v>86946063600</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>6400</v>
       </c>
       <c r="E11">
-        <v>15599782000</v>
+        <v>14753229400</v>
       </c>
       <c r="F11">
-        <v>27241471000</v>
+        <v>25487426800</v>
       </c>
       <c r="G11">
-        <v>200923000</v>
+        <v>63460600</v>
       </c>
       <c r="H11">
         <v>2483400</v>
       </c>
       <c r="I11">
-        <v>43042176000</v>
+        <v>40304116800</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-13T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>661652736000</v>
+        <v>615538896000</v>
       </c>
       <c r="L11">
         <v>38666100</v>
@@ -943,13 +943,13 @@
         <v>472600</v>
       </c>
       <c r="N11">
-        <v>11641689000</v>
+        <v>10734197400</v>
       </c>
       <c r="O11">
         <v>4374000</v>
       </c>
       <c r="P11">
-        <v>110491437000</v>
+        <v>97680261000</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>15500</v>
       </c>
       <c r="E12">
-        <v>19708154000</v>
+        <v>18518544800</v>
       </c>
       <c r="F12">
-        <v>50285552000</v>
+        <v>42336209300</v>
       </c>
       <c r="G12">
         <v>194858000</v>
@@ -978,13 +978,13 @@
         <v>4642300</v>
       </c>
       <c r="I12">
-        <v>70188564000</v>
+        <v>61049612100</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-13T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>731841300000</v>
+        <v>676588508100</v>
       </c>
       <c r="L12">
         <v>43308400</v>
@@ -993,13 +993,13 @@
         <v>2278000</v>
       </c>
       <c r="N12">
-        <v>30577398000</v>
+        <v>23817664500</v>
       </c>
       <c r="O12">
         <v>6652000</v>
       </c>
       <c r="P12">
-        <v>141068835000</v>
+        <v>121497925500</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>18900</v>
       </c>
       <c r="E13">
-        <v>22648035000</v>
+        <v>22352331000</v>
       </c>
       <c r="F13">
-        <v>71357285000</v>
+        <v>69902940800</v>
       </c>
       <c r="G13">
         <v>573678000</v>
@@ -1028,13 +1028,13 @@
         <v>5684000</v>
       </c>
       <c r="I13">
-        <v>94578998000</v>
+        <v>92828949800</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-13T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>826420298000</v>
+        <v>769417457900</v>
       </c>
       <c r="L13">
         <v>48992400</v>
@@ -1043,13 +1043,13 @@
         <v>2863700</v>
       </c>
       <c r="N13">
-        <v>48709250000</v>
+        <v>47550609800</v>
       </c>
       <c r="O13">
         <v>9515700</v>
       </c>
       <c r="P13">
-        <v>189778085000</v>
+        <v>169048535300</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>19100</v>
       </c>
       <c r="E14">
-        <v>27298053000</v>
+        <v>27147703500</v>
       </c>
       <c r="F14">
-        <v>91957965000</v>
+        <v>90208716000</v>
       </c>
       <c r="G14">
         <v>259432000</v>
@@ -1078,13 +1078,13 @@
         <v>7359000</v>
       </c>
       <c r="I14">
-        <v>119515450000</v>
+        <v>117615851500</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-13T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>945935748000</v>
+        <v>887033309400</v>
       </c>
       <c r="L14">
         <v>56351400</v>
@@ -1093,13 +1093,13 @@
         <v>3793900</v>
       </c>
       <c r="N14">
-        <v>64659912000</v>
+        <v>63061012500</v>
       </c>
       <c r="O14">
         <v>13309600</v>
       </c>
       <c r="P14">
-        <v>254437997000</v>
+        <v>232109547800</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>26300</v>
       </c>
       <c r="E15">
-        <v>25091593000</v>
+        <v>24621563500</v>
       </c>
       <c r="F15">
-        <v>78801294000</v>
+        <v>77405790900</v>
       </c>
       <c r="G15">
         <v>209982000</v>
@@ -1128,13 +1128,13 @@
         <v>6527300</v>
       </c>
       <c r="I15">
-        <v>104102869000</v>
+        <v>102237336400</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-13T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1050038617000</v>
+        <v>989270645800</v>
       </c>
       <c r="L15">
         <v>62878700</v>
@@ -1143,13 +1143,13 @@
         <v>2975200</v>
       </c>
       <c r="N15">
-        <v>53709701000</v>
+        <v>52784227400</v>
       </c>
       <c r="O15">
         <v>16284800</v>
       </c>
       <c r="P15">
-        <v>308147698000</v>
+        <v>284893775200</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>2500</v>
       </c>
       <c r="E16">
-        <v>31790479000</v>
+        <v>28403169700</v>
       </c>
       <c r="F16">
-        <v>37650767000</v>
+        <v>35382337700</v>
       </c>
       <c r="G16">
         <v>153996000</v>
@@ -1178,13 +1178,13 @@
         <v>4189000</v>
       </c>
       <c r="I16">
-        <v>69595242000</v>
+        <v>63939503400</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-13T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1119633859000</v>
+        <v>1053210149200</v>
       </c>
       <c r="L16">
         <v>67067700</v>
@@ -1193,13 +1193,13 @@
         <v>440900</v>
       </c>
       <c r="N16">
-        <v>5860288000</v>
+        <v>6979168000</v>
       </c>
       <c r="O16">
         <v>16725700</v>
       </c>
       <c r="P16">
-        <v>314007986000</v>
+        <v>291872943200</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>16400</v>
       </c>
       <c r="E17">
-        <v>28167465000</v>
+        <v>26120613900</v>
       </c>
       <c r="F17">
-        <v>43130078000</v>
+        <v>38594817800</v>
       </c>
       <c r="G17">
         <v>192802000</v>
@@ -1228,13 +1228,13 @@
         <v>4214600</v>
       </c>
       <c r="I17">
-        <v>71490345000</v>
+        <v>64908233700</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-13T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1191124204000</v>
+        <v>1118118382900</v>
       </c>
       <c r="L17">
         <v>71282300</v>
@@ -1243,13 +1243,13 @@
         <v>813800</v>
       </c>
       <c r="N17">
-        <v>14962613000</v>
+        <v>12474203900</v>
       </c>
       <c r="O17">
         <v>17539500</v>
       </c>
       <c r="P17">
-        <v>328970599000</v>
+        <v>304347147100</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>25300</v>
       </c>
       <c r="E18">
-        <v>29824164000</v>
+        <v>28949639400</v>
       </c>
       <c r="F18">
-        <v>37111521000</v>
+        <v>35727306600</v>
       </c>
       <c r="G18">
-        <v>389063000</v>
+        <v>279073100</v>
       </c>
       <c r="H18">
         <v>3960300</v>
       </c>
       <c r="I18">
-        <v>67324748000</v>
+        <v>64956019100</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-13T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1258448952000</v>
+        <v>1183074402000</v>
       </c>
       <c r="L18">
         <v>75242600</v>
@@ -1293,13 +1293,13 @@
         <v>383000</v>
       </c>
       <c r="N18">
-        <v>7287357000</v>
+        <v>6777667200</v>
       </c>
       <c r="O18">
         <v>17922500</v>
       </c>
       <c r="P18">
-        <v>336257956000</v>
+        <v>311124814300</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>10500</v>
       </c>
       <c r="E19">
-        <v>35831907000</v>
+        <v>35086253400</v>
       </c>
       <c r="F19">
-        <v>31338381000</v>
+        <v>28865256600</v>
       </c>
       <c r="G19">
-        <v>276068000</v>
+        <v>195149000</v>
       </c>
       <c r="H19">
         <v>3840400</v>
       </c>
       <c r="I19">
-        <v>67446356000</v>
+        <v>64146659000</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-13T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1325895308000</v>
+        <v>1247221061000</v>
       </c>
       <c r="L19">
         <v>79083000</v>
@@ -1343,13 +1343,13 @@
         <v>-275700</v>
       </c>
       <c r="N19">
-        <v>-4493526000</v>
+        <v>-6220996800</v>
       </c>
       <c r="O19">
         <v>17646800</v>
       </c>
       <c r="P19">
-        <v>331764430000</v>
+        <v>304903817500</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>9200</v>
       </c>
       <c r="E20">
-        <v>23009742000</v>
+        <v>21943809000</v>
       </c>
       <c r="F20">
-        <v>31103826000</v>
+        <v>29006125800</v>
       </c>
       <c r="G20">
         <v>134815000</v>
@@ -1378,13 +1378,13 @@
         <v>3346700</v>
       </c>
       <c r="I20">
-        <v>54248383000</v>
+        <v>51084749800</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-13T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1380143691000</v>
+        <v>1298305810800</v>
       </c>
       <c r="L20">
         <v>82429700</v>
@@ -1393,13 +1393,13 @@
         <v>182500</v>
       </c>
       <c r="N20">
-        <v>8094084000</v>
+        <v>7062316800</v>
       </c>
       <c r="O20">
         <v>17829300</v>
       </c>
       <c r="P20">
-        <v>339858514000</v>
+        <v>311966134300</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>10100</v>
       </c>
       <c r="E21">
-        <v>19020440000</v>
+        <v>18139521800</v>
       </c>
       <c r="F21">
-        <v>26322539000</v>
+        <v>25564098200</v>
       </c>
       <c r="G21">
-        <v>108986000</v>
+        <v>72622400</v>
       </c>
       <c r="H21">
         <v>2812100</v>
       </c>
       <c r="I21">
-        <v>45451965000</v>
+        <v>43776242400</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-13T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1425595656000</v>
+        <v>1342082053200</v>
       </c>
       <c r="L21">
         <v>85241800</v>
@@ -1443,13 +1443,13 @@
         <v>289000</v>
       </c>
       <c r="N21">
-        <v>7302099000</v>
+        <v>7424576400</v>
       </c>
       <c r="O21">
         <v>18118300</v>
       </c>
       <c r="P21">
-        <v>347160613000</v>
+        <v>319390710700</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>10100</v>
       </c>
       <c r="E22">
-        <v>24225975000</v>
+        <v>22113090000</v>
       </c>
       <c r="F22">
-        <v>17961794000</v>
+        <v>16002755000</v>
       </c>
       <c r="G22">
         <v>154435000</v>
@@ -1478,13 +1478,13 @@
         <v>2706200</v>
       </c>
       <c r="I22">
-        <v>42342204000</v>
+        <v>38270280000</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-13T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1467937860000</v>
+        <v>1380352333200</v>
       </c>
       <c r="L22">
         <v>87948000</v>
@@ -1493,13 +1493,13 @@
         <v>-512500</v>
       </c>
       <c r="N22">
-        <v>-6264181000</v>
+        <v>-6110335000</v>
       </c>
       <c r="O22">
         <v>17605800</v>
       </c>
       <c r="P22">
-        <v>340896432000</v>
+        <v>313280375700</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>56000</v>
       </c>
       <c r="E23">
-        <v>31710372000</v>
+        <v>31123459500</v>
       </c>
       <c r="F23">
-        <v>18910588000</v>
+        <v>17925474100</v>
       </c>
       <c r="G23">
         <v>556475000</v>
@@ -1528,13 +1528,13 @@
         <v>3034400</v>
       </c>
       <c r="I23">
-        <v>51177435000</v>
+        <v>49605408600</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-13T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1519115295000</v>
+        <v>1429957741800</v>
       </c>
       <c r="L23">
         <v>90982400</v>
@@ -1543,13 +1543,13 @@
         <v>-698800</v>
       </c>
       <c r="N23">
-        <v>-12799784000</v>
+        <v>-13197985400</v>
       </c>
       <c r="O23">
         <v>16907000</v>
       </c>
       <c r="P23">
-        <v>328096648000</v>
+        <v>300082390300</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>10000</v>
       </c>
       <c r="E24">
-        <v>21704649000</v>
+        <v>20782971600</v>
       </c>
       <c r="F24">
-        <v>21568394000</v>
+        <v>20318345300</v>
       </c>
       <c r="G24">
         <v>214434000</v>
@@ -1578,13 +1578,13 @@
         <v>2688700</v>
       </c>
       <c r="I24">
-        <v>43487477000</v>
+        <v>41315750900</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-13T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1562602772000</v>
+        <v>1471273492700</v>
       </c>
       <c r="L24">
         <v>93671100</v>
@@ -1593,13 +1593,13 @@
         <v>-295500</v>
       </c>
       <c r="N24">
-        <v>-136255000</v>
+        <v>-464626300</v>
       </c>
       <c r="O24">
         <v>16611500</v>
       </c>
       <c r="P24">
-        <v>327960393000</v>
+        <v>299617764000</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>23100</v>
       </c>
       <c r="E25">
-        <v>25467213000</v>
+        <v>23865816000</v>
       </c>
       <c r="F25">
-        <v>23236578000</v>
+        <v>22663751400</v>
       </c>
       <c r="G25">
         <v>269043000</v>
@@ -1628,13 +1628,13 @@
         <v>2901500</v>
       </c>
       <c r="I25">
-        <v>48972834000</v>
+        <v>46798610400</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-13T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1611575606000</v>
+        <v>1518072103100</v>
       </c>
       <c r="L25">
         <v>96572600</v>
@@ -1643,13 +1643,13 @@
         <v>19400</v>
       </c>
       <c r="N25">
-        <v>-2230635000</v>
+        <v>-1202064600</v>
       </c>
       <c r="O25">
         <v>16630900</v>
       </c>
       <c r="P25">
-        <v>325729758000</v>
+        <v>298415699400</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>200</v>
       </c>
       <c r="E26">
-        <v>24903574000</v>
+        <v>22536643300</v>
       </c>
       <c r="F26">
-        <v>21300938000</v>
+        <v>18506435300</v>
       </c>
       <c r="G26">
         <v>1354000</v>
@@ -1678,13 +1678,13 @@
         <v>2842300</v>
       </c>
       <c r="I26">
-        <v>46205866000</v>
+        <v>41044432600</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-13T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1657781472000</v>
+        <v>1559116535700</v>
       </c>
       <c r="L26">
         <v>99414900</v>
@@ -1693,13 +1693,13 @@
         <v>-556900</v>
       </c>
       <c r="N26">
-        <v>-3602636000</v>
+        <v>-4030208000</v>
       </c>
       <c r="O26">
         <v>16074000</v>
       </c>
       <c r="P26">
-        <v>322127122000</v>
+        <v>294385491400</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>21100</v>
       </c>
       <c r="E27">
-        <v>21859191000</v>
+        <v>21078372600</v>
       </c>
       <c r="F27">
-        <v>12328174000</v>
+        <v>10855947700</v>
       </c>
       <c r="G27">
         <v>166608000</v>
@@ -1728,13 +1728,13 @@
         <v>2026900</v>
       </c>
       <c r="I27">
-        <v>34353973000</v>
+        <v>32100928300</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-13T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1692135445000</v>
+        <v>1591217464000</v>
       </c>
       <c r="L27">
         <v>101441800</v>
@@ -1743,13 +1743,13 @@
         <v>-574800</v>
       </c>
       <c r="N27">
-        <v>-9531017000</v>
+        <v>-10222424900</v>
       </c>
       <c r="O27">
         <v>15499200</v>
       </c>
       <c r="P27">
-        <v>312596105000</v>
+        <v>284163066500</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>2300</v>
       </c>
       <c r="E28">
-        <v>29870319000</v>
+        <v>29117272800</v>
       </c>
       <c r="F28">
-        <v>18022631000</v>
+        <v>17481972200</v>
       </c>
       <c r="G28">
         <v>27959000</v>
@@ -1778,13 +1778,13 @@
         <v>2783900</v>
       </c>
       <c r="I28">
-        <v>47920909000</v>
+        <v>46627204000</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-13T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1740056354000</v>
+        <v>1637844668000</v>
       </c>
       <c r="L28">
         <v>104225700</v>
@@ -1793,13 +1793,13 @@
         <v>-871200</v>
       </c>
       <c r="N28">
-        <v>-11847688000</v>
+        <v>-11635300600</v>
       </c>
       <c r="O28">
         <v>14628000</v>
       </c>
       <c r="P28">
-        <v>300748417000</v>
+        <v>272527765900</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>29700</v>
       </c>
       <c r="E29">
-        <v>35971588000</v>
+        <v>33113748700</v>
       </c>
       <c r="F29">
-        <v>18260234000</v>
+        <v>17140954400</v>
       </c>
       <c r="G29">
         <v>186629000</v>
@@ -1828,13 +1828,13 @@
         <v>3128600</v>
       </c>
       <c r="I29">
-        <v>54418451000</v>
+        <v>50441332100</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-13T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1794474805000</v>
+        <v>1688286000100</v>
       </c>
       <c r="L29">
         <v>107354300</v>
@@ -1843,13 +1843,13 @@
         <v>-1029300</v>
       </c>
       <c r="N29">
-        <v>-17711354000</v>
+        <v>-15972794300</v>
       </c>
       <c r="O29">
         <v>13598700</v>
       </c>
       <c r="P29">
-        <v>283037063000</v>
+        <v>256554971600</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>2400</v>
       </c>
       <c r="E30">
-        <v>40955554000</v>
+        <v>39062948500</v>
       </c>
       <c r="F30">
-        <v>18439408000</v>
+        <v>18243104500</v>
       </c>
       <c r="G30">
-        <v>27115000</v>
+        <v>20521600</v>
       </c>
       <c r="H30">
         <v>3365800</v>
       </c>
       <c r="I30">
-        <v>59422077000</v>
+        <v>57326574600</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-13T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1853896882000</v>
+        <v>1745612574700</v>
       </c>
       <c r="L30">
         <v>110720100</v>
@@ -1893,13 +1893,13 @@
         <v>-1367200</v>
       </c>
       <c r="N30">
-        <v>-22516146000</v>
+        <v>-20819844000</v>
       </c>
       <c r="O30">
         <v>12231500</v>
       </c>
       <c r="P30">
-        <v>260520917000</v>
+        <v>235735127600</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>41600</v>
       </c>
       <c r="E31">
-        <v>36285603000</v>
+        <v>33907883100</v>
       </c>
       <c r="F31">
-        <v>18657760000</v>
+        <v>17387731300</v>
       </c>
       <c r="G31">
         <v>559230000</v>
@@ -1928,13 +1928,13 @@
         <v>3266500</v>
       </c>
       <c r="I31">
-        <v>55502593000</v>
+        <v>51854844400</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-13T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1909399475000</v>
+        <v>1797467419100</v>
       </c>
       <c r="L31">
         <v>113986600</v>
@@ -1943,13 +1943,13 @@
         <v>-1093100</v>
       </c>
       <c r="N31">
-        <v>-17627843000</v>
+        <v>-16520151800</v>
       </c>
       <c r="O31">
         <v>11138400</v>
       </c>
       <c r="P31">
-        <v>242893074000</v>
+        <v>219214975800</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>4200</v>
       </c>
       <c r="E32">
-        <v>26955938000</v>
+        <v>26363331200</v>
       </c>
       <c r="F32">
-        <v>16274969000</v>
+        <v>15455389400</v>
       </c>
       <c r="G32">
         <v>163747000</v>
@@ -1978,13 +1978,13 @@
         <v>2602200</v>
       </c>
       <c r="I32">
-        <v>43394654000</v>
+        <v>41982467600</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-13T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1952794129000</v>
+        <v>1839449886700</v>
       </c>
       <c r="L32">
         <v>116588800</v>
@@ -1993,13 +1993,13 @@
         <v>-814600</v>
       </c>
       <c r="N32">
-        <v>-10680969000</v>
+        <v>-10907941800</v>
       </c>
       <c r="O32">
         <v>10323800</v>
       </c>
       <c r="P32">
-        <v>232212105000</v>
+        <v>208307034000</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>1800</v>
       </c>
       <c r="E33">
-        <v>18998874000</v>
+        <v>18656516700</v>
       </c>
       <c r="F33">
-        <v>12668810000</v>
+        <v>11549830100</v>
       </c>
       <c r="G33">
         <v>24584000</v>
@@ -2028,13 +2028,13 @@
         <v>1823500</v>
       </c>
       <c r="I33">
-        <v>31692268000</v>
+        <v>30230930800</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-13T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1984486397000</v>
+        <v>1869680817500</v>
       </c>
       <c r="L33">
         <v>118412300</v>
@@ -2043,13 +2043,13 @@
         <v>-442500</v>
       </c>
       <c r="N33">
-        <v>-6330064000</v>
+        <v>-7106686600</v>
       </c>
       <c r="O33">
         <v>9881300</v>
       </c>
       <c r="P33">
-        <v>225882041000</v>
+        <v>201200347400</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>28600</v>
       </c>
       <c r="E34">
-        <v>16020511000</v>
+        <v>15661969900</v>
       </c>
       <c r="F34">
-        <v>20189327000</v>
+        <v>19360456700</v>
       </c>
       <c r="G34">
         <v>446730000</v>
@@ -2078,13 +2078,13 @@
         <v>2084400</v>
       </c>
       <c r="I34">
-        <v>36656568000</v>
+        <v>35469156600</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-13T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2021142965000</v>
+        <v>1905149974100</v>
       </c>
       <c r="L34">
         <v>120496700</v>
@@ -2093,13 +2093,13 @@
         <v>58200</v>
       </c>
       <c r="N34">
-        <v>4168816000</v>
+        <v>3698486800</v>
       </c>
       <c r="O34">
         <v>9939500</v>
       </c>
       <c r="P34">
-        <v>230050857000</v>
+        <v>204898834200</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>900</v>
       </c>
       <c r="E35">
-        <v>12962046000</v>
+        <v>11891917200</v>
       </c>
       <c r="F35">
-        <v>47412628000</v>
+        <v>42586658800</v>
       </c>
       <c r="G35">
-        <v>20687000</v>
+        <v>15092600</v>
       </c>
       <c r="H35">
         <v>3329900</v>
       </c>
       <c r="I35">
-        <v>60395361000</v>
+        <v>54493668600</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-13T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2081538326000</v>
+        <v>1959643642700</v>
       </c>
       <c r="L35">
         <v>123826600</v>
@@ -2143,13 +2143,13 @@
         <v>1765600</v>
       </c>
       <c r="N35">
-        <v>34450582000</v>
+        <v>30694741600</v>
       </c>
       <c r="O35">
         <v>11705100</v>
       </c>
       <c r="P35">
-        <v>264501439000</v>
+        <v>235593575800</v>
       </c>
     </row>
     <row r="36">
@@ -2166,25 +2166,25 @@
         <v>22400</v>
       </c>
       <c r="E36">
-        <v>13555061000</v>
+        <v>12570246800</v>
       </c>
       <c r="F36">
-        <v>76290281000</v>
+        <v>68874004700</v>
       </c>
       <c r="G36">
-        <v>297155000</v>
+        <v>268583600</v>
       </c>
       <c r="H36">
         <v>5845200</v>
       </c>
       <c r="I36">
-        <v>90142497000</v>
+        <v>81712835100</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-13T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2171680823000</v>
+        <v>2041356477800</v>
       </c>
       <c r="L36">
         <v>129671800</v>
@@ -2193,13 +2193,13 @@
         <v>4169600</v>
       </c>
       <c r="N36">
-        <v>62735220000</v>
+        <v>56303757900</v>
       </c>
       <c r="O36">
         <v>15874700</v>
       </c>
       <c r="P36">
-        <v>327236659000</v>
+        <v>291897333700</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>21400</v>
       </c>
       <c r="E37">
-        <v>17191206000</v>
+        <v>16203894300</v>
       </c>
       <c r="F37">
-        <v>49853372000</v>
+        <v>47935391900</v>
       </c>
       <c r="G37">
         <v>292690000</v>
@@ -2228,13 +2228,13 @@
         <v>4283300</v>
       </c>
       <c r="I37">
-        <v>67337268000</v>
+        <v>64431976200</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-13T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2239018091000</v>
+        <v>2105788454000</v>
       </c>
       <c r="L37">
         <v>133955100</v>
@@ -2243,13 +2243,13 @@
         <v>2200100</v>
       </c>
       <c r="N37">
-        <v>32662166000</v>
+        <v>31731497600</v>
       </c>
       <c r="O37">
         <v>18074800</v>
       </c>
       <c r="P37">
-        <v>359898825000</v>
+        <v>323628831300</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>29800</v>
       </c>
       <c r="E38">
-        <v>14198055000</v>
+        <v>13579174500</v>
       </c>
       <c r="F38">
-        <v>54166722000</v>
+        <v>45032765100</v>
       </c>
       <c r="G38">
         <v>466246000</v>
@@ -2278,13 +2278,13 @@
         <v>4137700</v>
       </c>
       <c r="I38">
-        <v>68831023000</v>
+        <v>59078185600</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-13T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2307849114000</v>
+        <v>2164866639600</v>
       </c>
       <c r="L38">
         <v>138092800</v>
@@ -2293,13 +2293,13 @@
         <v>2364700</v>
       </c>
       <c r="N38">
-        <v>39968667000</v>
+        <v>31453590600</v>
       </c>
       <c r="O38">
         <v>20439500</v>
       </c>
       <c r="P38">
-        <v>399867492000</v>
+        <v>355082421900</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>2400</v>
       </c>
       <c r="E39">
-        <v>15128571000</v>
+        <v>14707392600</v>
       </c>
       <c r="F39">
-        <v>51762265000</v>
+        <v>50091437500</v>
       </c>
       <c r="G39">
         <v>50780000</v>
@@ -2328,13 +2328,13 @@
         <v>4278100</v>
       </c>
       <c r="I39">
-        <v>66941616000</v>
+        <v>64849610100</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-13T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2374790730000</v>
+        <v>2229716249700</v>
       </c>
       <c r="L39">
         <v>142370900</v>
@@ -2343,13 +2343,13 @@
         <v>2324900</v>
       </c>
       <c r="N39">
-        <v>36633694000</v>
+        <v>35384044900</v>
       </c>
       <c r="O39">
         <v>22764400</v>
       </c>
       <c r="P39">
-        <v>436501186000</v>
+        <v>390466466800</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>10200</v>
       </c>
       <c r="E40">
-        <v>13931306000</v>
+        <v>13769567900</v>
       </c>
       <c r="F40">
-        <v>30426436000</v>
+        <v>28100464300</v>
       </c>
       <c r="G40">
         <v>67995000</v>
@@ -2378,13 +2378,13 @@
         <v>3087600</v>
       </c>
       <c r="I40">
-        <v>44425737000</v>
+        <v>41938027200</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-13T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2419216467000</v>
+        <v>2271654276900</v>
       </c>
       <c r="L40">
         <v>145458500</v>
@@ -2393,13 +2393,13 @@
         <v>1522600</v>
       </c>
       <c r="N40">
-        <v>16495130000</v>
+        <v>14330896400</v>
       </c>
       <c r="O40">
         <v>24287000</v>
       </c>
       <c r="P40">
-        <v>452996316000</v>
+        <v>404797363200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>7900</v>
       </c>
       <c r="E41">
-        <v>16681971000</v>
+        <v>16657495500</v>
       </c>
       <c r="F41">
-        <v>33126986000</v>
+        <v>27507810800</v>
       </c>
       <c r="G41">
         <v>160776000</v>
@@ -2428,13 +2428,13 @@
         <v>3089300</v>
       </c>
       <c r="I41">
-        <v>49969733000</v>
+        <v>44326082300</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-13T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2469186200000</v>
+        <v>2315980359200</v>
       </c>
       <c r="L41">
         <v>148547800</v>
@@ -2443,13 +2443,13 @@
         <v>1137600</v>
       </c>
       <c r="N41">
-        <v>16445015000</v>
+        <v>10850315300</v>
       </c>
       <c r="O41">
         <v>25424600</v>
       </c>
       <c r="P41">
-        <v>469441331000</v>
+        <v>415647678500</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>6200</v>
       </c>
       <c r="E42">
-        <v>23233109000</v>
+        <v>21243500600</v>
       </c>
       <c r="F42">
-        <v>18869945000</v>
+        <v>17300915600</v>
       </c>
       <c r="G42">
         <v>183795000</v>
@@ -2478,13 +2478,13 @@
         <v>2531700</v>
       </c>
       <c r="I42">
-        <v>42286849000</v>
+        <v>38728211200</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-13T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2511473049000</v>
+        <v>2354708570400</v>
       </c>
       <c r="L42">
         <v>151079500</v>
@@ -2493,13 +2493,13 @@
         <v>-429500</v>
       </c>
       <c r="N42">
-        <v>-4363164000</v>
+        <v>-3942585000</v>
       </c>
       <c r="O42">
         <v>24995100</v>
       </c>
       <c r="P42">
-        <v>465078167000</v>
+        <v>411705093500</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>24400</v>
       </c>
       <c r="E43">
-        <v>20872186000</v>
+        <v>19605254200</v>
       </c>
       <c r="F43">
-        <v>30706475000</v>
+        <v>23796092300</v>
       </c>
       <c r="G43">
         <v>269890000</v>
@@ -2528,13 +2528,13 @@
         <v>2569400</v>
       </c>
       <c r="I43">
-        <v>51848551000</v>
+        <v>43671236500</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-13T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2563321600000</v>
+        <v>2398379806900</v>
       </c>
       <c r="L43">
         <v>153648900</v>
@@ -2543,13 +2543,13 @@
         <v>156600</v>
       </c>
       <c r="N43">
-        <v>9834289000</v>
+        <v>4190838100</v>
       </c>
       <c r="O43">
         <v>25151700</v>
       </c>
       <c r="P43">
-        <v>474912456000</v>
+        <v>415895931600</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>10500</v>
       </c>
       <c r="E44">
-        <v>23380905000</v>
+        <v>20354434500</v>
       </c>
       <c r="F44">
-        <v>23273335000</v>
+        <v>23007501100</v>
       </c>
       <c r="G44">
         <v>264538000</v>
@@ -2578,13 +2578,13 @@
         <v>2740600</v>
       </c>
       <c r="I44">
-        <v>46918778000</v>
+        <v>43626473600</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-13T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2610240378000</v>
+        <v>2442006280500</v>
       </c>
       <c r="L44">
         <v>156389500</v>
@@ -2593,13 +2593,13 @@
         <v>113700</v>
       </c>
       <c r="N44">
-        <v>-107570000</v>
+        <v>2653066600</v>
       </c>
       <c r="O44">
         <v>25265400</v>
       </c>
       <c r="P44">
-        <v>474804886000</v>
+        <v>418548998200</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>18800</v>
       </c>
       <c r="E45">
-        <v>23381306000</v>
+        <v>22865022800</v>
       </c>
       <c r="F45">
-        <v>13279269000</v>
+        <v>11849899800</v>
       </c>
       <c r="G45">
-        <v>203859000</v>
+        <v>184977900</v>
       </c>
       <c r="H45">
         <v>2185600</v>
       </c>
       <c r="I45">
-        <v>36864434000</v>
+        <v>34899900500</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-13T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2647104812000</v>
+        <v>2476906181000</v>
       </c>
       <c r="L45">
         <v>158575100</v>
@@ -2643,13 +2643,13 @@
         <v>-668000</v>
       </c>
       <c r="N45">
-        <v>-10102037000</v>
+        <v>-11015123000</v>
       </c>
       <c r="O45">
         <v>24597400</v>
       </c>
       <c r="P45">
-        <v>464702849000</v>
+        <v>407533875200</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>2000</v>
       </c>
       <c r="E46">
-        <v>28287769000</v>
+        <v>23327734000</v>
       </c>
       <c r="F46">
-        <v>15886114000</v>
+        <v>14779122100</v>
       </c>
       <c r="G46">
         <v>67533000</v>
@@ -2678,13 +2678,13 @@
         <v>2653400</v>
       </c>
       <c r="I46">
-        <v>44241416000</v>
+        <v>38174389100</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-13T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2691346228000</v>
+        <v>2515080570100</v>
       </c>
       <c r="L46">
         <v>161228500</v>
@@ -2693,13 +2693,13 @@
         <v>-949600</v>
       </c>
       <c r="N46">
-        <v>-12401655000</v>
+        <v>-8548611900</v>
       </c>
       <c r="O46">
         <v>23647800</v>
       </c>
       <c r="P46">
-        <v>452301194000</v>
+        <v>398985263300</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>1900</v>
       </c>
       <c r="E47">
-        <v>20824030000</v>
+        <v>18837318700</v>
       </c>
       <c r="F47">
-        <v>12790220000</v>
+        <v>11963547500</v>
       </c>
       <c r="G47">
         <v>6441000</v>
@@ -2728,13 +2728,13 @@
         <v>1876400</v>
       </c>
       <c r="I47">
-        <v>33620691000</v>
+        <v>30807307200</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-13T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2724966919000</v>
+        <v>2545887877300</v>
       </c>
       <c r="L47">
         <v>163104900</v>
@@ -2743,13 +2743,13 @@
         <v>-366500</v>
       </c>
       <c r="N47">
-        <v>-8033810000</v>
+        <v>-6873771200</v>
       </c>
       <c r="O47">
         <v>23281300</v>
       </c>
       <c r="P47">
-        <v>444267384000</v>
+        <v>392111492100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>27760298000</v>
+        <v>25812347900</v>
       </c>
       <c r="F48">
-        <v>11807064000</v>
+        <v>11619052200</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2778,13 +2778,13 @@
         <v>2452800</v>
       </c>
       <c r="I48">
-        <v>39567362000</v>
+        <v>37431400100</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-13T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2764534281000</v>
+        <v>2583319277400</v>
       </c>
       <c r="L48">
         <v>165557700</v>
@@ -2793,13 +2793,13 @@
         <v>-1056400</v>
       </c>
       <c r="N48">
-        <v>-15953234000</v>
+        <v>-14193295700</v>
       </c>
       <c r="O48">
         <v>22224900</v>
       </c>
       <c r="P48">
-        <v>428314150000</v>
+        <v>377918196400</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>14600</v>
       </c>
       <c r="E49">
-        <v>32619720000</v>
+        <v>29020023300</v>
       </c>
       <c r="F49">
-        <v>16481667000</v>
+        <v>16408540200</v>
       </c>
       <c r="G49">
         <v>161981000</v>
@@ -2828,13 +2828,13 @@
         <v>2619900</v>
       </c>
       <c r="I49">
-        <v>49263368000</v>
+        <v>45590544500</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-13T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2813797649000</v>
+        <v>2628909821900</v>
       </c>
       <c r="L49">
         <v>168177600</v>
@@ -2843,13 +2843,13 @@
         <v>-888100</v>
       </c>
       <c r="N49">
-        <v>-16138053000</v>
+        <v>-12611483100</v>
       </c>
       <c r="O49">
         <v>21336800</v>
       </c>
       <c r="P49">
-        <v>412176097000</v>
+        <v>365306713300</v>
       </c>
     </row>
     <row r="50">
@@ -2866,25 +2866,25 @@
         <v>11100</v>
       </c>
       <c r="E50">
-        <v>26793679000</v>
+        <v>24355519600</v>
       </c>
       <c r="F50">
-        <v>22940212000</v>
+        <v>22532420200</v>
       </c>
       <c r="G50">
-        <v>317565000</v>
+        <v>254727900</v>
       </c>
       <c r="H50">
         <v>2664700</v>
       </c>
       <c r="I50">
-        <v>50051456000</v>
+        <v>47142667700</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-13T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2863849105000</v>
+        <v>2676052489600</v>
       </c>
       <c r="L50">
         <v>170842300</v>
@@ -2893,13 +2893,13 @@
         <v>-180400</v>
       </c>
       <c r="N50">
-        <v>-3853467000</v>
+        <v>-1823099400</v>
       </c>
       <c r="O50">
         <v>21156400</v>
       </c>
       <c r="P50">
-        <v>408322630000</v>
+        <v>363483613900</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>107300</v>
       </c>
       <c r="E51">
-        <v>24082240000</v>
+        <v>23369053900</v>
       </c>
       <c r="F51">
-        <v>14577751000</v>
+        <v>14407421500</v>
       </c>
       <c r="G51">
         <v>1021040000</v>
@@ -2928,13 +2928,13 @@
         <v>2143900</v>
       </c>
       <c r="I51">
-        <v>39681031000</v>
+        <v>38797515400</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-13T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2903530136000</v>
+        <v>2714850005000</v>
       </c>
       <c r="L51">
         <v>172986200</v>
@@ -2943,13 +2943,13 @@
         <v>-512400</v>
       </c>
       <c r="N51">
-        <v>-9504489000</v>
+        <v>-8961632400</v>
       </c>
       <c r="O51">
         <v>20644000</v>
       </c>
       <c r="P51">
-        <v>398818141000</v>
+        <v>354521981500</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>1400</v>
       </c>
       <c r="E52">
-        <v>19928048000</v>
+        <v>19177099700</v>
       </c>
       <c r="F52">
-        <v>14691072000</v>
+        <v>13039025700</v>
       </c>
       <c r="G52">
         <v>39275000</v>
@@ -2978,13 +2978,13 @@
         <v>1757600</v>
       </c>
       <c r="I52">
-        <v>34658395000</v>
+        <v>32255400400</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-13T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2938188531000</v>
+        <v>2747105405400</v>
       </c>
       <c r="L52">
         <v>174743800</v>
@@ -2993,13 +2993,13 @@
         <v>-297000</v>
       </c>
       <c r="N52">
-        <v>-5236976000</v>
+        <v>-6138074000</v>
       </c>
       <c r="O52">
         <v>20347000</v>
       </c>
       <c r="P52">
-        <v>393581165000</v>
+        <v>348383907500</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>1500</v>
       </c>
       <c r="E53">
-        <v>15903059000</v>
+        <v>15484378100</v>
       </c>
       <c r="F53">
-        <v>13461277000</v>
+        <v>12882356500</v>
       </c>
       <c r="G53">
         <v>7775000</v>
@@ -3028,13 +3028,13 @@
         <v>1718500</v>
       </c>
       <c r="I53">
-        <v>29372111000</v>
+        <v>28374509600</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-13T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2967560642000</v>
+        <v>2775479915000</v>
       </c>
       <c r="L53">
         <v>176462300</v>
@@ -3043,13 +3043,13 @@
         <v>-233600</v>
       </c>
       <c r="N53">
-        <v>-2441782000</v>
+        <v>-2602021600</v>
       </c>
       <c r="O53">
         <v>20113400</v>
       </c>
       <c r="P53">
-        <v>391139383000</v>
+        <v>345781885900</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>1600</v>
       </c>
       <c r="E54">
-        <v>16693838000</v>
+        <v>15535197800</v>
       </c>
       <c r="F54">
-        <v>13742978000</v>
+        <v>13567353800</v>
       </c>
       <c r="G54">
         <v>44316000</v>
@@ -3078,13 +3078,13 @@
         <v>1607600</v>
       </c>
       <c r="I54">
-        <v>30481132000</v>
+        <v>29146867600</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-13T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2998041774000</v>
+        <v>2804626782600</v>
       </c>
       <c r="L54">
         <v>178069900</v>
@@ -3093,13 +3093,13 @@
         <v>-365600</v>
       </c>
       <c r="N54">
-        <v>-2950860000</v>
+        <v>-1967844000</v>
       </c>
       <c r="O54">
         <v>19747800</v>
       </c>
       <c r="P54">
-        <v>388188523000</v>
+        <v>343814041900</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>100</v>
       </c>
       <c r="E55">
-        <v>22203013000</v>
+        <v>19569748900</v>
       </c>
       <c r="F55">
-        <v>11138502000</v>
+        <v>10164676800</v>
       </c>
       <c r="G55">
         <v>741000</v>
@@ -3128,13 +3128,13 @@
         <v>1759400</v>
       </c>
       <c r="I55">
-        <v>33342256000</v>
+        <v>29735166700</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-13T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>3031384030000</v>
+        <v>2834361949300</v>
       </c>
       <c r="L55">
         <v>179829300</v>
@@ -3143,13 +3143,13 @@
         <v>-720700</v>
       </c>
       <c r="N55">
-        <v>-11064511000</v>
+        <v>-9405072100</v>
       </c>
       <c r="O55">
         <v>19027100</v>
       </c>
       <c r="P55">
-        <v>377124012000</v>
+        <v>334408969800</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>67500</v>
       </c>
       <c r="E56">
-        <v>25721720000</v>
+        <v>24743299400</v>
       </c>
       <c r="F56">
-        <v>13488311000</v>
+        <v>12329271200</v>
       </c>
       <c r="G56">
         <v>746503000</v>
@@ -3178,13 +3178,13 @@
         <v>2108400</v>
       </c>
       <c r="I56">
-        <v>39956534000</v>
+        <v>37819073600</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-13T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>3071340564000</v>
+        <v>2872181022900</v>
       </c>
       <c r="L56">
         <v>181937700</v>
@@ -3193,13 +3193,13 @@
         <v>-636100</v>
       </c>
       <c r="N56">
-        <v>-12233409000</v>
+        <v>-12414028200</v>
       </c>
       <c r="O56">
         <v>18391000</v>
       </c>
       <c r="P56">
-        <v>364890603000</v>
+        <v>321994941600</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>3300</v>
       </c>
       <c r="E57">
-        <v>14928857000</v>
+        <v>14009976800</v>
       </c>
       <c r="F57">
-        <v>11640850000</v>
+        <v>10935256300</v>
       </c>
       <c r="G57">
         <v>23518000</v>
@@ -3228,13 +3228,13 @@
         <v>1466500</v>
       </c>
       <c r="I57">
-        <v>26593225000</v>
+        <v>24968751100</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-13T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>3097933789000</v>
+        <v>2897149774000</v>
       </c>
       <c r="L57">
         <v>183404200</v>
@@ -3243,13 +3243,13 @@
         <v>-218000</v>
       </c>
       <c r="N57">
-        <v>-3288007000</v>
+        <v>-3074720500</v>
       </c>
       <c r="O57">
         <v>18173000</v>
       </c>
       <c r="P57">
-        <v>361602596000</v>
+        <v>318920221100</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>800</v>
       </c>
       <c r="E58">
-        <v>13865133000</v>
+        <v>12997801200</v>
       </c>
       <c r="F58">
-        <v>9863046000</v>
+        <v>9096113700</v>
       </c>
       <c r="G58">
-        <v>12250000</v>
+        <v>4258000</v>
       </c>
       <c r="H58">
         <v>1405800</v>
       </c>
       <c r="I58">
-        <v>23740429000</v>
+        <v>22098172900</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-13T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>3121674218000</v>
+        <v>2919247946900</v>
       </c>
       <c r="L58">
         <v>184810000</v>
@@ -3293,13 +3293,13 @@
         <v>-253000</v>
       </c>
       <c r="N58">
-        <v>-4002087000</v>
+        <v>-3901687500</v>
       </c>
       <c r="O58">
         <v>17920000</v>
       </c>
       <c r="P58">
-        <v>357600509000</v>
+        <v>315018533600</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>16698978000</v>
+        <v>16202974500</v>
       </c>
       <c r="F59">
-        <v>14998810000</v>
+        <v>14011498300</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>1957300</v>
       </c>
       <c r="I59">
-        <v>31697788000</v>
+        <v>30214472800</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-13T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>3153372006000</v>
+        <v>2949462419700</v>
       </c>
       <c r="L59">
         <v>186767300</v>
@@ -3343,13 +3343,13 @@
         <v>-410700</v>
       </c>
       <c r="N59">
-        <v>-1700168000</v>
+        <v>-2191476200</v>
       </c>
       <c r="O59">
         <v>17509300</v>
       </c>
       <c r="P59">
-        <v>355900341000</v>
+        <v>312827057400</v>
       </c>
     </row>
     <row r="60">
@@ -3366,25 +3366,25 @@
         <v>6600</v>
       </c>
       <c r="E60">
-        <v>13640797000</v>
+        <v>13142495800</v>
       </c>
       <c r="F60">
-        <v>14014693000</v>
+        <v>13436571700</v>
       </c>
       <c r="G60">
-        <v>221935000</v>
+        <v>38718400</v>
       </c>
       <c r="H60">
         <v>1630300</v>
       </c>
       <c r="I60">
-        <v>27877425000</v>
+        <v>26617785900</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-13T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>3181249431000</v>
+        <v>2976080205600</v>
       </c>
       <c r="L60">
         <v>188397600</v>
@@ -3393,13 +3393,13 @@
         <v>63500</v>
       </c>
       <c r="N60">
-        <v>373896000</v>
+        <v>294075900</v>
       </c>
       <c r="O60">
         <v>17572800</v>
       </c>
       <c r="P60">
-        <v>356274237000</v>
+        <v>313121133300</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>1600</v>
       </c>
       <c r="E61">
-        <v>14064202000</v>
+        <v>13694072500</v>
       </c>
       <c r="F61">
-        <v>12935812000</v>
+        <v>11950498300</v>
       </c>
       <c r="G61">
         <v>56370000</v>
@@ -3428,13 +3428,13 @@
         <v>1497600</v>
       </c>
       <c r="I61">
-        <v>27056384000</v>
+        <v>25700940800</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-13T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>3208305815000</v>
+        <v>3001781146400</v>
       </c>
       <c r="L61">
         <v>189895200</v>
@@ -3443,13 +3443,13 @@
         <v>-243000</v>
       </c>
       <c r="N61">
-        <v>-1128390000</v>
+        <v>-1743574200</v>
       </c>
       <c r="O61">
         <v>17329800</v>
       </c>
       <c r="P61">
-        <v>355145847000</v>
+        <v>311377559100</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>4800</v>
       </c>
       <c r="E62">
-        <v>14905559000</v>
+        <v>14730933800</v>
       </c>
       <c r="F62">
-        <v>13867277000</v>
+        <v>13010334800</v>
       </c>
       <c r="G62">
         <v>153840000.00000003</v>
@@ -3478,13 +3478,13 @@
         <v>1853500</v>
       </c>
       <c r="I62">
-        <v>28926676000</v>
+        <v>27895108600</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-13T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>3237232491000</v>
+        <v>3029676255000</v>
       </c>
       <c r="L62">
         <v>191748700</v>
@@ -3493,13 +3493,13 @@
         <v>-128100</v>
       </c>
       <c r="N62">
-        <v>-1038282000</v>
+        <v>-1720599000</v>
       </c>
       <c r="O62">
         <v>17201700</v>
       </c>
       <c r="P62">
-        <v>354107565000</v>
+        <v>309656960100</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>15993400000</v>
+        <v>15827965600</v>
       </c>
       <c r="F63">
-        <v>15221038000</v>
+        <v>14566193500</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>1658100</v>
       </c>
       <c r="I63">
-        <v>31214438000</v>
+        <v>30394159100</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-13T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>3268446929000</v>
+        <v>3060070414100</v>
       </c>
       <c r="L63">
         <v>193406800</v>
@@ -3543,13 +3543,13 @@
         <v>-155500</v>
       </c>
       <c r="N63">
-        <v>-772362000</v>
+        <v>-1261772100</v>
       </c>
       <c r="O63">
         <v>17046200</v>
       </c>
       <c r="P63">
-        <v>353335203000</v>
+        <v>308395188000</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>66900</v>
       </c>
       <c r="E64">
-        <v>12054165000</v>
+        <v>11040579600</v>
       </c>
       <c r="F64">
-        <v>12543429000</v>
+        <v>10127247600</v>
       </c>
       <c r="G64">
         <v>808896000</v>
@@ -3578,13 +3578,13 @@
         <v>1368000</v>
       </c>
       <c r="I64">
-        <v>25406490000</v>
+        <v>21976723200</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-13T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>3293853419000</v>
+        <v>3082047137300</v>
       </c>
       <c r="L64">
         <v>194774800</v>
@@ -3593,13 +3593,13 @@
         <v>-160500</v>
       </c>
       <c r="N64">
-        <v>489264000</v>
+        <v>-913332000</v>
       </c>
       <c r="O64">
         <v>16885700</v>
       </c>
       <c r="P64">
-        <v>353824467000</v>
+        <v>307481856000</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>6600</v>
       </c>
       <c r="E65">
-        <v>13623935000</v>
+        <v>13269889400</v>
       </c>
       <c r="F65">
-        <v>19485833000</v>
+        <v>16821400100</v>
       </c>
       <c r="G65">
         <v>137145000</v>
@@ -3628,13 +3628,13 @@
         <v>1908100</v>
       </c>
       <c r="I65">
-        <v>33246913000</v>
+        <v>30228434500</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-13T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>3327100332000</v>
+        <v>3112275571800</v>
       </c>
       <c r="L65">
         <v>196682900</v>
@@ -3643,13 +3643,13 @@
         <v>-19500</v>
       </c>
       <c r="N65">
-        <v>5861898000</v>
+        <v>3551510700</v>
       </c>
       <c r="O65">
         <v>16866200</v>
       </c>
       <c r="P65">
-        <v>359686365000</v>
+        <v>311033366700</v>
       </c>
     </row>
     <row r="66">
@@ -3666,25 +3666,25 @@
         <v>68200</v>
       </c>
       <c r="E66">
-        <v>11528365000</v>
+        <v>11139154600</v>
       </c>
       <c r="F66">
-        <v>16663252000</v>
+        <v>15608407900</v>
       </c>
       <c r="G66">
-        <v>1028384000</v>
+        <v>848564000</v>
       </c>
       <c r="H66">
         <v>1671100</v>
       </c>
       <c r="I66">
-        <v>29220001000</v>
+        <v>27596126500</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-13T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>3356320333000</v>
+        <v>3139871698300</v>
       </c>
       <c r="L66">
         <v>198354000</v>
@@ -3693,13 +3693,13 @@
         <v>173100</v>
       </c>
       <c r="N66">
-        <v>5134887000</v>
+        <v>4469253300</v>
       </c>
       <c r="O66">
         <v>17039300</v>
       </c>
       <c r="P66">
-        <v>364821252000</v>
+        <v>315502620000</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>8400</v>
       </c>
       <c r="E67">
-        <v>10931745000</v>
+        <v>10716060900</v>
       </c>
       <c r="F67">
-        <v>18537708000</v>
+        <v>18120126000</v>
       </c>
       <c r="G67">
         <v>189565000</v>
@@ -3728,13 +3728,13 @@
         <v>1682900</v>
       </c>
       <c r="I67">
-        <v>29659018000</v>
+        <v>29025751900</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-13T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>3385979351000</v>
+        <v>3168897450200</v>
       </c>
       <c r="L67">
         <v>200036900</v>
@@ -3743,13 +3743,13 @@
         <v>234100</v>
       </c>
       <c r="N67">
-        <v>7605963000</v>
+        <v>7404065100</v>
       </c>
       <c r="O67">
         <v>17273400</v>
       </c>
       <c r="P67">
-        <v>372427215000</v>
+        <v>322906685100</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>4500</v>
       </c>
       <c r="E68">
-        <v>17794080000</v>
+        <v>16268507100</v>
       </c>
       <c r="F68">
-        <v>17457586000</v>
+        <v>16687456900</v>
       </c>
       <c r="G68">
         <v>48783000</v>
@@ -3778,13 +3778,13 @@
         <v>1895900</v>
       </c>
       <c r="I68">
-        <v>35300449000</v>
+        <v>33004747000</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-13T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3421279800000</v>
+        <v>3201902197200</v>
       </c>
       <c r="L68">
         <v>201932800</v>
@@ -3793,13 +3793,13 @@
         <v>198400</v>
       </c>
       <c r="N68">
-        <v>-336494000</v>
+        <v>418949800</v>
       </c>
       <c r="O68">
         <v>17471800</v>
       </c>
       <c r="P68">
-        <v>372090721000</v>
+        <v>323325634900</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>100</v>
       </c>
       <c r="E69">
-        <v>15402545000</v>
+        <v>14952895100</v>
       </c>
       <c r="F69">
-        <v>10375328000</v>
+        <v>9933570200</v>
       </c>
       <c r="G69">
         <v>4035000</v>
@@ -3828,13 +3828,13 @@
         <v>1497400</v>
       </c>
       <c r="I69">
-        <v>25781908000</v>
+        <v>24890500300</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-13T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3447061708000</v>
+        <v>3226792697500</v>
       </c>
       <c r="L69">
         <v>203430200</v>
@@ -3843,13 +3843,13 @@
         <v>-290700</v>
       </c>
       <c r="N69">
-        <v>-5027217000</v>
+        <v>-5019324900</v>
       </c>
       <c r="O69">
         <v>17181100</v>
       </c>
       <c r="P69">
-        <v>367063504000</v>
+        <v>318306310000</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-01-13T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3447136847000</v>
+        <v>3226867836500</v>
       </c>
       <c r="L70">
         <v>203438800</v>
@@ -3899,7 +3899,7 @@
         <v>17176100</v>
       </c>
       <c r="P70">
-        <v>367036985000</v>
+        <v>318279791000</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>77700</v>
       </c>
       <c r="E71">
-        <v>64639563000</v>
+        <v>63726277200</v>
       </c>
       <c r="F71">
-        <v>42983597000</v>
+        <v>39560024000</v>
       </c>
       <c r="G71">
-        <v>1403378000</v>
+        <v>1314167300</v>
       </c>
       <c r="H71">
         <v>6668200</v>
       </c>
       <c r="I71">
-        <v>109026538000</v>
+        <v>104600468500</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-13T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3556163385000</v>
+        <v>3331468305000</v>
       </c>
       <c r="L71">
         <v>210107000</v>
@@ -3943,13 +3943,13 @@
         <v>-1300500</v>
       </c>
       <c r="N71">
-        <v>-21655966000</v>
+        <v>-24166253200</v>
       </c>
       <c r="O71">
         <v>15875600</v>
       </c>
       <c r="P71">
-        <v>345381019000</v>
+        <v>294113537800</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>4300</v>
       </c>
       <c r="E72">
-        <v>25479039000</v>
+        <v>23931887700</v>
       </c>
       <c r="F72">
-        <v>16587044000</v>
+        <v>16014117500</v>
       </c>
       <c r="G72">
         <v>108109000</v>
@@ -3978,13 +3978,13 @@
         <v>2452000</v>
       </c>
       <c r="I72">
-        <v>42174192000</v>
+        <v>40054114200</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-13T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3598337577000</v>
+        <v>3371522419200</v>
       </c>
       <c r="L72">
         <v>212559000</v>
@@ -3993,13 +3993,13 @@
         <v>-684900</v>
       </c>
       <c r="N72">
-        <v>-8891995000</v>
+        <v>-7917770200</v>
       </c>
       <c r="O72">
         <v>15190700</v>
       </c>
       <c r="P72">
-        <v>336489024000</v>
+        <v>286195767600</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>18700</v>
       </c>
       <c r="E73">
-        <v>28795110000</v>
+        <v>27432673800</v>
       </c>
       <c r="F73">
-        <v>17327123000</v>
+        <v>15666485300</v>
       </c>
       <c r="G73">
         <v>760257000</v>
@@ -4028,13 +4028,13 @@
         <v>2875900</v>
       </c>
       <c r="I73">
-        <v>46882490000</v>
+        <v>43859416100</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-13T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3645220067000</v>
+        <v>3415381835300</v>
       </c>
       <c r="L73">
         <v>215434900</v>
@@ -4043,13 +4043,13 @@
         <v>-598800</v>
       </c>
       <c r="N73">
-        <v>-11467987000</v>
+        <v>-11766188500</v>
       </c>
       <c r="O73">
         <v>14591900</v>
       </c>
       <c r="P73">
-        <v>325021037000</v>
+        <v>274429579100</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>23300</v>
       </c>
       <c r="E74">
-        <v>45281372000</v>
+        <v>44418136100</v>
       </c>
       <c r="F74">
-        <v>18158850000</v>
+        <v>17163646200</v>
       </c>
       <c r="G74">
-        <v>377183000</v>
+        <v>375984200</v>
       </c>
       <c r="H74">
         <v>3975400</v>
       </c>
       <c r="I74">
-        <v>63817405000</v>
+        <v>61957766500</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-13T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3709037472000</v>
+        <v>3477339601800</v>
       </c>
       <c r="L74">
         <v>219410300</v>
@@ -4093,13 +4093,13 @@
         <v>-1921100</v>
       </c>
       <c r="N74">
-        <v>-27122522000</v>
+        <v>-27254489900</v>
       </c>
       <c r="O74">
         <v>12670800</v>
       </c>
       <c r="P74">
-        <v>297898515000</v>
+        <v>247175089200</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>6900</v>
       </c>
       <c r="E75">
-        <v>48109063000</v>
+        <v>41072706400</v>
       </c>
       <c r="F75">
-        <v>18083914000</v>
+        <v>17103895000</v>
       </c>
       <c r="G75">
         <v>124745000</v>
@@ -4128,13 +4128,13 @@
         <v>3789100</v>
       </c>
       <c r="I75">
-        <v>66317722000</v>
+        <v>58301346400</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-13T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3775355194000</v>
+        <v>3535640948200</v>
       </c>
       <c r="L75">
         <v>223199400</v>
@@ -4143,13 +4143,13 @@
         <v>-1772200</v>
       </c>
       <c r="N75">
-        <v>-30025149000</v>
+        <v>-23968811400</v>
       </c>
       <c r="O75">
         <v>10898600</v>
       </c>
       <c r="P75">
-        <v>267873366000</v>
+        <v>223206277800</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>2500</v>
       </c>
       <c r="E76">
-        <v>36750401000</v>
+        <v>36115236800</v>
       </c>
       <c r="F76">
-        <v>21500479000</v>
+        <v>19635845500</v>
       </c>
       <c r="G76">
         <v>68325000</v>
@@ -4178,13 +4178,13 @@
         <v>3473600</v>
       </c>
       <c r="I76">
-        <v>58319205000</v>
+        <v>55819407300</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-13T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3833674399000</v>
+        <v>3591460355500</v>
       </c>
       <c r="L76">
         <v>226673000</v>
@@ -4193,13 +4193,13 @@
         <v>-997500</v>
       </c>
       <c r="N76">
-        <v>-15249922000</v>
+        <v>-16479391300</v>
       </c>
       <c r="O76">
         <v>9901100</v>
       </c>
       <c r="P76">
-        <v>252623444000</v>
+        <v>206726886500</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>7100</v>
       </c>
       <c r="E77">
-        <v>30380452000</v>
+        <v>30116815900</v>
       </c>
       <c r="F77">
-        <v>19824995000</v>
+        <v>19165455200</v>
       </c>
       <c r="G77">
         <v>125308000</v>
@@ -4228,13 +4228,13 @@
         <v>3129300</v>
       </c>
       <c r="I77">
-        <v>50330755000</v>
+        <v>49407579100</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-13T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3884005154000</v>
+        <v>3640867934600</v>
       </c>
       <c r="L77">
         <v>229802300</v>
@@ -4243,13 +4243,13 @@
         <v>-860200</v>
       </c>
       <c r="N77">
-        <v>-10555457000</v>
+        <v>-10951360700</v>
       </c>
       <c r="O77">
         <v>9040900</v>
       </c>
       <c r="P77">
-        <v>242067987000</v>
+        <v>195775525800</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>1000</v>
       </c>
       <c r="E78">
-        <v>31114483000</v>
+        <v>28782117700</v>
       </c>
       <c r="F78">
-        <v>15643178000</v>
+        <v>14897624300</v>
       </c>
       <c r="G78">
         <v>33410000</v>
@@ -4278,13 +4278,13 @@
         <v>2830100</v>
       </c>
       <c r="I78">
-        <v>46791071000</v>
+        <v>43713152000</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-13T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3930796225000</v>
+        <v>3684581086600</v>
       </c>
       <c r="L78">
         <v>232632400</v>
@@ -4293,13 +4293,13 @@
         <v>-974500</v>
       </c>
       <c r="N78">
-        <v>-15471305000</v>
+        <v>-13884493400</v>
       </c>
       <c r="O78">
         <v>8066400</v>
       </c>
       <c r="P78">
-        <v>226596682000</v>
+        <v>181891032400</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>20400</v>
       </c>
       <c r="E79">
-        <v>41232635000</v>
+        <v>41091676100</v>
       </c>
       <c r="F79">
-        <v>21202121000</v>
+        <v>19758166400</v>
       </c>
       <c r="G79">
         <v>321572000</v>
@@ -4328,13 +4328,13 @@
         <v>3793200</v>
       </c>
       <c r="I79">
-        <v>62756328000</v>
+        <v>61171414500</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-13T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3993552553000</v>
+        <v>3745752501100</v>
       </c>
       <c r="L79">
         <v>236425600</v>
@@ -4343,13 +4343,13 @@
         <v>-1309400</v>
       </c>
       <c r="N79">
-        <v>-20030514000</v>
+        <v>-21333509700</v>
       </c>
       <c r="O79">
         <v>6757000</v>
       </c>
       <c r="P79">
-        <v>206566168000</v>
+        <v>160557522700</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>6300</v>
       </c>
       <c r="E80">
-        <v>21024795000</v>
+        <v>19115306400</v>
       </c>
       <c r="F80">
-        <v>37498894000</v>
+        <v>35457537400</v>
       </c>
       <c r="G80">
-        <v>183917000</v>
+        <v>175125800</v>
       </c>
       <c r="H80">
         <v>3508000</v>
       </c>
       <c r="I80">
-        <v>58707606000</v>
+        <v>54747969600</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-13T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>4052260159000</v>
+        <v>3800500470700</v>
       </c>
       <c r="L80">
         <v>239933600</v>
@@ -4393,13 +4393,13 @@
         <v>1033100</v>
       </c>
       <c r="N80">
-        <v>16474099000</v>
+        <v>16342231000</v>
       </c>
       <c r="O80">
         <v>7790100</v>
       </c>
       <c r="P80">
-        <v>223040267000</v>
+        <v>176899753700</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>15400</v>
       </c>
       <c r="E81">
-        <v>25683432000</v>
+        <v>25199116800</v>
       </c>
       <c r="F81">
-        <v>36346518000</v>
+        <v>33435831600</v>
       </c>
       <c r="G81">
         <v>223092000</v>
@@ -4428,13 +4428,13 @@
         <v>3391500</v>
       </c>
       <c r="I81">
-        <v>62253042000</v>
+        <v>58858040400</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-13T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>4114513201000</v>
+        <v>3859358511100</v>
       </c>
       <c r="L81">
         <v>243325100</v>
@@ -4443,13 +4443,13 @@
         <v>658700</v>
       </c>
       <c r="N81">
-        <v>10663086000</v>
+        <v>8236714800</v>
       </c>
       <c r="O81">
         <v>8448800</v>
       </c>
       <c r="P81">
-        <v>233703353000</v>
+        <v>185136468500</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>13500</v>
       </c>
       <c r="E82">
-        <v>24896943000</v>
+        <v>24704935200</v>
       </c>
       <c r="F82">
-        <v>29645267000</v>
+        <v>27702212000</v>
       </c>
       <c r="G82">
         <v>547257000</v>
@@ -4478,13 +4478,13 @@
         <v>3205200</v>
       </c>
       <c r="I82">
-        <v>55089467000</v>
+        <v>52954404200</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-13T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>4169602668000</v>
+        <v>3912312915300</v>
       </c>
       <c r="L82">
         <v>246530300</v>
@@ -4493,13 +4493,13 @@
         <v>325100</v>
       </c>
       <c r="N82">
-        <v>4748324000</v>
+        <v>2997276800</v>
       </c>
       <c r="O82">
         <v>8773900</v>
       </c>
       <c r="P82">
-        <v>238451677000</v>
+        <v>188133745300</v>
       </c>
     </row>
     <row r="83">
@@ -4519,22 +4519,22 @@
         <v>19020694000</v>
       </c>
       <c r="F83">
-        <v>17325311000</v>
+        <v>16360976300</v>
       </c>
       <c r="G83">
-        <v>325332000</v>
+        <v>310546800</v>
       </c>
       <c r="H83">
         <v>1943300</v>
       </c>
       <c r="I83">
-        <v>36671337000</v>
+        <v>35692217100</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-13T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>4206274005000</v>
+        <v>3948005132400</v>
       </c>
       <c r="L83">
         <v>248473600</v>
@@ -4543,13 +4543,13 @@
         <v>-128700</v>
       </c>
       <c r="N83">
-        <v>-1695383000</v>
+        <v>-2659717700</v>
       </c>
       <c r="O83">
         <v>8645200</v>
       </c>
       <c r="P83">
-        <v>236756294000</v>
+        <v>185474027600</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>9600</v>
       </c>
       <c r="E84">
-        <v>31866147000</v>
+        <v>31237476300</v>
       </c>
       <c r="F84">
-        <v>21724703000</v>
+        <v>19513416500</v>
       </c>
       <c r="G84">
-        <v>63348000</v>
+        <v>57953400</v>
       </c>
       <c r="H84">
         <v>3188500</v>
       </c>
       <c r="I84">
-        <v>53654198000</v>
+        <v>50808846200</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-13T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4259928203000</v>
+        <v>3998813978600</v>
       </c>
       <c r="L84">
         <v>251662100</v>
@@ -4593,13 +4593,13 @@
         <v>-870500</v>
       </c>
       <c r="N84">
-        <v>-10141444000</v>
+        <v>-11724059800</v>
       </c>
       <c r="O84">
         <v>7774700</v>
       </c>
       <c r="P84">
-        <v>226614850000</v>
+        <v>173749967800</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>1300</v>
       </c>
       <c r="E85">
-        <v>25322124000</v>
+        <v>21240709500</v>
       </c>
       <c r="F85">
-        <v>21340817000</v>
+        <v>20427930800</v>
       </c>
       <c r="G85">
         <v>20921000</v>
@@ -4628,13 +4628,13 @@
         <v>2636900</v>
       </c>
       <c r="I85">
-        <v>46683862000</v>
+        <v>41689561300</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-13T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4306612065000</v>
+        <v>4040503539900</v>
       </c>
       <c r="L85">
         <v>254299000</v>
@@ -4643,13 +4643,13 @@
         <v>-553800</v>
       </c>
       <c r="N85">
-        <v>-3981307000</v>
+        <v>-812778700</v>
       </c>
       <c r="O85">
         <v>7220900</v>
       </c>
       <c r="P85">
-        <v>222633543000</v>
+        <v>172937189100</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>6400</v>
       </c>
       <c r="E86">
-        <v>26289333000</v>
+        <v>23730694200</v>
       </c>
       <c r="F86">
-        <v>19550011000</v>
+        <v>19095366100</v>
       </c>
       <c r="G86">
-        <v>315100000</v>
+        <v>227587600</v>
       </c>
       <c r="H86">
         <v>2620600</v>
       </c>
       <c r="I86">
-        <v>46154444000</v>
+        <v>43053647900</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-13T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4352766509000</v>
+        <v>4083557187800</v>
       </c>
       <c r="L86">
         <v>256919600</v>
@@ -4693,13 +4693,13 @@
         <v>-562600</v>
       </c>
       <c r="N86">
-        <v>-6739322000</v>
+        <v>-4635328100</v>
       </c>
       <c r="O86">
         <v>6658300</v>
       </c>
       <c r="P86">
-        <v>215894221000</v>
+        <v>168301861000</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>2000</v>
       </c>
       <c r="E87">
-        <v>22281760000</v>
+        <v>21036606400</v>
       </c>
       <c r="F87">
-        <v>23712843000</v>
+        <v>20454304800</v>
       </c>
       <c r="G87">
         <v>64638000</v>
@@ -4728,13 +4728,13 @@
         <v>2613700</v>
       </c>
       <c r="I87">
-        <v>46059241000</v>
+        <v>41555549200</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-13T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4398825750000</v>
+        <v>4125112737000</v>
       </c>
       <c r="L87">
         <v>259533300</v>
@@ -4743,13 +4743,13 @@
         <v>-182500</v>
       </c>
       <c r="N87">
-        <v>1431083000</v>
+        <v>-582301600</v>
       </c>
       <c r="O87">
         <v>6475800</v>
       </c>
       <c r="P87">
-        <v>217325304000</v>
+        <v>167719559400</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>11700</v>
       </c>
       <c r="E88">
-        <v>20344752000</v>
+        <v>20033463600</v>
       </c>
       <c r="F88">
-        <v>28808960000</v>
+        <v>26938232600</v>
       </c>
       <c r="G88">
-        <v>209472000</v>
+        <v>206874600</v>
       </c>
       <c r="H88">
         <v>2854900</v>
       </c>
       <c r="I88">
-        <v>49363184000</v>
+        <v>47178570800</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-13T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4448188934000</v>
+        <v>4172291307800</v>
       </c>
       <c r="L88">
         <v>262388200</v>
@@ -4793,13 +4793,13 @@
         <v>268600</v>
       </c>
       <c r="N88">
-        <v>8464208000</v>
+        <v>6904769000</v>
       </c>
       <c r="O88">
         <v>6744400</v>
       </c>
       <c r="P88">
-        <v>225789512000</v>
+        <v>174624328400</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>39200</v>
       </c>
       <c r="E89">
-        <v>30898934000</v>
+        <v>27913222700</v>
       </c>
       <c r="F89">
-        <v>63900589000</v>
+        <v>58863830800</v>
       </c>
       <c r="G89">
         <v>391964000</v>
@@ -4828,13 +4828,13 @@
         <v>5006300</v>
       </c>
       <c r="I89">
-        <v>95191487000</v>
+        <v>87169017500</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-13T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4543380421000</v>
+        <v>4259460325300</v>
       </c>
       <c r="L89">
         <v>267394500</v>
@@ -4843,13 +4843,13 @@
         <v>1497700</v>
       </c>
       <c r="N89">
-        <v>33001655000</v>
+        <v>30950608100</v>
       </c>
       <c r="O89">
         <v>8242100</v>
       </c>
       <c r="P89">
-        <v>258791167000</v>
+        <v>205574936500</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>900</v>
       </c>
       <c r="E90">
-        <v>20915808000</v>
+        <v>20054370300</v>
       </c>
       <c r="F90">
-        <v>74315377000</v>
+        <v>69878718100</v>
       </c>
       <c r="G90">
         <v>22452000</v>
@@ -4878,13 +4878,13 @@
         <v>4745600</v>
       </c>
       <c r="I90">
-        <v>95253637000</v>
+        <v>89955540400</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-13T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4638634058000</v>
+        <v>4349415865700</v>
       </c>
       <c r="L90">
         <v>272140100</v>
@@ -4893,13 +4893,13 @@
         <v>2481900</v>
       </c>
       <c r="N90">
-        <v>53399569000</v>
+        <v>49824347800</v>
       </c>
       <c r="O90">
         <v>10724000</v>
       </c>
       <c r="P90">
-        <v>312190736000</v>
+        <v>255399284300</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>4800</v>
       </c>
       <c r="E91">
-        <v>22440011000</v>
+        <v>22298652500</v>
       </c>
       <c r="F91">
-        <v>52855271000</v>
+        <v>48995334800</v>
       </c>
       <c r="G91">
         <v>70730000</v>
@@ -4928,13 +4928,13 @@
         <v>4413900</v>
       </c>
       <c r="I91">
-        <v>75366012000</v>
+        <v>71364717300</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-13T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4714000070000</v>
+        <v>4420780583000</v>
       </c>
       <c r="L91">
         <v>276554000</v>
@@ -4943,13 +4943,13 @@
         <v>1642300</v>
       </c>
       <c r="N91">
-        <v>30415260000</v>
+        <v>26696682300</v>
       </c>
       <c r="O91">
         <v>12366300</v>
       </c>
       <c r="P91">
-        <v>342605996000</v>
+        <v>282095966600</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>14500</v>
       </c>
       <c r="E92">
-        <v>36952358000</v>
+        <v>33202611500</v>
       </c>
       <c r="F92">
-        <v>44921164000</v>
+        <v>42892394800</v>
       </c>
       <c r="G92">
         <v>115924000</v>
@@ -4978,13 +4978,13 @@
         <v>5732400</v>
       </c>
       <c r="I92">
-        <v>81989446000</v>
+        <v>76210930300</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-13T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4795989516000</v>
+        <v>4496991513300</v>
       </c>
       <c r="L92">
         <v>282286400</v>
@@ -4993,13 +4993,13 @@
         <v>851900</v>
       </c>
       <c r="N92">
-        <v>7968806000</v>
+        <v>9689783300</v>
       </c>
       <c r="O92">
         <v>13218200</v>
       </c>
       <c r="P92">
-        <v>350574802000</v>
+        <v>291785749900</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>23800</v>
       </c>
       <c r="E93">
-        <v>26936052000</v>
+        <v>25655933400</v>
       </c>
       <c r="F93">
-        <v>27137218000</v>
+        <v>26619036700</v>
       </c>
       <c r="G93">
         <v>257716000</v>
@@ -5028,13 +5028,13 @@
         <v>3312800</v>
       </c>
       <c r="I93">
-        <v>54330986000</v>
+        <v>52532686100</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-13T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4850320502000</v>
+        <v>4549524199400</v>
       </c>
       <c r="L93">
         <v>285599200</v>
@@ -5043,13 +5043,13 @@
         <v>-346400</v>
       </c>
       <c r="N93">
-        <v>201166000</v>
+        <v>963103300</v>
       </c>
       <c r="O93">
         <v>12871800</v>
       </c>
       <c r="P93">
-        <v>350775968000</v>
+        <v>292748853200</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>26100</v>
       </c>
       <c r="E94">
-        <v>35632800000</v>
+        <v>33405129900</v>
       </c>
       <c r="F94">
-        <v>25033502000</v>
+        <v>24505230800</v>
       </c>
       <c r="G94">
         <v>763590000</v>
@@ -5078,13 +5078,13 @@
         <v>3734300</v>
       </c>
       <c r="I94">
-        <v>61429892000</v>
+        <v>58673950700</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-13T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4911750394000</v>
+        <v>4608198150100</v>
       </c>
       <c r="L94">
         <v>289333500</v>
@@ -5093,13 +5093,13 @@
         <v>-344400</v>
       </c>
       <c r="N94">
-        <v>-10599298000</v>
+        <v>-8899899100</v>
       </c>
       <c r="O94">
         <v>12527400</v>
       </c>
       <c r="P94">
-        <v>340176670000</v>
+        <v>283848954100</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>71200</v>
       </c>
       <c r="E95">
-        <v>48695063000</v>
+        <v>48425632700</v>
       </c>
       <c r="F95">
-        <v>27471552000</v>
+        <v>25841583600</v>
       </c>
       <c r="G95">
         <v>1774556000</v>
@@ -5128,13 +5128,13 @@
         <v>4403800</v>
       </c>
       <c r="I95">
-        <v>77941171000</v>
+        <v>76041772300</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-13T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>4989691565000</v>
+        <v>4684239922400</v>
       </c>
       <c r="L95">
         <v>293737300</v>
@@ -5143,13 +5143,13 @@
         <v>-1440400</v>
       </c>
       <c r="N95">
-        <v>-21223511000</v>
+        <v>-22584049100</v>
       </c>
       <c r="O95">
         <v>11087000</v>
       </c>
       <c r="P95">
-        <v>318953159000</v>
+        <v>261264905000</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>41200</v>
       </c>
       <c r="E96">
-        <v>91740842000</v>
+        <v>89745039800</v>
       </c>
       <c r="F96">
-        <v>15932088000</v>
+        <v>15709011300</v>
       </c>
       <c r="G96">
         <v>308281000</v>
@@ -5178,13 +5178,13 @@
         <v>6018500</v>
       </c>
       <c r="I96">
-        <v>107981211000</v>
+        <v>105762332100</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-13T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>5097672776000</v>
+        <v>4790002254500</v>
       </c>
       <c r="L96">
         <v>299755800</v>
@@ -5193,13 +5193,13 @@
         <v>-4338100</v>
       </c>
       <c r="N96">
-        <v>-75808754000</v>
+        <v>-74036028500</v>
       </c>
       <c r="O96">
         <v>6748900</v>
       </c>
       <c r="P96">
-        <v>243144405000</v>
+        <v>187228876500</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>81200</v>
       </c>
       <c r="E97">
-        <v>129808050000</v>
+        <v>117967002900</v>
       </c>
       <c r="F97">
-        <v>22433892000</v>
+        <v>21357269700</v>
       </c>
       <c r="G97">
-        <v>2043296000</v>
+        <v>2038101200</v>
       </c>
       <c r="H97">
         <v>9083900</v>
       </c>
       <c r="I97">
-        <v>154285238000</v>
+        <v>141362373800</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-13T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5251958014000</v>
+        <v>4931364628300</v>
       </c>
       <c r="L97">
         <v>308839700</v>
@@ -5243,13 +5243,13 @@
         <v>-6631900</v>
       </c>
       <c r="N97">
-        <v>-107374158000</v>
+        <v>-96609733200</v>
       </c>
       <c r="O97">
         <v>117000</v>
       </c>
       <c r="P97">
-        <v>135770247000</v>
+        <v>90619143300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>11800</v>
       </c>
       <c r="E98">
-        <v>133238410000</v>
+        <v>123644913100</v>
       </c>
       <c r="F98">
-        <v>34219525000</v>
+        <v>33163082500</v>
       </c>
       <c r="G98">
-        <v>164791000</v>
+        <v>162493300</v>
       </c>
       <c r="H98">
         <v>10031200</v>
       </c>
       <c r="I98">
-        <v>167622726000</v>
+        <v>156970488900</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-13T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5419580740000</v>
+        <v>5088335117200</v>
       </c>
       <c r="L98">
         <v>318870900</v>
@@ -5293,13 +5293,13 @@
         <v>-6257000</v>
       </c>
       <c r="N98">
-        <v>-99018885000</v>
+        <v>-90481830600</v>
       </c>
       <c r="O98">
         <v>-6140000</v>
       </c>
       <c r="P98">
-        <v>36751362000</v>
+        <v>137312700</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>19800</v>
       </c>
       <c r="E99">
-        <v>53231004000</v>
+        <v>50412924900</v>
       </c>
       <c r="F99">
-        <v>49015987000</v>
+        <v>47223781000</v>
       </c>
       <c r="G99">
         <v>283058000</v>
@@ -5328,13 +5328,13 @@
         <v>6074300</v>
       </c>
       <c r="I99">
-        <v>102530049000</v>
+        <v>97919763900</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-13T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>5522110789000</v>
+        <v>5186254881100</v>
       </c>
       <c r="L99">
         <v>324945200</v>
@@ -5343,13 +5343,13 @@
         <v>-480500</v>
       </c>
       <c r="N99">
-        <v>-4215017000</v>
+        <v>-3189143900</v>
       </c>
       <c r="O99">
         <v>-6620500</v>
       </c>
       <c r="P99">
-        <v>32536345000</v>
+        <v>-3051831200</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>65100</v>
       </c>
       <c r="E100">
-        <v>29205016000</v>
+        <v>27379843000</v>
       </c>
       <c r="F100">
-        <v>40932366000</v>
+        <v>36328074900</v>
       </c>
       <c r="G100">
         <v>454796000</v>
@@ -5378,13 +5378,13 @@
         <v>4047800</v>
       </c>
       <c r="I100">
-        <v>70592178000</v>
+        <v>64162713900</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-13T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>5592702967000</v>
+        <v>5250417595000</v>
       </c>
       <c r="L100">
         <v>328993000</v>
@@ -5393,13 +5393,13 @@
         <v>315500</v>
       </c>
       <c r="N100">
-        <v>11727350000</v>
+        <v>8948231900</v>
       </c>
       <c r="O100">
         <v>-6305000</v>
       </c>
       <c r="P100">
-        <v>44263695000</v>
+        <v>5896400700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>4900</v>
       </c>
       <c r="E101">
-        <v>22900064000</v>
+        <v>21843221900</v>
       </c>
       <c r="F101">
-        <v>29541061000</v>
+        <v>28516586500</v>
       </c>
       <c r="G101">
         <v>70818000</v>
@@ -5428,13 +5428,13 @@
         <v>3086400</v>
       </c>
       <c r="I101">
-        <v>52511943000</v>
+        <v>50430626400</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-13T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>5645214910000</v>
+        <v>5300848221400</v>
       </c>
       <c r="L101">
         <v>332079400</v>
@@ -5443,13 +5443,13 @@
         <v>445700</v>
       </c>
       <c r="N101">
-        <v>6640997000</v>
+        <v>6673364600</v>
       </c>
       <c r="O101">
         <v>-5859300</v>
       </c>
       <c r="P101">
-        <v>50904692000</v>
+        <v>12569765300</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>32400</v>
       </c>
       <c r="E102">
-        <v>19107067000</v>
+        <v>18393381400</v>
       </c>
       <c r="F102">
-        <v>32698787000</v>
+        <v>30920467100</v>
       </c>
       <c r="G102">
         <v>683717000</v>
@@ -5478,13 +5478,13 @@
         <v>3058400</v>
       </c>
       <c r="I102">
-        <v>52489571000</v>
+        <v>49997565500</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-13T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5697704481000</v>
+        <v>5350845786900</v>
       </c>
       <c r="L102">
         <v>335137800</v>
@@ -5493,13 +5493,13 @@
         <v>752200</v>
       </c>
       <c r="N102">
-        <v>13591720000</v>
+        <v>12527085700</v>
       </c>
       <c r="O102">
         <v>-5107100</v>
       </c>
       <c r="P102">
-        <v>64496412000</v>
+        <v>25096851000</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>8600</v>
       </c>
       <c r="E103">
-        <v>20797983000</v>
+        <v>20124856800</v>
       </c>
       <c r="F103">
-        <v>24919863000</v>
+        <v>24261322200</v>
       </c>
       <c r="G103">
         <v>244825000</v>
@@ -5528,13 +5528,13 @@
         <v>2626300</v>
       </c>
       <c r="I103">
-        <v>45962671000</v>
+        <v>44631004000</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-13T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>5743667152000</v>
+        <v>5395476790900</v>
       </c>
       <c r="L103">
         <v>337764100</v>
@@ -5543,13 +5543,13 @@
         <v>-17500</v>
       </c>
       <c r="N103">
-        <v>4121880000</v>
+        <v>4136465400</v>
       </c>
       <c r="O103">
         <v>-5124600</v>
       </c>
       <c r="P103">
-        <v>68618292000</v>
+        <v>29233316400</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>10000</v>
       </c>
       <c r="E104">
-        <v>69553544000</v>
+        <v>65785216100</v>
       </c>
       <c r="F104">
-        <v>22572732000</v>
+        <v>21799006500</v>
       </c>
       <c r="G104">
-        <v>268665000</v>
+        <v>141891900</v>
       </c>
       <c r="H104">
         <v>4965400</v>
       </c>
       <c r="I104">
-        <v>92394941000</v>
+        <v>87726114500</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-13T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5836062093000</v>
+        <v>5483202905400</v>
       </c>
       <c r="L104">
         <v>342729500</v>
@@ -5593,13 +5593,13 @@
         <v>-2789400</v>
       </c>
       <c r="N104">
-        <v>-46980812000</v>
+        <v>-43986209600</v>
       </c>
       <c r="O104">
         <v>-7914000</v>
       </c>
       <c r="P104">
-        <v>21637480000</v>
+        <v>-14752893200</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>15000</v>
       </c>
       <c r="E105">
-        <v>54356167000</v>
+        <v>51033093400</v>
       </c>
       <c r="F105">
-        <v>21820840000</v>
+        <v>21414946300</v>
       </c>
       <c r="G105">
         <v>317290000</v>
@@ -5628,13 +5628,13 @@
         <v>4449500</v>
       </c>
       <c r="I105">
-        <v>76494297000</v>
+        <v>72765329700</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-13T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>5912556390000</v>
+        <v>5555968235100</v>
       </c>
       <c r="L105">
         <v>347179000</v>
@@ -5643,13 +5643,13 @@
         <v>-2394700</v>
       </c>
       <c r="N105">
-        <v>-32535327000</v>
+        <v>-29618147100</v>
       </c>
       <c r="O105">
         <v>-10308700</v>
       </c>
       <c r="P105">
-        <v>-10897847000</v>
+        <v>-44371040300</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>75200</v>
       </c>
       <c r="E106">
-        <v>66072090000</v>
+        <v>62660305200</v>
       </c>
       <c r="F106">
-        <v>17397456000</v>
+        <v>16810543500</v>
       </c>
       <c r="G106">
         <v>837642000</v>
@@ -5678,13 +5678,13 @@
         <v>5158800</v>
       </c>
       <c r="I106">
-        <v>84307188000</v>
+        <v>80308490700</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-13T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>5996863578000</v>
+        <v>5636276725800</v>
       </c>
       <c r="L106">
         <v>352337800</v>
@@ -5693,13 +5693,13 @@
         <v>-3144000</v>
       </c>
       <c r="N106">
-        <v>-48674634000</v>
+        <v>-45849761700</v>
       </c>
       <c r="O106">
         <v>-13452700</v>
       </c>
       <c r="P106">
-        <v>-59572481000</v>
+        <v>-90220802000</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>7600</v>
       </c>
       <c r="E107">
-        <v>45355513000</v>
+        <v>41859612400</v>
       </c>
       <c r="F107">
-        <v>31776946000</v>
+        <v>31071152500</v>
       </c>
       <c r="G107">
         <v>120888000</v>
@@ -5728,13 +5728,13 @@
         <v>4440900</v>
       </c>
       <c r="I107">
-        <v>77253347000</v>
+        <v>73051652900</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-13T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>6074116925000</v>
+        <v>5709328378700</v>
       </c>
       <c r="L107">
         <v>356778700</v>
@@ -5743,13 +5743,13 @@
         <v>-880700</v>
       </c>
       <c r="N107">
-        <v>-13578567000</v>
+        <v>-10788459900</v>
       </c>
       <c r="O107">
         <v>-14333400</v>
       </c>
       <c r="P107">
-        <v>-73151048000</v>
+        <v>-101009261900</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>62300</v>
       </c>
       <c r="E108">
-        <v>59579424000</v>
+        <v>56829376800</v>
       </c>
       <c r="F108">
-        <v>25235512000</v>
+        <v>23520828400</v>
       </c>
       <c r="G108">
         <v>1191690000</v>
@@ -5778,13 +5778,13 @@
         <v>5337700</v>
       </c>
       <c r="I108">
-        <v>86006626000</v>
+        <v>81541895200</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-13T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>6160123551000</v>
+        <v>5790870273900</v>
       </c>
       <c r="L108">
         <v>362116400</v>
@@ -5793,13 +5793,13 @@
         <v>-2576000</v>
       </c>
       <c r="N108">
-        <v>-34343912000</v>
+        <v>-33308548400</v>
       </c>
       <c r="O108">
         <v>-16909400</v>
       </c>
       <c r="P108">
-        <v>-107494960000</v>
+        <v>-134317810300</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>16200</v>
       </c>
       <c r="E109">
-        <v>107196783000</v>
+        <v>94654238100</v>
       </c>
       <c r="F109">
-        <v>24079631000</v>
+        <v>23449661600</v>
       </c>
       <c r="G109">
-        <v>261281000</v>
+        <v>252090200</v>
       </c>
       <c r="H109">
         <v>7474300</v>
       </c>
       <c r="I109">
-        <v>131537695000</v>
+        <v>118355989900</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-13T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>6291661246000</v>
+        <v>5909226263800</v>
       </c>
       <c r="L109">
         <v>369590700</v>
@@ -5843,13 +5843,13 @@
         <v>-4587500</v>
       </c>
       <c r="N109">
-        <v>-83117152000</v>
+        <v>-71204576500</v>
       </c>
       <c r="O109">
         <v>-21496900</v>
       </c>
       <c r="P109">
-        <v>-190612112000</v>
+        <v>-205522386800</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>35300</v>
       </c>
       <c r="E110">
-        <v>130407468000</v>
+        <v>113611880400</v>
       </c>
       <c r="F110">
-        <v>33183192000</v>
+        <v>32587188600</v>
       </c>
       <c r="G110">
         <v>1152338000</v>
@@ -5878,13 +5878,13 @@
         <v>9950900</v>
       </c>
       <c r="I110">
-        <v>164742998000</v>
+        <v>147351407000</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-13T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>6456404244000</v>
+        <v>6056577670800</v>
       </c>
       <c r="L110">
         <v>379541600</v>
@@ -5893,13 +5893,13 @@
         <v>-5938800</v>
       </c>
       <c r="N110">
-        <v>-97224276000</v>
+        <v>-81024691800</v>
       </c>
       <c r="O110">
         <v>-27435700</v>
       </c>
       <c r="P110">
-        <v>-287836388000</v>
+        <v>-286547078600</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>53900</v>
       </c>
       <c r="E111">
-        <v>117284491000</v>
+        <v>95607190000</v>
       </c>
       <c r="F111">
-        <v>37926476000</v>
+        <v>33850855700</v>
       </c>
       <c r="G111">
-        <v>792029000</v>
+        <v>789731300</v>
       </c>
       <c r="H111">
         <v>9369900</v>
       </c>
       <c r="I111">
-        <v>156002996000</v>
+        <v>130247777000</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-13T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>6612407240000</v>
+        <v>6186825447800</v>
       </c>
       <c r="L111">
         <v>388911500</v>
@@ -5943,13 +5943,13 @@
         <v>-5059200</v>
       </c>
       <c r="N111">
-        <v>-79358015000</v>
+        <v>-61756334300</v>
       </c>
       <c r="O111">
         <v>-32494900</v>
       </c>
       <c r="P111">
-        <v>-367194403000</v>
+        <v>-348303412900</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>52800</v>
       </c>
       <c r="E112">
-        <v>53802850000</v>
+        <v>50608347700</v>
       </c>
       <c r="F112">
-        <v>83051519000</v>
+        <v>71287694600</v>
       </c>
       <c r="G112">
-        <v>505648000</v>
+        <v>450703000</v>
       </c>
       <c r="H112">
         <v>7791200</v>
       </c>
       <c r="I112">
-        <v>137360017000</v>
+        <v>122346745300</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-13T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>6749767257000</v>
+        <v>6309172193100</v>
       </c>
       <c r="L112">
         <v>396702700</v>
@@ -5993,13 +5993,13 @@
         <v>1487000</v>
       </c>
       <c r="N112">
-        <v>29248669000</v>
+        <v>20679346900</v>
       </c>
       <c r="O112">
         <v>-31007900</v>
       </c>
       <c r="P112">
-        <v>-337945734000</v>
+        <v>-327624066000</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>172200</v>
       </c>
       <c r="E113">
-        <v>30648376000</v>
+        <v>27040187800</v>
       </c>
       <c r="F113">
-        <v>106524502000</v>
+        <v>100831201000</v>
       </c>
       <c r="G113">
         <v>3170007000</v>
@@ -6028,13 +6028,13 @@
         <v>8240300</v>
       </c>
       <c r="I113">
-        <v>140342885000</v>
+        <v>131041395800</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-13T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>6890110142000</v>
+        <v>6440213588900</v>
       </c>
       <c r="L113">
         <v>404943000</v>
@@ -6043,13 +6043,13 @@
         <v>4485500</v>
       </c>
       <c r="N113">
-        <v>75876126000</v>
+        <v>73791013200</v>
       </c>
       <c r="O113">
         <v>-26522400</v>
       </c>
       <c r="P113">
-        <v>-262069608000</v>
+        <v>-253833052800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>44900</v>
       </c>
       <c r="E114">
-        <v>45159676000</v>
+        <v>42423315100</v>
       </c>
       <c r="F114">
-        <v>90786893000</v>
+        <v>67783719200</v>
       </c>
       <c r="G114">
-        <v>695452000</v>
+        <v>604543000</v>
       </c>
       <c r="H114">
         <v>8011300</v>
       </c>
       <c r="I114">
-        <v>136642021000</v>
+        <v>110811577300</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-13T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>7026752163000</v>
+        <v>6551025166200</v>
       </c>
       <c r="L114">
         <v>412954300</v>
@@ -6093,13 +6093,13 @@
         <v>2371800</v>
       </c>
       <c r="N114">
-        <v>45627217000</v>
+        <v>25360404100</v>
       </c>
       <c r="O114">
         <v>-24150600</v>
       </c>
       <c r="P114">
-        <v>-216442391000</v>
+        <v>-228472648700</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>84800</v>
       </c>
       <c r="E115">
-        <v>72612569000</v>
+        <v>68769316100</v>
       </c>
       <c r="F115">
-        <v>112783441000</v>
+        <v>107355574300</v>
       </c>
       <c r="G115">
-        <v>1473675000</v>
+        <v>1452096600</v>
       </c>
       <c r="H115">
         <v>11147400</v>
       </c>
       <c r="I115">
-        <v>186869685000</v>
+        <v>177576987000</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-13T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>7213621848000</v>
+        <v>6728602153200</v>
       </c>
       <c r="L115">
         <v>424101700</v>
@@ -6143,13 +6143,13 @@
         <v>2160200</v>
       </c>
       <c r="N115">
-        <v>40170872000</v>
+        <v>38586258200</v>
       </c>
       <c r="O115">
         <v>-21990400</v>
       </c>
       <c r="P115">
-        <v>-176271519000</v>
+        <v>-189886390500</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-01-13T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>7213869163000</v>
+        <v>6728849468200</v>
       </c>
       <c r="L116">
         <v>424115600</v>
@@ -6199,7 +6199,7 @@
         <v>-21995100</v>
       </c>
       <c r="P116">
-        <v>-176394584000</v>
+        <v>-190009455500</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>25151100</v>
       </c>
       <c r="E117">
-        <v>45361631000</v>
+        <v>41151545300</v>
       </c>
       <c r="F117">
-        <v>39191238000</v>
+        <v>34556377500</v>
       </c>
       <c r="G117">
-        <v>479378932000</v>
+        <v>406132651600</v>
       </c>
       <c r="H117">
         <v>29942100</v>
       </c>
       <c r="I117">
-        <v>563931801000</v>
+        <v>481840574400</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-13T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>7777800964000</v>
+        <v>7210690042600</v>
       </c>
       <c r="L117">
         <v>454057700</v>
@@ -6243,13 +6243,13 @@
         <v>-906400</v>
       </c>
       <c r="N117">
-        <v>-6170393000</v>
+        <v>-6595167800</v>
       </c>
       <c r="O117">
         <v>-22901500</v>
       </c>
       <c r="P117">
-        <v>-182564977000</v>
+        <v>-196604623300</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230113/VNINDEX_HOSE_5p_20230113.xlsx
+++ b/name/vnindex/20230113/VNINDEX_HOSE_5p_20230113.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>19008562300</v>
       </c>
+      <c r="Q2">
+        <v>47172905300</v>
+      </c>
+      <c r="R2">
+        <v>28164343000</v>
+      </c>
+      <c r="S2">
+        <v>2801300</v>
+      </c>
+      <c r="T2">
+        <v>1902500</v>
+      </c>
+      <c r="U2">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V2">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W2">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X2">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y2">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z2">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA2">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB2">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC2">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>55288267300</v>
       </c>
+      <c r="Q3">
+        <v>100579469100</v>
+      </c>
+      <c r="R3">
+        <v>45291201800</v>
+      </c>
+      <c r="S3">
+        <v>6265800</v>
+      </c>
+      <c r="T3">
+        <v>3050600</v>
+      </c>
+      <c r="U3">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V3">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W3">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X3">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y3">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z3">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA3">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB3">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC3">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>72004552400</v>
       </c>
+      <c r="Q4">
+        <v>141031844000</v>
+      </c>
+      <c r="R4">
+        <v>69027291600</v>
+      </c>
+      <c r="S4">
+        <v>8803200</v>
+      </c>
+      <c r="T4">
+        <v>4744800</v>
+      </c>
+      <c r="U4">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V4">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W4">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X4">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y4">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z4">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA4">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB4">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC4">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>73566402400</v>
       </c>
+      <c r="Q5">
+        <v>173668066300</v>
+      </c>
+      <c r="R5">
+        <v>100101663900</v>
+      </c>
+      <c r="S5">
+        <v>10619200</v>
+      </c>
+      <c r="T5">
+        <v>6674200</v>
+      </c>
+      <c r="U5">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V5">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W5">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X5">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y5">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z5">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA5">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB5">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC5">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>70928877900</v>
       </c>
+      <c r="Q6">
+        <v>206504423000</v>
+      </c>
+      <c r="R6">
+        <v>135575545100</v>
+      </c>
+      <c r="S6">
+        <v>12608900</v>
+      </c>
+      <c r="T6">
+        <v>9184700</v>
+      </c>
+      <c r="U6">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V6">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W6">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X6">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y6">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z6">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA6">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB6">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC6">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>54643802400</v>
       </c>
+      <c r="Q7">
+        <v>229584506700</v>
+      </c>
+      <c r="R7">
+        <v>174940704300</v>
+      </c>
+      <c r="S7">
+        <v>14052400</v>
+      </c>
+      <c r="T7">
+        <v>11801000</v>
+      </c>
+      <c r="U7">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V7">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W7">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X7">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y7">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z7">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA7">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB7">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC7">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>59658188400</v>
       </c>
+      <c r="Q8">
+        <v>255046134600</v>
+      </c>
+      <c r="R8">
+        <v>195387946200</v>
+      </c>
+      <c r="S8">
+        <v>15516500</v>
+      </c>
+      <c r="T8">
+        <v>13053700</v>
+      </c>
+      <c r="U8">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V8">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W8">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X8">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y8">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z8">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA8">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB8">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>65464570400</v>
       </c>
+      <c r="Q9">
+        <v>276896608800</v>
+      </c>
+      <c r="R9">
+        <v>211432038400</v>
+      </c>
+      <c r="S9">
+        <v>16967600</v>
+      </c>
+      <c r="T9">
+        <v>14068500</v>
+      </c>
+      <c r="U9">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V9">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W9">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X9">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y9">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z9">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA9">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB9">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC9">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>86946063600</v>
       </c>
+      <c r="Q10">
+        <v>321009355900</v>
+      </c>
+      <c r="R10">
+        <v>234063292300</v>
+      </c>
+      <c r="S10">
+        <v>19341300</v>
+      </c>
+      <c r="T10">
+        <v>15439900</v>
+      </c>
+      <c r="U10">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V10">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W10">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X10">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y10">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z10">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA10">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB10">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC10">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>97680261000</v>
       </c>
+      <c r="Q11">
+        <v>346496782700</v>
+      </c>
+      <c r="R11">
+        <v>248816521700</v>
+      </c>
+      <c r="S11">
+        <v>20816100</v>
+      </c>
+      <c r="T11">
+        <v>16442100</v>
+      </c>
+      <c r="U11">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V11">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W11">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X11">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y11">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z11">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA11">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB11">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC11">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>121497925500</v>
       </c>
+      <c r="Q12">
+        <v>388832992000</v>
+      </c>
+      <c r="R12">
+        <v>267335066500</v>
+      </c>
+      <c r="S12">
+        <v>24268500</v>
+      </c>
+      <c r="T12">
+        <v>17616500</v>
+      </c>
+      <c r="U12">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V12">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W12">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X12">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y12">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z12">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA12">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB12">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC12">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>169048535300</v>
       </c>
+      <c r="Q13">
+        <v>458735932800</v>
+      </c>
+      <c r="R13">
+        <v>289687397500</v>
+      </c>
+      <c r="S13">
+        <v>28532900</v>
+      </c>
+      <c r="T13">
+        <v>19017200</v>
+      </c>
+      <c r="U13">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V13">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W13">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X13">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y13">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z13">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA13">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB13">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC13">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>232109547800</v>
       </c>
+      <c r="Q14">
+        <v>548944648800</v>
+      </c>
+      <c r="R14">
+        <v>316835101000</v>
+      </c>
+      <c r="S14">
+        <v>34099800</v>
+      </c>
+      <c r="T14">
+        <v>20790200</v>
+      </c>
+      <c r="U14">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V14">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W14">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X14">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y14">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z14">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA14">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB14">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC14">
+        <v>37.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>284893775200</v>
       </c>
+      <c r="Q15">
+        <v>626350439700</v>
+      </c>
+      <c r="R15">
+        <v>341456664500</v>
+      </c>
+      <c r="S15">
+        <v>38837900</v>
+      </c>
+      <c r="T15">
+        <v>22553100</v>
+      </c>
+      <c r="U15">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V15">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W15">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X15">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y15">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z15">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA15">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB15">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC15">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>291872943200</v>
       </c>
+      <c r="Q16">
+        <v>661732777400</v>
+      </c>
+      <c r="R16">
+        <v>369859834200</v>
+      </c>
+      <c r="S16">
+        <v>41151600</v>
+      </c>
+      <c r="T16">
+        <v>24425900</v>
+      </c>
+      <c r="U16">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V16">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W16">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X16">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y16">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z16">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA16">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB16">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC16">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>304347147100</v>
       </c>
+      <c r="Q17">
+        <v>700327595200</v>
+      </c>
+      <c r="R17">
+        <v>395980448100</v>
+      </c>
+      <c r="S17">
+        <v>43657600</v>
+      </c>
+      <c r="T17">
+        <v>26118100</v>
+      </c>
+      <c r="U17">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V17">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W17">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X17">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y17">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z17">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA17">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB17">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC17">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>311124814300</v>
       </c>
+      <c r="Q18">
+        <v>736054901800</v>
+      </c>
+      <c r="R18">
+        <v>424930087500</v>
+      </c>
+      <c r="S18">
+        <v>45816600</v>
+      </c>
+      <c r="T18">
+        <v>27894100</v>
+      </c>
+      <c r="U18">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V18">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W18">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X18">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y18">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z18">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA18">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB18">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC18">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>304903817500</v>
       </c>
+      <c r="Q19">
+        <v>764920158400</v>
+      </c>
+      <c r="R19">
+        <v>460016340900</v>
+      </c>
+      <c r="S19">
+        <v>47593700</v>
+      </c>
+      <c r="T19">
+        <v>29946900</v>
+      </c>
+      <c r="U19">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V19">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W19">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X19">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y19">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z19">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA19">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB19">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC19">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>311966134300</v>
       </c>
+      <c r="Q20">
+        <v>793926284200</v>
+      </c>
+      <c r="R20">
+        <v>481960149900</v>
+      </c>
+      <c r="S20">
+        <v>49353700</v>
+      </c>
+      <c r="T20">
+        <v>31524400</v>
+      </c>
+      <c r="U20">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V20">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W20">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X20">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y20">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z20">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA20">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB20">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC20">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>319390710700</v>
       </c>
+      <c r="Q21">
+        <v>819490382400</v>
+      </c>
+      <c r="R21">
+        <v>500099671700</v>
+      </c>
+      <c r="S21">
+        <v>50899200</v>
+      </c>
+      <c r="T21">
+        <v>32780900</v>
+      </c>
+      <c r="U21">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V21">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W21">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X21">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y21">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z21">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA21">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB21">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC21">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>313280375700</v>
       </c>
+      <c r="Q22">
+        <v>835493137400</v>
+      </c>
+      <c r="R22">
+        <v>522212761700</v>
+      </c>
+      <c r="S22">
+        <v>51991000</v>
+      </c>
+      <c r="T22">
+        <v>34385200</v>
+      </c>
+      <c r="U22">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V22">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W22">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X22">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y22">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z22">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA22">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB22">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC22">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>300082390300</v>
       </c>
+      <c r="Q23">
+        <v>853418611500</v>
+      </c>
+      <c r="R23">
+        <v>553336221200</v>
+      </c>
+      <c r="S23">
+        <v>53130800</v>
+      </c>
+      <c r="T23">
+        <v>36223800</v>
+      </c>
+      <c r="U23">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V23">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W23">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X23">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y23">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z23">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA23">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB23">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC23">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>299617764000</v>
       </c>
+      <c r="Q24">
+        <v>873736956800</v>
+      </c>
+      <c r="R24">
+        <v>574119192800</v>
+      </c>
+      <c r="S24">
+        <v>54322400</v>
+      </c>
+      <c r="T24">
+        <v>37710900</v>
+      </c>
+      <c r="U24">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V24">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W24">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X24">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y24">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z24">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA24">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB24">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC24">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>298415699400</v>
       </c>
+      <c r="Q25">
+        <v>896400708200</v>
+      </c>
+      <c r="R25">
+        <v>597985008800</v>
+      </c>
+      <c r="S25">
+        <v>55771300</v>
+      </c>
+      <c r="T25">
+        <v>39140400</v>
+      </c>
+      <c r="U25">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V25">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W25">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X25">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y25">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z25">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA25">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB25">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC25">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>294385491400</v>
       </c>
+      <c r="Q26">
+        <v>914907143500</v>
+      </c>
+      <c r="R26">
+        <v>620521652100</v>
+      </c>
+      <c r="S26">
+        <v>56913900</v>
+      </c>
+      <c r="T26">
+        <v>40839900</v>
+      </c>
+      <c r="U26">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V26">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W26">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X26">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y26">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z26">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA26">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB26">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC26">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>284163066500</v>
       </c>
+      <c r="Q27">
+        <v>925763091200</v>
+      </c>
+      <c r="R27">
+        <v>641600024700</v>
+      </c>
+      <c r="S27">
+        <v>57629400</v>
+      </c>
+      <c r="T27">
+        <v>42130200</v>
+      </c>
+      <c r="U27">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V27">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W27">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X27">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y27">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z27">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA27">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB27">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>272527765900</v>
       </c>
+      <c r="Q28">
+        <v>943245063400</v>
+      </c>
+      <c r="R28">
+        <v>670717297500</v>
+      </c>
+      <c r="S28">
+        <v>58584600</v>
+      </c>
+      <c r="T28">
+        <v>43956600</v>
+      </c>
+      <c r="U28">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V28">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W28">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X28">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y28">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z28">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA28">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB28">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC28">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>256554971600</v>
       </c>
+      <c r="Q29">
+        <v>960386017800</v>
+      </c>
+      <c r="R29">
+        <v>703831046200</v>
+      </c>
+      <c r="S29">
+        <v>59619400</v>
+      </c>
+      <c r="T29">
+        <v>46020700</v>
+      </c>
+      <c r="U29">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V29">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W29">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X29">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y29">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z29">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA29">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB29">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC29">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>235735127600</v>
       </c>
+      <c r="Q30">
+        <v>978629122300</v>
+      </c>
+      <c r="R30">
+        <v>742893994700</v>
+      </c>
+      <c r="S30">
+        <v>60617500</v>
+      </c>
+      <c r="T30">
+        <v>48386000</v>
+      </c>
+      <c r="U30">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V30">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W30">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X30">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y30">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z30">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA30">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB30">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC30">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>219214975800</v>
       </c>
+      <c r="Q31">
+        <v>996016853600</v>
+      </c>
+      <c r="R31">
+        <v>776801877800</v>
+      </c>
+      <c r="S31">
+        <v>61683400</v>
+      </c>
+      <c r="T31">
+        <v>50545000</v>
+      </c>
+      <c r="U31">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V31">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W31">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X31">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y31">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z31">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA31">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB31">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC31">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>208307034000</v>
       </c>
+      <c r="Q32">
+        <v>1011472243000</v>
+      </c>
+      <c r="R32">
+        <v>803165209000</v>
+      </c>
+      <c r="S32">
+        <v>62575100</v>
+      </c>
+      <c r="T32">
+        <v>52251300</v>
+      </c>
+      <c r="U32">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V32">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W32">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X32">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y32">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z32">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA32">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB32">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC32">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>201200347400</v>
       </c>
+      <c r="Q33">
+        <v>1023022073100</v>
+      </c>
+      <c r="R33">
+        <v>821821725700</v>
+      </c>
+      <c r="S33">
+        <v>63264700</v>
+      </c>
+      <c r="T33">
+        <v>53383400</v>
+      </c>
+      <c r="U33">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V33">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W33">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X33">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y33">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z33">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA33">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB33">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC33">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>204898834200</v>
       </c>
+      <c r="Q34">
+        <v>1042382529800</v>
+      </c>
+      <c r="R34">
+        <v>837483695600</v>
+      </c>
+      <c r="S34">
+        <v>64321700</v>
+      </c>
+      <c r="T34">
+        <v>54382200</v>
+      </c>
+      <c r="U34">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V34">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W34">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X34">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y34">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z34">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA34">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB34">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC34">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>235593575800</v>
       </c>
+      <c r="Q35">
+        <v>1084969188600</v>
+      </c>
+      <c r="R35">
+        <v>849375612800</v>
+      </c>
+      <c r="S35">
+        <v>66869000</v>
+      </c>
+      <c r="T35">
+        <v>55163900</v>
+      </c>
+      <c r="U35">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V35">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W35">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X35">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y35">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z35">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA35">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB35">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC35">
+        <v>18.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>291897333700</v>
       </c>
+      <c r="Q36">
+        <v>1153843193300</v>
+      </c>
+      <c r="R36">
+        <v>861945859600</v>
+      </c>
+      <c r="S36">
+        <v>71865200</v>
+      </c>
+      <c r="T36">
+        <v>55990500</v>
+      </c>
+      <c r="U36">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V36">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W36">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X36">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y36">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z36">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA36">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB36">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC36">
+        <v>33.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>323628831300</v>
       </c>
+      <c r="Q37">
+        <v>1201778585200</v>
+      </c>
+      <c r="R37">
+        <v>878149753900</v>
+      </c>
+      <c r="S37">
+        <v>75096200</v>
+      </c>
+      <c r="T37">
+        <v>57021400</v>
+      </c>
+      <c r="U37">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V37">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W37">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X37">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y37">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z37">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA37">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB37">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC37">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>355082421900</v>
       </c>
+      <c r="Q38">
+        <v>1246811350300</v>
+      </c>
+      <c r="R38">
+        <v>891728928400</v>
+      </c>
+      <c r="S38">
+        <v>78332500</v>
+      </c>
+      <c r="T38">
+        <v>57893000</v>
+      </c>
+      <c r="U38">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V38">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W38">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X38">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y38">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z38">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA38">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB38">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC38">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>390466466800</v>
       </c>
+      <c r="Q39">
+        <v>1296902787800</v>
+      </c>
+      <c r="R39">
+        <v>906436321000</v>
+      </c>
+      <c r="S39">
+        <v>81632800</v>
+      </c>
+      <c r="T39">
+        <v>58868400</v>
+      </c>
+      <c r="U39">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V39">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W39">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X39">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y39">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z39">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA39">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB39">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC39">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>404797363200</v>
       </c>
+      <c r="Q40">
+        <v>1325003252100</v>
+      </c>
+      <c r="R40">
+        <v>920205888900</v>
+      </c>
+      <c r="S40">
+        <v>83932800</v>
+      </c>
+      <c r="T40">
+        <v>59645800</v>
+      </c>
+      <c r="U40">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V40">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W40">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X40">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y40">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z40">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA40">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB40">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC40">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>415647678500</v>
       </c>
+      <c r="Q41">
+        <v>1352511062900</v>
+      </c>
+      <c r="R41">
+        <v>936863384400</v>
+      </c>
+      <c r="S41">
+        <v>86042300</v>
+      </c>
+      <c r="T41">
+        <v>60617700</v>
+      </c>
+      <c r="U41">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V41">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W41">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X41">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y41">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z41">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA41">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB41">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC41">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>411705093500</v>
       </c>
+      <c r="Q42">
+        <v>1369811978500</v>
+      </c>
+      <c r="R42">
+        <v>958106885000</v>
+      </c>
+      <c r="S42">
+        <v>87090300</v>
+      </c>
+      <c r="T42">
+        <v>62095200</v>
+      </c>
+      <c r="U42">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V42">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W42">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X42">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y42">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z42">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA42">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB42">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC42">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>415895931600</v>
       </c>
+      <c r="Q43">
+        <v>1393608070800</v>
+      </c>
+      <c r="R43">
+        <v>977712139200</v>
+      </c>
+      <c r="S43">
+        <v>88441100</v>
+      </c>
+      <c r="T43">
+        <v>63289400</v>
+      </c>
+      <c r="U43">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V43">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W43">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X43">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y43">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z43">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA43">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB43">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC43">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>418548998200</v>
       </c>
+      <c r="Q44">
+        <v>1416615571900</v>
+      </c>
+      <c r="R44">
+        <v>998066573700</v>
+      </c>
+      <c r="S44">
+        <v>89863000</v>
+      </c>
+      <c r="T44">
+        <v>64597600</v>
+      </c>
+      <c r="U44">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V44">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W44">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X44">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y44">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z44">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA44">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB44">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC44">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>407533875200</v>
       </c>
+      <c r="Q45">
+        <v>1428465471700</v>
+      </c>
+      <c r="R45">
+        <v>1020931596500</v>
+      </c>
+      <c r="S45">
+        <v>90612400</v>
+      </c>
+      <c r="T45">
+        <v>66015000</v>
+      </c>
+      <c r="U45">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V45">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W45">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X45">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y45">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z45">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA45">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB45">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC45">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>398985263300</v>
       </c>
+      <c r="Q46">
+        <v>1443244593800</v>
+      </c>
+      <c r="R46">
+        <v>1044259330500</v>
+      </c>
+      <c r="S46">
+        <v>91463300</v>
+      </c>
+      <c r="T46">
+        <v>67815500</v>
+      </c>
+      <c r="U46">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V46">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W46">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X46">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y46">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z46">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA46">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB46">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC46">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>392111492100</v>
       </c>
+      <c r="Q47">
+        <v>1455208141300</v>
+      </c>
+      <c r="R47">
+        <v>1063096649200</v>
+      </c>
+      <c r="S47">
+        <v>92217300</v>
+      </c>
+      <c r="T47">
+        <v>68936000</v>
+      </c>
+      <c r="U47">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V47">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W47">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X47">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y47">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z47">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA47">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB47">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC47">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>377918196400</v>
       </c>
+      <c r="Q48">
+        <v>1466827193500</v>
+      </c>
+      <c r="R48">
+        <v>1088908997100</v>
+      </c>
+      <c r="S48">
+        <v>92915500</v>
+      </c>
+      <c r="T48">
+        <v>70690600</v>
+      </c>
+      <c r="U48">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V48">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W48">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X48">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y48">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z48">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA48">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB48">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC48">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>365306713300</v>
       </c>
+      <c r="Q49">
+        <v>1483235733700</v>
+      </c>
+      <c r="R49">
+        <v>1117929020400</v>
+      </c>
+      <c r="S49">
+        <v>93774100</v>
+      </c>
+      <c r="T49">
+        <v>72437300</v>
+      </c>
+      <c r="U49">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V49">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W49">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X49">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y49">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z49">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA49">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB49">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC49">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>363483613900</v>
       </c>
+      <c r="Q50">
+        <v>1505768153900</v>
+      </c>
+      <c r="R50">
+        <v>1142284540000</v>
+      </c>
+      <c r="S50">
+        <v>95010700</v>
+      </c>
+      <c r="T50">
+        <v>73854300</v>
+      </c>
+      <c r="U50">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V50">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W50">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X50">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y50">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z50">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA50">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB50">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC50">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>354521981500</v>
       </c>
+      <c r="Q51">
+        <v>1520175575400</v>
+      </c>
+      <c r="R51">
+        <v>1165653593900</v>
+      </c>
+      <c r="S51">
+        <v>95772800</v>
+      </c>
+      <c r="T51">
+        <v>75128800</v>
+      </c>
+      <c r="U51">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V51">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W51">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X51">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y51">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z51">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA51">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB51">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC51">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>348383907500</v>
       </c>
+      <c r="Q52">
+        <v>1533214601100</v>
+      </c>
+      <c r="R52">
+        <v>1184830693600</v>
+      </c>
+      <c r="S52">
+        <v>96502400</v>
+      </c>
+      <c r="T52">
+        <v>76155400</v>
+      </c>
+      <c r="U52">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V52">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W52">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X52">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y52">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z52">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA52">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB52">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC52">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>345781885900</v>
       </c>
+      <c r="Q53">
+        <v>1546096957600</v>
+      </c>
+      <c r="R53">
+        <v>1200315071700</v>
+      </c>
+      <c r="S53">
+        <v>97244100</v>
+      </c>
+      <c r="T53">
+        <v>77130700</v>
+      </c>
+      <c r="U53">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V53">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W53">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X53">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y53">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z53">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA53">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB53">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC53">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>343814041900</v>
       </c>
+      <c r="Q54">
+        <v>1559664311400</v>
+      </c>
+      <c r="R54">
+        <v>1215850269500</v>
+      </c>
+      <c r="S54">
+        <v>97864300</v>
+      </c>
+      <c r="T54">
+        <v>78116500</v>
+      </c>
+      <c r="U54">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V54">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W54">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X54">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y54">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z54">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA54">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB54">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC54">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>334408969800</v>
       </c>
+      <c r="Q55">
+        <v>1569828988200</v>
+      </c>
+      <c r="R55">
+        <v>1235420018400</v>
+      </c>
+      <c r="S55">
+        <v>98383600</v>
+      </c>
+      <c r="T55">
+        <v>79356500</v>
+      </c>
+      <c r="U55">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V55">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W55">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X55">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y55">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z55">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA55">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB55">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC55">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>321994941600</v>
       </c>
+      <c r="Q56">
+        <v>1582158259400</v>
+      </c>
+      <c r="R56">
+        <v>1260163317800</v>
+      </c>
+      <c r="S56">
+        <v>99086000</v>
+      </c>
+      <c r="T56">
+        <v>80695000</v>
+      </c>
+      <c r="U56">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V56">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W56">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X56">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y56">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z56">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA56">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB56">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC56">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>318920221100</v>
       </c>
+      <c r="Q57">
+        <v>1593093515700</v>
+      </c>
+      <c r="R57">
+        <v>1274173294600</v>
+      </c>
+      <c r="S57">
+        <v>99708600</v>
+      </c>
+      <c r="T57">
+        <v>81535600</v>
+      </c>
+      <c r="U57">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V57">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W57">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X57">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y57">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z57">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA57">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB57">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC57">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>315018533600</v>
       </c>
+      <c r="Q58">
+        <v>1602189629400</v>
+      </c>
+      <c r="R58">
+        <v>1287171095800</v>
+      </c>
+      <c r="S58">
+        <v>100284600</v>
+      </c>
+      <c r="T58">
+        <v>82364600</v>
+      </c>
+      <c r="U58">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V58">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W58">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X58">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y58">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z58">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA58">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB58">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC58">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>312827057400</v>
       </c>
+      <c r="Q59">
+        <v>1616201127700</v>
+      </c>
+      <c r="R59">
+        <v>1303374070300</v>
+      </c>
+      <c r="S59">
+        <v>101057900</v>
+      </c>
+      <c r="T59">
+        <v>83548600</v>
+      </c>
+      <c r="U59">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V59">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W59">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X59">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y59">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z59">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA59">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB59">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC59">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>313121133300</v>
       </c>
+      <c r="Q60">
+        <v>1629637699400</v>
+      </c>
+      <c r="R60">
+        <v>1316516566100</v>
+      </c>
+      <c r="S60">
+        <v>101901500</v>
+      </c>
+      <c r="T60">
+        <v>84328700</v>
+      </c>
+      <c r="U60">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V60">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W60">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X60">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y60">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z60">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA60">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB60">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC60">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>311377559100</v>
       </c>
+      <c r="Q61">
+        <v>1641588197700</v>
+      </c>
+      <c r="R61">
+        <v>1330210638600</v>
+      </c>
+      <c r="S61">
+        <v>102528000</v>
+      </c>
+      <c r="T61">
+        <v>85198200</v>
+      </c>
+      <c r="U61">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V61">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W61">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X61">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y61">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z61">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA61">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB61">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>309656960100</v>
       </c>
+      <c r="Q62">
+        <v>1654598532500</v>
+      </c>
+      <c r="R62">
+        <v>1344941572400</v>
+      </c>
+      <c r="S62">
+        <v>103388300</v>
+      </c>
+      <c r="T62">
+        <v>86186600</v>
+      </c>
+      <c r="U62">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V62">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W62">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X62">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y62">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z62">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA62">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB62">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>308395188000</v>
       </c>
+      <c r="Q63">
+        <v>1669164726000</v>
+      </c>
+      <c r="R63">
+        <v>1360769538000</v>
+      </c>
+      <c r="S63">
+        <v>104139600</v>
+      </c>
+      <c r="T63">
+        <v>87093400</v>
+      </c>
+      <c r="U63">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V63">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W63">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X63">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y63">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z63">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA63">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB63">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC63">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>307481856000</v>
       </c>
+      <c r="Q64">
+        <v>1679291973600</v>
+      </c>
+      <c r="R64">
+        <v>1371810117600</v>
+      </c>
+      <c r="S64">
+        <v>104709900</v>
+      </c>
+      <c r="T64">
+        <v>87824200</v>
+      </c>
+      <c r="U64">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V64">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W64">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X64">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y64">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z64">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA64">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB64">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC64">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>311033366700</v>
       </c>
+      <c r="Q65">
+        <v>1696113373700</v>
+      </c>
+      <c r="R65">
+        <v>1385080007000</v>
+      </c>
+      <c r="S65">
+        <v>105650900</v>
+      </c>
+      <c r="T65">
+        <v>88784700</v>
+      </c>
+      <c r="U65">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V65">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W65">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X65">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y65">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z65">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA65">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB65">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC65">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>315502620000</v>
       </c>
+      <c r="Q66">
+        <v>1711721781600</v>
+      </c>
+      <c r="R66">
+        <v>1396219161600</v>
+      </c>
+      <c r="S66">
+        <v>106538900</v>
+      </c>
+      <c r="T66">
+        <v>89499600</v>
+      </c>
+      <c r="U66">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V66">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W66">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X66">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y66">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z66">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA66">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB66">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC66">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>322906685100</v>
       </c>
+      <c r="Q67">
+        <v>1729841907600</v>
+      </c>
+      <c r="R67">
+        <v>1406935222500</v>
+      </c>
+      <c r="S67">
+        <v>107493200</v>
+      </c>
+      <c r="T67">
+        <v>90219800</v>
+      </c>
+      <c r="U67">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V67">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W67">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X67">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y67">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z67">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA67">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB67">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC67">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>323325634900</v>
       </c>
+      <c r="Q68">
+        <v>1746529364500</v>
+      </c>
+      <c r="R68">
+        <v>1423203729600</v>
+      </c>
+      <c r="S68">
+        <v>108538100</v>
+      </c>
+      <c r="T68">
+        <v>91066300</v>
+      </c>
+      <c r="U68">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V68">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W68">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X68">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y68">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z68">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA68">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB68">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC68">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>318306310000</v>
       </c>
+      <c r="Q69">
+        <v>1756462934700</v>
+      </c>
+      <c r="R69">
+        <v>1438156624700</v>
+      </c>
+      <c r="S69">
+        <v>109141400</v>
+      </c>
+      <c r="T69">
+        <v>91960300</v>
+      </c>
+      <c r="U69">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V69">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W69">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X69">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y69">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z69">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA69">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB69">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC69">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>318279791000</v>
       </c>
+      <c r="Q70">
+        <v>1756487244700</v>
+      </c>
+      <c r="R70">
+        <v>1438207453700</v>
+      </c>
+      <c r="S70">
+        <v>109143200</v>
+      </c>
+      <c r="T70">
+        <v>91967100</v>
+      </c>
+      <c r="U70">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V70">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W70">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X70">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y70">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z70">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA70">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB70">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>294113537800</v>
       </c>
+      <c r="Q71">
+        <v>1796047268700</v>
+      </c>
+      <c r="R71">
+        <v>1501933730900</v>
+      </c>
+      <c r="S71">
+        <v>111788200</v>
+      </c>
+      <c r="T71">
+        <v>95912600</v>
+      </c>
+      <c r="U71">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V71">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W71">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X71">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y71">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z71">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA71">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB71">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC71">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>286195767600</v>
       </c>
+      <c r="Q72">
+        <v>1812061386200</v>
+      </c>
+      <c r="R72">
+        <v>1525865618600</v>
+      </c>
+      <c r="S72">
+        <v>112669600</v>
+      </c>
+      <c r="T72">
+        <v>97478900</v>
+      </c>
+      <c r="U72">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V72">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W72">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X72">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y72">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z72">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA72">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB72">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC72">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>274429579100</v>
       </c>
+      <c r="Q73">
+        <v>1827727871500</v>
+      </c>
+      <c r="R73">
+        <v>1553298292400</v>
+      </c>
+      <c r="S73">
+        <v>113798800</v>
+      </c>
+      <c r="T73">
+        <v>99206900</v>
+      </c>
+      <c r="U73">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V73">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W73">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X73">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y73">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z73">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA73">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB73">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC73">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>247175089200</v>
       </c>
+      <c r="Q74">
+        <v>1844891517700</v>
+      </c>
+      <c r="R74">
+        <v>1597716428500</v>
+      </c>
+      <c r="S74">
+        <v>114814300</v>
+      </c>
+      <c r="T74">
+        <v>102143500</v>
+      </c>
+      <c r="U74">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V74">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W74">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X74">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y74">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z74">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA74">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB74">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC74">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>223206277800</v>
       </c>
+      <c r="Q75">
+        <v>1861995412700</v>
+      </c>
+      <c r="R75">
+        <v>1638789134900</v>
+      </c>
+      <c r="S75">
+        <v>115819300</v>
+      </c>
+      <c r="T75">
+        <v>104920700</v>
+      </c>
+      <c r="U75">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V75">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W75">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X75">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y75">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z75">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA75">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB75">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC75">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>206726886500</v>
       </c>
+      <c r="Q76">
+        <v>1881631258200</v>
+      </c>
+      <c r="R76">
+        <v>1674904371700</v>
+      </c>
+      <c r="S76">
+        <v>117056100</v>
+      </c>
+      <c r="T76">
+        <v>107155000</v>
+      </c>
+      <c r="U76">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V76">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W76">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X76">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y76">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z76">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA76">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB76">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC76">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>195775525800</v>
       </c>
+      <c r="Q77">
+        <v>1900796713400</v>
+      </c>
+      <c r="R77">
+        <v>1705021187600</v>
+      </c>
+      <c r="S77">
+        <v>118187100</v>
+      </c>
+      <c r="T77">
+        <v>109146200</v>
+      </c>
+      <c r="U77">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V77">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W77">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X77">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y77">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z77">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA77">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB77">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC77">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>181891032400</v>
       </c>
+      <c r="Q78">
+        <v>1915694337700</v>
+      </c>
+      <c r="R78">
+        <v>1733803305300</v>
+      </c>
+      <c r="S78">
+        <v>119114400</v>
+      </c>
+      <c r="T78">
+        <v>111048000</v>
+      </c>
+      <c r="U78">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V78">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W78">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X78">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y78">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z78">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA78">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB78">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC78">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>160557522700</v>
       </c>
+      <c r="Q79">
+        <v>1935452504100</v>
+      </c>
+      <c r="R79">
+        <v>1774894981400</v>
+      </c>
+      <c r="S79">
+        <v>120346100</v>
+      </c>
+      <c r="T79">
+        <v>113589100</v>
+      </c>
+      <c r="U79">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V79">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W79">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X79">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y79">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z79">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA79">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB79">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC79">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>176899753700</v>
       </c>
+      <c r="Q80">
+        <v>1970910041500</v>
+      </c>
+      <c r="R80">
+        <v>1794010287800</v>
+      </c>
+      <c r="S80">
+        <v>122613500</v>
+      </c>
+      <c r="T80">
+        <v>114823400</v>
+      </c>
+      <c r="U80">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V80">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W80">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X80">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y80">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z80">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA80">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB80">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC80">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>185136468500</v>
       </c>
+      <c r="Q81">
+        <v>2004345873100</v>
+      </c>
+      <c r="R81">
+        <v>1819209404600</v>
+      </c>
+      <c r="S81">
+        <v>124630900</v>
+      </c>
+      <c r="T81">
+        <v>116182100</v>
+      </c>
+      <c r="U81">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V81">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W81">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X81">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y81">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z81">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA81">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB81">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC81">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>188133745300</v>
       </c>
+      <c r="Q82">
+        <v>2032048085100</v>
+      </c>
+      <c r="R82">
+        <v>1843914339800</v>
+      </c>
+      <c r="S82">
+        <v>126389300</v>
+      </c>
+      <c r="T82">
+        <v>117615400</v>
+      </c>
+      <c r="U82">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V82">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W82">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X82">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y82">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z82">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA82">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB82">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC82">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>185474027600</v>
       </c>
+      <c r="Q83">
+        <v>2048409061400</v>
+      </c>
+      <c r="R83">
+        <v>1862935033800</v>
+      </c>
+      <c r="S83">
+        <v>127287300</v>
+      </c>
+      <c r="T83">
+        <v>118642100</v>
+      </c>
+      <c r="U83">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V83">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W83">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X83">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y83">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z83">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA83">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB83">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC83">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>173749967800</v>
       </c>
+      <c r="Q84">
+        <v>2067922477900</v>
+      </c>
+      <c r="R84">
+        <v>1894172510100</v>
+      </c>
+      <c r="S84">
+        <v>128441500</v>
+      </c>
+      <c r="T84">
+        <v>120666800</v>
+      </c>
+      <c r="U84">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V84">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W84">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X84">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y84">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z84">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA84">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB84">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC84">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>172937189100</v>
       </c>
+      <c r="Q85">
+        <v>2088350408700</v>
+      </c>
+      <c r="R85">
+        <v>1915413219600</v>
+      </c>
+      <c r="S85">
+        <v>129482400</v>
+      </c>
+      <c r="T85">
+        <v>122261500</v>
+      </c>
+      <c r="U85">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V85">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W85">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X85">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y85">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z85">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA85">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB85">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC85">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>168301861000</v>
       </c>
+      <c r="Q86">
+        <v>2107445774800</v>
+      </c>
+      <c r="R86">
+        <v>1939143913800</v>
+      </c>
+      <c r="S86">
+        <v>130508200</v>
+      </c>
+      <c r="T86">
+        <v>123849900</v>
+      </c>
+      <c r="U86">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V86">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W86">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X86">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y86">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z86">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA86">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB86">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC86">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>167719559400</v>
       </c>
+      <c r="Q87">
+        <v>2127900079600</v>
+      </c>
+      <c r="R87">
+        <v>1960180520200</v>
+      </c>
+      <c r="S87">
+        <v>131722800</v>
+      </c>
+      <c r="T87">
+        <v>125247000</v>
+      </c>
+      <c r="U87">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V87">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W87">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X87">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y87">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z87">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA87">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB87">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC87">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>174624328400</v>
       </c>
+      <c r="Q88">
+        <v>2154838312200</v>
+      </c>
+      <c r="R88">
+        <v>1980213983800</v>
+      </c>
+      <c r="S88">
+        <v>133278700</v>
+      </c>
+      <c r="T88">
+        <v>126534300</v>
+      </c>
+      <c r="U88">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V88">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W88">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X88">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y88">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z88">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA88">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB88">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC88">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>205574936500</v>
       </c>
+      <c r="Q89">
+        <v>2213702143000</v>
+      </c>
+      <c r="R89">
+        <v>2008127206500</v>
+      </c>
+      <c r="S89">
+        <v>136511100</v>
+      </c>
+      <c r="T89">
+        <v>128269000</v>
+      </c>
+      <c r="U89">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V89">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W89">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X89">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y89">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z89">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA89">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB89">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC89">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>255399284300</v>
       </c>
+      <c r="Q90">
+        <v>2283580861100</v>
+      </c>
+      <c r="R90">
+        <v>2028181576800</v>
+      </c>
+      <c r="S90">
+        <v>140124400</v>
+      </c>
+      <c r="T90">
+        <v>129400400</v>
+      </c>
+      <c r="U90">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V90">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W90">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X90">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y90">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z90">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA90">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB90">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC90">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>282095966600</v>
       </c>
+      <c r="Q91">
+        <v>2332576195900</v>
+      </c>
+      <c r="R91">
+        <v>2050480229300</v>
+      </c>
+      <c r="S91">
+        <v>143150100</v>
+      </c>
+      <c r="T91">
+        <v>130783800</v>
+      </c>
+      <c r="U91">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V91">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W91">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X91">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y91">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z91">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA91">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB91">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC91">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>291785749900</v>
       </c>
+      <c r="Q92">
+        <v>2375468590700</v>
+      </c>
+      <c r="R92">
+        <v>2083682840800</v>
+      </c>
+      <c r="S92">
+        <v>146435000</v>
+      </c>
+      <c r="T92">
+        <v>133216800</v>
+      </c>
+      <c r="U92">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V92">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W92">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X92">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y92">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z92">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA92">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB92">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC92">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>292748853200</v>
       </c>
+      <c r="Q93">
+        <v>2402087627400</v>
+      </c>
+      <c r="R93">
+        <v>2109338774200</v>
+      </c>
+      <c r="S93">
+        <v>147906300</v>
+      </c>
+      <c r="T93">
+        <v>135034500</v>
+      </c>
+      <c r="U93">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V93">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W93">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X93">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y93">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z93">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA93">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB93">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC93">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>283848954100</v>
       </c>
+      <c r="Q94">
+        <v>2426592858200</v>
+      </c>
+      <c r="R94">
+        <v>2142743904100</v>
+      </c>
+      <c r="S94">
+        <v>149588200</v>
+      </c>
+      <c r="T94">
+        <v>137060800</v>
+      </c>
+      <c r="U94">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V94">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W94">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X94">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y94">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z94">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA94">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB94">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC94">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>261264905000</v>
       </c>
+      <c r="Q95">
+        <v>2452434441800</v>
+      </c>
+      <c r="R95">
+        <v>2191169536800</v>
+      </c>
+      <c r="S95">
+        <v>151034300</v>
+      </c>
+      <c r="T95">
+        <v>139947300</v>
+      </c>
+      <c r="U95">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V95">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W95">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X95">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y95">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z95">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA95">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB95">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC95">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>187228876500</v>
       </c>
+      <c r="Q96">
+        <v>2468143453100</v>
+      </c>
+      <c r="R96">
+        <v>2280914576600</v>
+      </c>
+      <c r="S96">
+        <v>151853900</v>
+      </c>
+      <c r="T96">
+        <v>145105000</v>
+      </c>
+      <c r="U96">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V96">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W96">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X96">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y96">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z96">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA96">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB96">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC96">
+        <v>43.7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>90619143300</v>
       </c>
+      <c r="Q97">
+        <v>2489500722800</v>
+      </c>
+      <c r="R97">
+        <v>2398881579500</v>
+      </c>
+      <c r="S97">
+        <v>153039300</v>
+      </c>
+      <c r="T97">
+        <v>152922300</v>
+      </c>
+      <c r="U97">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V97">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W97">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X97">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y97">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z97">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA97">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB97">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC97">
+        <v>57</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>137312700</v>
       </c>
+      <c r="Q98">
+        <v>2522663805300</v>
+      </c>
+      <c r="R98">
+        <v>2522526492600</v>
+      </c>
+      <c r="S98">
+        <v>154920500</v>
+      </c>
+      <c r="T98">
+        <v>161060500</v>
+      </c>
+      <c r="U98">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V98">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W98">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X98">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y98">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z98">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA98">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB98">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC98">
+        <v>53.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-3051831200</v>
       </c>
+      <c r="Q99">
+        <v>2569887586300</v>
+      </c>
+      <c r="R99">
+        <v>2572939417500</v>
+      </c>
+      <c r="S99">
+        <v>157707500</v>
+      </c>
+      <c r="T99">
+        <v>164328000</v>
+      </c>
+      <c r="U99">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V99">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W99">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X99">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y99">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z99">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA99">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB99">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC99">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>5896400700</v>
       </c>
+      <c r="Q100">
+        <v>2606215661200</v>
+      </c>
+      <c r="R100">
+        <v>2600319260500</v>
+      </c>
+      <c r="S100">
+        <v>159856600</v>
+      </c>
+      <c r="T100">
+        <v>166161600</v>
+      </c>
+      <c r="U100">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V100">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W100">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X100">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y100">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z100">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA100">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB100">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC100">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>12569765300</v>
       </c>
+      <c r="Q101">
+        <v>2634732247700</v>
+      </c>
+      <c r="R101">
+        <v>2622162482400</v>
+      </c>
+      <c r="S101">
+        <v>161620200</v>
+      </c>
+      <c r="T101">
+        <v>167479500</v>
+      </c>
+      <c r="U101">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V101">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W101">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X101">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y101">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z101">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA101">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB101">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC101">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>25096851000</v>
       </c>
+      <c r="Q102">
+        <v>2665652714800</v>
+      </c>
+      <c r="R102">
+        <v>2640555863800</v>
+      </c>
+      <c r="S102">
+        <v>163509300</v>
+      </c>
+      <c r="T102">
+        <v>168616400</v>
+      </c>
+      <c r="U102">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V102">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W102">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X102">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y102">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z102">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA102">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB102">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC102">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>29233316400</v>
       </c>
+      <c r="Q103">
+        <v>2689914037000</v>
+      </c>
+      <c r="R103">
+        <v>2660680720600</v>
+      </c>
+      <c r="S103">
+        <v>164809400</v>
+      </c>
+      <c r="T103">
+        <v>169934000</v>
+      </c>
+      <c r="U103">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V103">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W103">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X103">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y103">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z103">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA103">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB103">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC103">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-14752893200</v>
       </c>
+      <c r="Q104">
+        <v>2711713043500</v>
+      </c>
+      <c r="R104">
+        <v>2726465936700</v>
+      </c>
+      <c r="S104">
+        <v>165892400</v>
+      </c>
+      <c r="T104">
+        <v>173806400</v>
+      </c>
+      <c r="U104">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V104">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W104">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X104">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y104">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z104">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA104">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB104">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC104">
+        <v>26</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-44371040300</v>
       </c>
+      <c r="Q105">
+        <v>2733127989800</v>
+      </c>
+      <c r="R105">
+        <v>2777499030100</v>
+      </c>
+      <c r="S105">
+        <v>166912300</v>
+      </c>
+      <c r="T105">
+        <v>177221000</v>
+      </c>
+      <c r="U105">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V105">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W105">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X105">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y105">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z105">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA105">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB105">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC105">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-90220802000</v>
       </c>
+      <c r="Q106">
+        <v>2749938533300</v>
+      </c>
+      <c r="R106">
+        <v>2840159335300</v>
+      </c>
+      <c r="S106">
+        <v>167882100</v>
+      </c>
+      <c r="T106">
+        <v>181334800</v>
+      </c>
+      <c r="U106">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V106">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W106">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X106">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y106">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z106">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA106">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB106">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC106">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-101009261900</v>
       </c>
+      <c r="Q107">
+        <v>2781009685800</v>
+      </c>
+      <c r="R107">
+        <v>2882018947700</v>
+      </c>
+      <c r="S107">
+        <v>169658400</v>
+      </c>
+      <c r="T107">
+        <v>183991800</v>
+      </c>
+      <c r="U107">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V107">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W107">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X107">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y107">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z107">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA107">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB107">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC107">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-134317810300</v>
       </c>
+      <c r="Q108">
+        <v>2804530514200</v>
+      </c>
+      <c r="R108">
+        <v>2938848324500</v>
+      </c>
+      <c r="S108">
+        <v>171008100</v>
+      </c>
+      <c r="T108">
+        <v>187917500</v>
+      </c>
+      <c r="U108">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V108">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W108">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X108">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y108">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z108">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA108">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB108">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC108">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-205522386800</v>
       </c>
+      <c r="Q109">
+        <v>2827980175800</v>
+      </c>
+      <c r="R109">
+        <v>3033502562600</v>
+      </c>
+      <c r="S109">
+        <v>172443400</v>
+      </c>
+      <c r="T109">
+        <v>193940300</v>
+      </c>
+      <c r="U109">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V109">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W109">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X109">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y109">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z109">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA109">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB109">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC109">
+        <v>42</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-286547078600</v>
       </c>
+      <c r="Q110">
+        <v>2860567364400</v>
+      </c>
+      <c r="R110">
+        <v>3147114443000</v>
+      </c>
+      <c r="S110">
+        <v>174431800</v>
+      </c>
+      <c r="T110">
+        <v>201867500</v>
+      </c>
+      <c r="U110">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V110">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W110">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X110">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y110">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z110">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA110">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB110">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC110">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-348303412900</v>
       </c>
+      <c r="Q111">
+        <v>2894418220100</v>
+      </c>
+      <c r="R111">
+        <v>3242721633000</v>
+      </c>
+      <c r="S111">
+        <v>176560200</v>
+      </c>
+      <c r="T111">
+        <v>209055100</v>
+      </c>
+      <c r="U111">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V111">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W111">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X111">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y111">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z111">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA111">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB111">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC111">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-327624066000</v>
       </c>
+      <c r="Q112">
+        <v>2965705914700</v>
+      </c>
+      <c r="R112">
+        <v>3293329980700</v>
+      </c>
+      <c r="S112">
+        <v>181172900</v>
+      </c>
+      <c r="T112">
+        <v>212180800</v>
+      </c>
+      <c r="U112">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V112">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W112">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X112">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y112">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z112">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA112">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB112">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC112">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-253833052800</v>
       </c>
+      <c r="Q113">
+        <v>3066537115700</v>
+      </c>
+      <c r="R113">
+        <v>3320370168500</v>
+      </c>
+      <c r="S113">
+        <v>187449700</v>
+      </c>
+      <c r="T113">
+        <v>213972100</v>
+      </c>
+      <c r="U113">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V113">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W113">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X113">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y113">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z113">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA113">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB113">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC113">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-228472648700</v>
       </c>
+      <c r="Q114">
+        <v>3134320834900</v>
+      </c>
+      <c r="R114">
+        <v>3362793483600</v>
+      </c>
+      <c r="S114">
+        <v>192618800</v>
+      </c>
+      <c r="T114">
+        <v>216769400</v>
+      </c>
+      <c r="U114">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V114">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W114">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X114">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y114">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z114">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA114">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB114">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC114">
+        <v>15</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-189886390500</v>
       </c>
+      <c r="Q115">
+        <v>3241676409200</v>
+      </c>
+      <c r="R115">
+        <v>3431562799700</v>
+      </c>
+      <c r="S115">
+        <v>199230200</v>
+      </c>
+      <c r="T115">
+        <v>221220600</v>
+      </c>
+      <c r="U115">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V115">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W115">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X115">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y115">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z115">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA115">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB115">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC115">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-190009455500</v>
       </c>
+      <c r="Q116">
+        <v>3241738534200</v>
+      </c>
+      <c r="R116">
+        <v>3431747989700</v>
+      </c>
+      <c r="S116">
+        <v>199234800</v>
+      </c>
+      <c r="T116">
+        <v>221229900</v>
+      </c>
+      <c r="U116">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V116">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W116">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X116">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y116">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z116">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA116">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB116">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC116">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>-196604623300</v>
       </c>
+      <c r="Q117">
+        <v>3276294911700</v>
+      </c>
+      <c r="R117">
+        <v>3472899535000</v>
+      </c>
+      <c r="S117">
+        <v>201177100</v>
+      </c>
+      <c r="T117">
+        <v>224078600</v>
+      </c>
+      <c r="U117">
+        <v>28243921652.6</v>
+      </c>
+      <c r="V117">
+        <v>29938789094.8</v>
+      </c>
+      <c r="W117">
+        <v>62161121056.9</v>
+      </c>
+      <c r="X117">
+        <v>3914290.5</v>
+      </c>
+      <c r="Y117">
+        <v>1734285.3</v>
+      </c>
+      <c r="Z117">
+        <v>1931712.1</v>
+      </c>
+      <c r="AA117">
+        <v>-197426.7</v>
+      </c>
+      <c r="AB117">
+        <v>-1694867442.2</v>
+      </c>
+      <c r="AC117">
+        <v>3.9</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>